--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>dikson-treat-shampoo-ristrutturante</t>
   </si>
   <si>
-    <t>dd8a6a83-b78f-42ce-9acb-790ac0f316d8</t>
+    <t>24007413</t>
   </si>
   <si>
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>476.54</t>
-  </si>
-  <si>
-    <t>631.39</t>
-  </si>
-  <si>
-    <t>211.95</t>
+    <t>272.19</t>
+  </si>
+  <si>
+    <t>658.39</t>
+  </si>
+  <si>
+    <t>159.45</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -139,19 +139,19 @@
     <t>urtinol</t>
   </si>
   <si>
-    <t>3e2358ec-5eb1-4bb8-8cc7-66a20320dfe6</t>
+    <t>12201201</t>
   </si>
   <si>
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>569.19</t>
-  </si>
-  <si>
-    <t>921.35</t>
-  </si>
-  <si>
-    <t>297.35</t>
+    <t>32.59</t>
+  </si>
+  <si>
+    <t>482.60</t>
+  </si>
+  <si>
+    <t>222.29</t>
   </si>
   <si>
     <t>Emulsiondor Eurotype 980ml</t>
@@ -160,19 +160,19 @@
     <t>emulsiondor-eurotype-980ml</t>
   </si>
   <si>
-    <t>7d87dd18-a999-4c9c-b6be-5881151f0e6b</t>
+    <t>160290..</t>
   </si>
   <si>
     <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
   </si>
   <si>
-    <t>70.12</t>
-  </si>
-  <si>
-    <t>679.60</t>
-  </si>
-  <si>
-    <t>381.19</t>
+    <t>370.99</t>
+  </si>
+  <si>
+    <t>841.10</t>
+  </si>
+  <si>
+    <t>440.09</t>
   </si>
   <si>
     <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
@@ -184,22 +184,19 @@
     <t>dikso-blonde-up-to-9nine-bustine</t>
   </si>
   <si>
-    <t>dfbf6573-2317-4b12-bfbd-1b2a28b68ae5</t>
+    <t>24006101</t>
   </si>
   <si>
     <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
   </si>
   <si>
-    <t>655.49</t>
-  </si>
-  <si>
-    <t>750.69</t>
-  </si>
-  <si>
-    <t>746.55</t>
-  </si>
-  <si>
-    <t>downloadable</t>
+    <t>423.09</t>
+  </si>
+  <si>
+    <t>634.19</t>
+  </si>
+  <si>
+    <t>131.99</t>
   </si>
   <si>
     <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
@@ -211,19 +208,19 @@
     <t>dikso-blonde-maschera-antigiallo</t>
   </si>
   <si>
-    <t>6be0b841-6dc9-49f7-a1b8-5a4ebaa39b5f</t>
+    <t>24006132</t>
   </si>
   <si>
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
   </si>
   <si>
-    <t>892.33</t>
-  </si>
-  <si>
-    <t>813.09</t>
-  </si>
-  <si>
-    <t>596.59</t>
+    <t>71.54</t>
+  </si>
+  <si>
+    <t>421.69</t>
+  </si>
+  <si>
+    <t>158.25</t>
   </si>
   <si>
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
@@ -235,19 +232,19 @@
     <t>dikso-blonde-shampoo-antigiallo-tonalizzante</t>
   </si>
   <si>
-    <t>89088754-3074-4b37-bf31-d338bc72525b</t>
+    <t>24006131</t>
   </si>
   <si>
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
   </si>
   <si>
-    <t>168.70</t>
-  </si>
-  <si>
-    <t>315.69</t>
-  </si>
-  <si>
-    <t>383.89</t>
+    <t>495.50</t>
+  </si>
+  <si>
+    <t>773.69</t>
+  </si>
+  <si>
+    <t>704.49</t>
   </si>
   <si>
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
@@ -722,7 +719,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -734,16 +731,16 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>542497331</v>
+        <v>784608818</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -764,13 +761,13 @@
         <v>36</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>45354.17485667824</v>
+        <v>45414.012228391206</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -779,31 +776,31 @@
         <v>32</v>
       </c>
       <c r="T2">
-        <v>1.8525000013737005</v>
+        <v>4.199406870912882</v>
       </c>
       <c r="U2" t="s">
         <v>37</v>
       </c>
       <c r="V2">
-        <v>36.30196913885128</v>
+        <v>31.089705697612803</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
       </c>
       <c r="X2">
-        <v>31.13107235470984</v>
+        <v>5.13587262397079</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
       </c>
       <c r="Z2">
-        <v>5.012222409391641</v>
+        <v>34.2107119722279</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
       </c>
       <c r="AB2">
-        <v>6.451078481248328</v>
+        <v>8.742360066086704</v>
       </c>
       <c r="AC2" t="s">
         <v>39</v>
@@ -811,7 +808,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -823,19 +820,19 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>702509377</v>
+        <v>651957364</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -853,13 +850,13 @@
         <v>36</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45356.098723993055</v>
+        <v>45414.082795462964</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -868,31 +865,31 @@
         <v>43</v>
       </c>
       <c r="T3">
-        <v>1.373653098895575</v>
+        <v>4.710053634306025</v>
       </c>
       <c r="U3" t="s">
         <v>37</v>
       </c>
       <c r="V3">
-        <v>43.24994134013382</v>
+        <v>44.11051615733567</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
       <c r="X3">
-        <v>19.33984791183126</v>
+        <v>46.11182962176426</v>
       </c>
       <c r="Y3" t="s">
         <v>38</v>
       </c>
       <c r="Z3">
-        <v>42.32398460149136</v>
+        <v>10.48724722451991</v>
       </c>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
       <c r="AB3">
-        <v>3.092835625735816</v>
+        <v>5.423034752577904</v>
       </c>
       <c r="AC3" t="s">
         <v>39</v>
@@ -912,19 +909,19 @@
         <v>49</v>
       </c>
       <c r="E4">
-        <v>413334112</v>
+        <v>907456025</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
       </c>
       <c r="G4">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -942,13 +939,13 @@
         <v>36</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>45465.23983211805</v>
+        <v>45542.36433028935</v>
       </c>
       <c r="R4" t="s">
         <v>47</v>
@@ -957,31 +954,31 @@
         <v>54</v>
       </c>
       <c r="T4">
-        <v>5.744355754498913</v>
+        <v>7.4849935577922</v>
       </c>
       <c r="U4" t="s">
         <v>37</v>
       </c>
       <c r="V4">
-        <v>14.178523125899307</v>
+        <v>48.268533773275635</v>
       </c>
       <c r="W4" t="s">
         <v>38</v>
       </c>
       <c r="X4">
-        <v>13.383902982555849</v>
+        <v>27.01973739850978</v>
       </c>
       <c r="Y4" t="s">
         <v>38</v>
       </c>
       <c r="Z4">
-        <v>41.46459465264111</v>
+        <v>24.9103585026643</v>
       </c>
       <c r="AA4" t="s">
         <v>38</v>
       </c>
       <c r="AB4">
-        <v>1.3398163350757337</v>
+        <v>1.9249188637905499</v>
       </c>
       <c r="AC4" t="s">
         <v>39</v>
@@ -989,7 +986,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1001,16 +998,16 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>339384637</v>
+        <v>586385698</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1028,49 +1025,49 @@
         <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>45465.066097268515</v>
+        <v>45362.69765949074</v>
       </c>
       <c r="R5" t="s">
         <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T5">
-        <v>1.7784848559133757</v>
+        <v>8.677212025983309</v>
       </c>
       <c r="U5" t="s">
         <v>37</v>
       </c>
       <c r="V5">
-        <v>49.07753502142214</v>
+        <v>34.2356867704363</v>
       </c>
       <c r="W5" t="s">
         <v>38</v>
       </c>
       <c r="X5">
-        <v>37.019117585425214</v>
+        <v>18.44506191193158</v>
       </c>
       <c r="Y5" t="s">
         <v>38</v>
       </c>
       <c r="Z5">
-        <v>16.329475891045373</v>
+        <v>19.95380657978766</v>
       </c>
       <c r="AA5" t="s">
         <v>38</v>
       </c>
       <c r="AB5">
-        <v>5.292071801031912</v>
+        <v>9.782634580298305</v>
       </c>
       <c r="AC5" t="s">
         <v>39</v>
@@ -1078,28 +1075,28 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>283695387</v>
+      </c>
+      <c r="F6" t="s">
         <v>66</v>
       </c>
-      <c r="E6">
-        <v>342458728</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
       <c r="G6">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1108,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
         <v>68</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>69</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -1123,43 +1120,43 @@
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>45531.8911390625</v>
+        <v>45538.0885502662</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6">
-        <v>9.709899343349427</v>
+        <v>4.38747982142303</v>
       </c>
       <c r="U6" t="s">
         <v>37</v>
       </c>
       <c r="V6">
-        <v>21.11411563230086</v>
+        <v>39.616609813346024</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
       <c r="X6">
-        <v>42.19450501040604</v>
+        <v>28.515595345172635</v>
       </c>
       <c r="Y6" t="s">
         <v>38</v>
       </c>
       <c r="Z6">
-        <v>2.191079450828676</v>
+        <v>42.96911704970425</v>
       </c>
       <c r="AA6" t="s">
         <v>38</v>
       </c>
       <c r="AB6">
-        <v>2.5069281131205994</v>
+        <v>7.0001691175311285</v>
       </c>
       <c r="AC6" t="s">
         <v>39</v>
@@ -1170,25 +1167,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>580950533</v>
+      </c>
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="E7">
-        <v>963132118</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
       <c r="G7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1197,58 +1194,58 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
         <v>76</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>77</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>45501.8420355787</v>
+      </c>
+      <c r="R7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s">
         <v>78</v>
       </c>
-      <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>45616.439118379625</v>
-      </c>
-      <c r="R7" t="s">
-        <v>72</v>
-      </c>
-      <c r="S7" t="s">
-        <v>79</v>
-      </c>
       <c r="T7">
-        <v>0.4272025353612705</v>
+        <v>9.03034180208993</v>
       </c>
       <c r="U7" t="s">
         <v>37</v>
       </c>
       <c r="V7">
-        <v>31.657831164130663</v>
+        <v>26.916937947747755</v>
       </c>
       <c r="W7" t="s">
         <v>38</v>
       </c>
       <c r="X7">
-        <v>9.41918499171444</v>
+        <v>48.25310721409935</v>
       </c>
       <c r="Y7" t="s">
         <v>38</v>
       </c>
       <c r="Z7">
-        <v>15.93115004180955</v>
+        <v>37.29758632242219</v>
       </c>
       <c r="AA7" t="s">
         <v>38</v>
       </c>
       <c r="AB7">
-        <v>6.356265322979252</v>
+        <v>4.053355996349347</v>
       </c>
       <c r="AC7" t="s">
         <v>39</v>

--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -112,13 +112,13 @@
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>272.19</t>
-  </si>
-  <si>
-    <t>658.39</t>
-  </si>
-  <si>
-    <t>159.45</t>
+    <t>24.39</t>
+  </si>
+  <si>
+    <t>772.19</t>
+  </si>
+  <si>
+    <t>601.55</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -145,13 +145,13 @@
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>32.59</t>
-  </si>
-  <si>
-    <t>482.60</t>
-  </si>
-  <si>
-    <t>222.29</t>
+    <t>890.05</t>
+  </si>
+  <si>
+    <t>295.89</t>
+  </si>
+  <si>
+    <t>425.39</t>
   </si>
   <si>
     <t>Emulsiondor Eurotype 980ml</t>
@@ -166,13 +166,13 @@
     <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
   </si>
   <si>
-    <t>370.99</t>
-  </si>
-  <si>
-    <t>841.10</t>
-  </si>
-  <si>
-    <t>440.09</t>
+    <t>161.09</t>
+  </si>
+  <si>
+    <t>336.41</t>
+  </si>
+  <si>
+    <t>555.09</t>
   </si>
   <si>
     <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
@@ -190,13 +190,13 @@
     <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
   </si>
   <si>
-    <t>423.09</t>
-  </si>
-  <si>
-    <t>634.19</t>
-  </si>
-  <si>
-    <t>131.99</t>
+    <t>66.25</t>
+  </si>
+  <si>
+    <t>120.09</t>
+  </si>
+  <si>
+    <t>821.25</t>
   </si>
   <si>
     <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
@@ -214,13 +214,13 @@
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
   </si>
   <si>
-    <t>71.54</t>
-  </si>
-  <si>
-    <t>421.69</t>
-  </si>
-  <si>
-    <t>158.25</t>
+    <t>385.05</t>
+  </si>
+  <si>
+    <t>202.20</t>
+  </si>
+  <si>
+    <t>440.02</t>
   </si>
   <si>
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
@@ -238,13 +238,13 @@
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
   </si>
   <si>
-    <t>495.50</t>
-  </si>
-  <si>
-    <t>773.69</t>
-  </si>
-  <si>
-    <t>704.49</t>
+    <t>521.69</t>
+  </si>
+  <si>
+    <t>364.25</t>
+  </si>
+  <si>
+    <t>94.05</t>
   </si>
   <si>
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
@@ -731,19 +731,19 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>784608818</v>
+        <v>141815307</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>45414.012228391206</v>
+        <v>45273.74955259259</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -776,31 +776,31 @@
         <v>32</v>
       </c>
       <c r="T2">
-        <v>4.199406870912882</v>
+        <v>8.85519511401186</v>
       </c>
       <c r="U2" t="s">
         <v>37</v>
       </c>
       <c r="V2">
-        <v>31.089705697612803</v>
+        <v>49.04905265046132</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
       </c>
       <c r="X2">
-        <v>5.13587262397079</v>
+        <v>39.01588492645164</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
       </c>
       <c r="Z2">
-        <v>34.2107119722279</v>
+        <v>10.461210666906847</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
       </c>
       <c r="AB2">
-        <v>8.742360066086704</v>
+        <v>5.475500312252578</v>
       </c>
       <c r="AC2" t="s">
         <v>39</v>
@@ -820,19 +820,19 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>651957364</v>
+        <v>611109074</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45414.082795462964</v>
+        <v>45389.790285034724</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -865,31 +865,31 @@
         <v>43</v>
       </c>
       <c r="T3">
-        <v>4.710053634306025</v>
+        <v>4.765024664592381</v>
       </c>
       <c r="U3" t="s">
         <v>37</v>
       </c>
       <c r="V3">
-        <v>44.11051615733567</v>
+        <v>23.542373718088587</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
       <c r="X3">
-        <v>46.11182962176426</v>
+        <v>37.91698461123941</v>
       </c>
       <c r="Y3" t="s">
         <v>38</v>
       </c>
       <c r="Z3">
-        <v>10.48724722451991</v>
+        <v>27.950726686894743</v>
       </c>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
       <c r="AB3">
-        <v>5.423034752577904</v>
+        <v>7.260371091409014</v>
       </c>
       <c r="AC3" t="s">
         <v>39</v>
@@ -909,19 +909,19 @@
         <v>49</v>
       </c>
       <c r="E4">
-        <v>907456025</v>
+        <v>757928786</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>45542.36433028935</v>
+        <v>45297.609761921296</v>
       </c>
       <c r="R4" t="s">
         <v>47</v>
@@ -954,31 +954,31 @@
         <v>54</v>
       </c>
       <c r="T4">
-        <v>7.4849935577922</v>
+        <v>5.21688854240584</v>
       </c>
       <c r="U4" t="s">
         <v>37</v>
       </c>
       <c r="V4">
-        <v>48.268533773275635</v>
+        <v>36.846225645272405</v>
       </c>
       <c r="W4" t="s">
         <v>38</v>
       </c>
       <c r="X4">
-        <v>27.01973739850978</v>
+        <v>22.4110306333934</v>
       </c>
       <c r="Y4" t="s">
         <v>38</v>
       </c>
       <c r="Z4">
-        <v>24.9103585026643</v>
+        <v>18.91207226577805</v>
       </c>
       <c r="AA4" t="s">
         <v>38</v>
       </c>
       <c r="AB4">
-        <v>1.9249188637905499</v>
+        <v>4.196053395271396</v>
       </c>
       <c r="AC4" t="s">
         <v>39</v>
@@ -998,19 +998,19 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>586385698</v>
+        <v>196626737</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>45362.69765949074</v>
+        <v>45320.68106736111</v>
       </c>
       <c r="R5" t="s">
         <v>55</v>
@@ -1043,31 +1043,31 @@
         <v>62</v>
       </c>
       <c r="T5">
-        <v>8.677212025983309</v>
+        <v>6.966608862124648</v>
       </c>
       <c r="U5" t="s">
         <v>37</v>
       </c>
       <c r="V5">
-        <v>34.2356867704363</v>
+        <v>47.225823554326404</v>
       </c>
       <c r="W5" t="s">
         <v>38</v>
       </c>
       <c r="X5">
-        <v>18.44506191193158</v>
+        <v>14.250302716908461</v>
       </c>
       <c r="Y5" t="s">
         <v>38</v>
       </c>
       <c r="Z5">
-        <v>19.95380657978766</v>
+        <v>31.76360245157376</v>
       </c>
       <c r="AA5" t="s">
         <v>38</v>
       </c>
       <c r="AB5">
-        <v>9.782634580298305</v>
+        <v>7.005868748092701</v>
       </c>
       <c r="AC5" t="s">
         <v>39</v>
@@ -1087,19 +1087,19 @@
         <v>65</v>
       </c>
       <c r="E6">
-        <v>283695387</v>
+        <v>568794206</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>45538.0885502662</v>
+        <v>45559.71535943287</v>
       </c>
       <c r="R6" t="s">
         <v>63</v>
@@ -1132,31 +1132,31 @@
         <v>70</v>
       </c>
       <c r="T6">
-        <v>4.38747982142303</v>
+        <v>6.45411638949085</v>
       </c>
       <c r="U6" t="s">
         <v>37</v>
       </c>
       <c r="V6">
-        <v>39.616609813346024</v>
+        <v>32.099858765126626</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
       <c r="X6">
-        <v>28.515595345172635</v>
+        <v>2.9530478551930788</v>
       </c>
       <c r="Y6" t="s">
         <v>38</v>
       </c>
       <c r="Z6">
-        <v>42.96911704970425</v>
+        <v>1.8741287881629884</v>
       </c>
       <c r="AA6" t="s">
         <v>38</v>
       </c>
       <c r="AB6">
-        <v>7.0001691175311285</v>
+        <v>1.649976373639804</v>
       </c>
       <c r="AC6" t="s">
         <v>39</v>
@@ -1176,16 +1176,16 @@
         <v>73</v>
       </c>
       <c r="E7">
-        <v>580950533</v>
+        <v>394560986</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>45501.8420355787</v>
+        <v>45545.130884479164</v>
       </c>
       <c r="R7" t="s">
         <v>71</v>
@@ -1221,31 +1221,31 @@
         <v>78</v>
       </c>
       <c r="T7">
-        <v>9.03034180208993</v>
+        <v>9.03736662263031</v>
       </c>
       <c r="U7" t="s">
         <v>37</v>
       </c>
       <c r="V7">
-        <v>26.916937947747755</v>
+        <v>28.570084203756867</v>
       </c>
       <c r="W7" t="s">
         <v>38</v>
       </c>
       <c r="X7">
-        <v>48.25310721409935</v>
+        <v>11.03627159248008</v>
       </c>
       <c r="Y7" t="s">
         <v>38</v>
       </c>
       <c r="Z7">
-        <v>37.29758632242219</v>
+        <v>9.505004234573828</v>
       </c>
       <c r="AA7" t="s">
         <v>38</v>
       </c>
       <c r="AB7">
-        <v>4.053355996349347</v>
+        <v>0.4518852489763069</v>
       </c>
       <c r="AC7" t="s">
         <v>39</v>

--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="332">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>24.39</t>
-  </si>
-  <si>
-    <t>772.19</t>
-  </si>
-  <si>
-    <t>601.55</t>
+    <t>892.09</t>
+  </si>
+  <si>
+    <t>146.15</t>
+  </si>
+  <si>
+    <t>572.29</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -145,13 +145,127 @@
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>890.05</t>
-  </si>
-  <si>
-    <t>295.89</t>
-  </si>
-  <si>
-    <t>425.39</t>
+    <t>202.49</t>
+  </si>
+  <si>
+    <t>127.79</t>
+  </si>
+  <si>
+    <t>147.09</t>
+  </si>
+  <si>
+    <t>Structur Fort</t>
+  </si>
+  <si>
+    <t>structur-fort</t>
+  </si>
+  <si>
+    <t>12077011</t>
+  </si>
+  <si>
+    <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agendo come ottimo districante ed emolliente.Aiuta la stabilizzazione delle condizioni fisiologiche ideali della cute agendo, quindi, anche da antiforfora e antigrasso.10x12ml.</t>
+  </si>
+  <si>
+    <t>213.05</t>
+  </si>
+  <si>
+    <t>428.05</t>
+  </si>
+  <si>
+    <t>414.25</t>
+  </si>
+  <si>
+    <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agend</t>
+  </si>
+  <si>
+    <t>Dikson Treat shampoo neutro</t>
+  </si>
+  <si>
+    <t>dikson-treat-shampoo-neutro</t>
+  </si>
+  <si>
+    <t>24007424</t>
+  </si>
+  <si>
+    <t>Con Olio di Argan.Deterge delicatamente senza alterare il naturale equilibrio.L’olio di argan fortifica i capelli.Uso professionale.10kg.</t>
+  </si>
+  <si>
+    <t>413.35</t>
+  </si>
+  <si>
+    <t>247.09</t>
+  </si>
+  <si>
+    <t>131.25</t>
+  </si>
+  <si>
+    <t>Herbelan pack</t>
+  </si>
+  <si>
+    <t>herbelan-pack</t>
+  </si>
+  <si>
+    <t>13046002</t>
+  </si>
+  <si>
+    <t>1000ml.</t>
+  </si>
+  <si>
+    <t>112.45</t>
+  </si>
+  <si>
+    <t>398.50</t>
+  </si>
+  <si>
+    <t>968.65</t>
+  </si>
+  <si>
+    <t>Sutil</t>
+  </si>
+  <si>
+    <t>sutil</t>
+  </si>
+  <si>
+    <t>12077271</t>
+  </si>
+  <si>
+    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fisico-chimici e migliorano la pettinabilità.Indicato per ogni tipo di acconciatura.250ml.</t>
+  </si>
+  <si>
+    <t>359.85</t>
+  </si>
+  <si>
+    <t>723.89</t>
+  </si>
+  <si>
+    <t>718.10</t>
+  </si>
+  <si>
+    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fi</t>
+  </si>
+  <si>
+    <t>Dikson Treat shampoo riparatore</t>
+  </si>
+  <si>
+    <t>dikson-treat-shampoo-riparatore</t>
+  </si>
+  <si>
+    <t>24007414</t>
+  </si>
+  <si>
+    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti.Uso professionale.10kg.</t>
+  </si>
+  <si>
+    <t>285.35</t>
+  </si>
+  <si>
+    <t>504.89</t>
+  </si>
+  <si>
+    <t>165.69</t>
+  </si>
+  <si>
+    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti</t>
   </si>
   <si>
     <t>Emulsiondor Eurotype 980ml</t>
@@ -166,13 +280,13 @@
     <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
   </si>
   <si>
-    <t>161.09</t>
-  </si>
-  <si>
-    <t>336.41</t>
-  </si>
-  <si>
-    <t>555.09</t>
+    <t>400.09</t>
+  </si>
+  <si>
+    <t>364.89</t>
+  </si>
+  <si>
+    <t>495.95</t>
   </si>
   <si>
     <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
@@ -190,13 +304,13 @@
     <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
   </si>
   <si>
-    <t>66.25</t>
-  </si>
-  <si>
-    <t>120.09</t>
-  </si>
-  <si>
-    <t>821.25</t>
+    <t>517.89</t>
+  </si>
+  <si>
+    <t>987.09</t>
+  </si>
+  <si>
+    <t>323.35</t>
   </si>
   <si>
     <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
@@ -214,13 +328,13 @@
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
   </si>
   <si>
-    <t>385.05</t>
-  </si>
-  <si>
-    <t>202.20</t>
-  </si>
-  <si>
-    <t>440.02</t>
+    <t>461.69</t>
+  </si>
+  <si>
+    <t>465.85</t>
+  </si>
+  <si>
+    <t>516.55</t>
   </si>
   <si>
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
@@ -238,16 +352,661 @@
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
   </si>
   <si>
-    <t>521.69</t>
-  </si>
-  <si>
-    <t>364.25</t>
-  </si>
-  <si>
-    <t>94.05</t>
+    <t>216.50</t>
+  </si>
+  <si>
+    <t>352.09</t>
+  </si>
+  <si>
+    <t>561.66</t>
   </si>
   <si>
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
+  </si>
+  <si>
+    <t>Illaminaction final touch spray</t>
+  </si>
+  <si>
+    <t>illaminaction-final-touch-spray</t>
+  </si>
+  <si>
+    <t>24006256</t>
+  </si>
+  <si>
+    <t>Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la lucentezza dei capelli con un effetto leggero, che non appesantisce.USO: Vaporizzare a capelli asciutti per completare il processo di laminazione e attriburire un fattore di Extra Brilantezza Applicare anche più volte al giorno per esaltare l’Effetto Specchio dei capelli.</t>
+  </si>
+  <si>
+    <t>270.69</t>
+  </si>
+  <si>
+    <t>383.50</t>
+  </si>
+  <si>
+    <t>121.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la </t>
+  </si>
+  <si>
+    <t>Illaminaction Concentrato laminante</t>
+  </si>
+  <si>
+    <t>illaminaction-concentrato-laminante</t>
+  </si>
+  <si>
+    <t>24006253</t>
+  </si>
+  <si>
+    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificante dell’Olio di Cocco, nutre, ammorbidisce e apporta struttura proteica all’interno del capello. Il suo speciale pH acido sigilla istantaneamente le squame per concentrarne l’effetto sostantivante e rigenerante, creando una lamina esterna protettiva. La speciale Tecnologia Termoattiva , potenziata con Acido Ialuronico e Vitamina E, fissa il trattamento laminante sopra le squame con un effetto «lamellare» uniforme e brillante.USO: Applicare su capelli bagnati e massaggiare a lungo. Risciacquare e ripetere l’applicazione. Asciugare parzialmente i capelli prima di passare alla fase successiva.</t>
+  </si>
+  <si>
+    <t>489.99</t>
+  </si>
+  <si>
+    <t>229.39</t>
+  </si>
+  <si>
+    <t>641.29</t>
+  </si>
+  <si>
+    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificant</t>
+  </si>
+  <si>
+    <t>Illaminaction Primer preparatore alcalinizzante</t>
+  </si>
+  <si>
+    <t>illaminaction-primer-preparatore-alcalinizzante</t>
+  </si>
+  <si>
+    <t>24006252</t>
+  </si>
+  <si>
+    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula agevola l’apertura delle squame senza intaccare la struttura del capello.USO: Dopo lo shampoo, asciugare parzialmente per eliminare residui d’acqua e vaporizzare il Primer uniformemente su lunghezze e punte. Massaggiare e pettinare delicatamente. Eliminare l’eventuale eccesso di prodotto con il phon e procedere con il Trattamento Laminante.</t>
+  </si>
+  <si>
+    <t>544.19</t>
+  </si>
+  <si>
+    <t>422.59</t>
+  </si>
+  <si>
+    <t>35.49</t>
+  </si>
+  <si>
+    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula age</t>
+  </si>
+  <si>
+    <t>Cristalli Fluidi</t>
+  </si>
+  <si>
+    <t>cristalli-fluidi</t>
+  </si>
+  <si>
+    <t>12077211</t>
+  </si>
+  <si>
+    <t>Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution and weathering agents.It wraps the hair with an elastic micro sheath and welds split ends.It develops an intense revitalizing action.It donates an intense, crystalline glossiness, brightness and silk effect.Smooth hair, easy to brush and silky to the touch. Disentangling – it does not oil.cod. 12077211C - 100 ml</t>
+  </si>
+  <si>
+    <t>223.10</t>
+  </si>
+  <si>
+    <t>199.79</t>
+  </si>
+  <si>
+    <t>57.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution </t>
+  </si>
+  <si>
+    <t>Dikso Sten</t>
+  </si>
+  <si>
+    <t>dikso-sten</t>
+  </si>
+  <si>
+    <t>19010301</t>
+  </si>
+  <si>
+    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natural or treated.For professional use.Straightening gel:100ml + neutralizer: 100ml.</t>
+  </si>
+  <si>
+    <t>59.79</t>
+  </si>
+  <si>
+    <t>424.29</t>
+  </si>
+  <si>
+    <t>426.79</t>
+  </si>
+  <si>
+    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natur</t>
+  </si>
+  <si>
+    <t>Soffice forte</t>
+  </si>
+  <si>
+    <t>soffice-forte</t>
+  </si>
+  <si>
+    <t>15132001</t>
+  </si>
+  <si>
+    <t>No gas. Ensures a high output.Natural hold, does not make hair heavy; removable with a few brush strokes.Maximum output.Strong hold factor.350ml.</t>
+  </si>
+  <si>
+    <t>741.69</t>
+  </si>
+  <si>
+    <t>903.39</t>
+  </si>
+  <si>
+    <t>83.55</t>
+  </si>
+  <si>
+    <t>Dikson Luxury Caviar conditioner</t>
+  </si>
+  <si>
+    <t>dikson-luxury-caviar-conditioner</t>
+  </si>
+  <si>
+    <t>24005903</t>
+  </si>
+  <si>
+    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extract of Caulerpa Lentillifera, common algae in the Far East, rich in minerals, polysaccharides, vitamins A, C and E and trace elements, which soften the hair and restore vitality to the hair structure, while protecting it from oxidative stress and future damage. Created to rapidly help weakened and dull hair to return strong, looking radiant and healthy. For best results, use with the other products in the Dikson Luxury Caviar line.cod 24005903 - 280ml.cod 24005902 - 1000ml.</t>
+  </si>
+  <si>
+    <t>339.79</t>
+  </si>
+  <si>
+    <t>419.79</t>
+  </si>
+  <si>
+    <t>471.99</t>
+  </si>
+  <si>
+    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extr</t>
+  </si>
+  <si>
+    <t>Dikson Luxury Caviar maschera rivitalizzante</t>
+  </si>
+  <si>
+    <t>dikson-luxury-caviar-maschera-rivitalizzante</t>
+  </si>
+  <si>
+    <t>24005904</t>
+  </si>
+  <si>
+    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and nourished.500ml.</t>
+  </si>
+  <si>
+    <t>343.09</t>
+  </si>
+  <si>
+    <t>194.55</t>
+  </si>
+  <si>
+    <t>428.49</t>
+  </si>
+  <si>
+    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and n</t>
+  </si>
+  <si>
+    <t>Illaminaction lamellar sealer</t>
+  </si>
+  <si>
+    <t>illaminaction-lamellar-sealer</t>
+  </si>
+  <si>
+    <t>24006255</t>
+  </si>
+  <si>
+    <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact and soft. It protects against heat, setting the lamellar film on the cuticle for a «mirror-effect» illuminating action that leaves the hair looking healthy, full of life and of light-reflecting shine.USE: Spray evenly onto the lengths and ends and blow-dry. Use a straightener for an even glossier effect.</t>
+  </si>
+  <si>
+    <t>781.85</t>
+  </si>
+  <si>
+    <t>824.81</t>
+  </si>
+  <si>
+    <t>814.79</t>
+  </si>
+  <si>
+    <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact a</t>
+  </si>
+  <si>
+    <t>Illaminaction laminating concentrate</t>
+  </si>
+  <si>
+    <t>illaminaction-laminating-concentrate</t>
+  </si>
+  <si>
+    <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its special acidic pH instantly seals the scales for a more targeted replenishing and regenerating effect, creating a protective outer layer. The special Thermo-Active Technology, boosted with Hyaluronic Acid and Vitamin E, seals the laminating treatment on the scales for a glossy and uniform «lamellar» effect.USE: after the Primer, use a brush to apply a suitable amount of Laminating Concentrate on each strand. Massage gently against the scales to let the product absorb, and then comb through with a wide tooth comb to promote the pH sealing action. Apply a cap and place under a heat source for 10 minutes. Then rinse.</t>
+  </si>
+  <si>
+    <t>189.75</t>
+  </si>
+  <si>
+    <t>466.79</t>
+  </si>
+  <si>
+    <t>247.59</t>
+  </si>
+  <si>
+    <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its spec</t>
+  </si>
+  <si>
+    <t>Illaminaction alkalising primer preparer</t>
+  </si>
+  <si>
+    <t>illaminaction-alkalising-primer-preparer</t>
+  </si>
+  <si>
+    <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps open up the scales without damaging the hair structure.USE: SHAKE WELL BEFORE USE. After shampooing, partially dry the hair to get rid of any excess water and spray the Primer evenly onto lengths and ends. Massage and comb gently. Remove any excess product with a hair dryer and then proceed with the Lamination Treatment.</t>
+  </si>
+  <si>
+    <t>326.29</t>
+  </si>
+  <si>
+    <t>301.39</t>
+  </si>
+  <si>
+    <t>308.75</t>
+  </si>
+  <si>
+    <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps</t>
+  </si>
+  <si>
+    <t>Platidik</t>
+  </si>
+  <si>
+    <t>platidik</t>
+  </si>
+  <si>
+    <t>18035024</t>
+  </si>
+  <si>
+    <t>Super decolorante professionale per capelli rapido universale ideale per decolorazioni forti, contrasti, mèches e colpi di sole.Uso professionale.24x35g.</t>
+  </si>
+  <si>
+    <t>886.79</t>
+  </si>
+  <si>
+    <t>568.89</t>
+  </si>
+  <si>
+    <t>791.45</t>
+  </si>
+  <si>
+    <t>Oil gel</t>
+  </si>
+  <si>
+    <t>oil-gel</t>
+  </si>
+  <si>
+    <t>12100520</t>
+  </si>
+  <si>
+    <t>Gel fissativo ad azione lucidante per un effetto bagnato duraturo.500ml.</t>
+  </si>
+  <si>
+    <t>696.35</t>
+  </si>
+  <si>
+    <t>56.46</t>
+  </si>
+  <si>
+    <t>450.75</t>
+  </si>
+  <si>
+    <t>PR 25</t>
+  </si>
+  <si>
+    <t>pr-25</t>
+  </si>
+  <si>
+    <t>12111211</t>
+  </si>
+  <si>
+    <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capelli fragili e deboli.10x10ml.</t>
+  </si>
+  <si>
+    <t>676.55</t>
+  </si>
+  <si>
+    <t>433.65</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capel</t>
+  </si>
+  <si>
+    <t>Platidik Advanced</t>
+  </si>
+  <si>
+    <t>platidik-advanced</t>
+  </si>
+  <si>
+    <t>18035030</t>
+  </si>
+  <si>
+    <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso professionale.24x35g.</t>
+  </si>
+  <si>
+    <t>826.89</t>
+  </si>
+  <si>
+    <t>893.85</t>
+  </si>
+  <si>
+    <t>341.29</t>
+  </si>
+  <si>
+    <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso</t>
+  </si>
+  <si>
+    <t>Polipant Complex</t>
+  </si>
+  <si>
+    <t>polipant-complex</t>
+  </si>
+  <si>
+    <t>12091200</t>
+  </si>
+  <si>
+    <t>Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di prevenzione contro la caduta dei capelli.12x10ml.</t>
+  </si>
+  <si>
+    <t>63.85</t>
+  </si>
+  <si>
+    <t>304.49</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di </t>
+  </si>
+  <si>
+    <t>Poly oil</t>
+  </si>
+  <si>
+    <t>poly-oil</t>
+  </si>
+  <si>
+    <t>12077110</t>
+  </si>
+  <si>
+    <t>Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto capillare e riduce la presenza di doppie punte.E’ di efficace aiuto per la realizzazione di raccolti.Si applica su capelli sia asciutti che bagnati.12x10ml.</t>
+  </si>
+  <si>
+    <t>56.95</t>
+  </si>
+  <si>
+    <t>458.55</t>
+  </si>
+  <si>
+    <t>995.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto </t>
+  </si>
+  <si>
+    <t>Ristrutturante Dikson</t>
+  </si>
+  <si>
+    <t>ristrutturante-dikson</t>
+  </si>
+  <si>
+    <t>12077002</t>
+  </si>
+  <si>
+    <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabilirsi dell’equilibrio fisiologico dei capelli naturali.Svolge un’efficace azione protettiva, districante ed emolliente; ideale sia dopo l’applicazione di trattamenti alcalini (tinture, permanenti, decolorazioni ecc.) come coadiuvante, sia prima per un’intensa azione protettiva.12x12ml.</t>
+  </si>
+  <si>
+    <t>354.89</t>
+  </si>
+  <si>
+    <t>584.79</t>
+  </si>
+  <si>
+    <t>739.59</t>
+  </si>
+  <si>
+    <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabili</t>
+  </si>
+  <si>
+    <t>Diksoplex Defensive n°1</t>
+  </si>
+  <si>
+    <t>diksoplex-defensive-n1</t>
+  </si>
+  <si>
+    <t>24005202</t>
+  </si>
+  <si>
+    <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità.Senza Parabeni e Solfati.100ml.A tutte le clienti che richiedono servizi tecnici in salone e a quelle che hanno capelli sfibrati da ripetuti servizi tecnici.Diksoplex Defensive non modifica in alcun modo gli abituali metodi di realizzazione dei servizi tecnici, né nelle fasi applicative, né nei tempi, ma assicura protezione alla struttura dei capelli durante il loro svolgimento.Che il rapporto di miscelazione della crema colorante sia 1:1 o 1:1,5, la diluizione con Diksoplex Defensive 1.Shield non cambia e rimane 2ml di prodotto ogni 20ml di crema colorante.La diluizione cambia quando il rapporto di miscelazione con l’ossidante riguarda una colorazione superschiarente: in questo caso si devono impiegare 4ml di Diksoplex Defensive 1.Shield ogni 25g di crema colorante superschiarente.Si, se la struttura dei capelli lo consente.No, il potere schiarente non si modifica.È tuttavia fondamentale che vengano rispettate le dosi di miscelazione.Certamente, è possibile utilizzare il sistema Diksoplex Defensive su capelli che sono stati colorati, decolorati, stirati o permanentati, anche se la loro struttura appare integra.Diksoplex Defensive 1.Shield deve essere miscelato in proporzione fissa, come indicato nelle modalità di applicazione nei singoli servizi tecnici.Invece la quantità di Diksoplex Defensive 2.Shield Magnifier dipende dalla lunghezza dei capelli e dalla loro porosità.Quindi la dose può essere commisurata a quella che si userebbe se il prodotto fosse una maschera o un conditioner.Certamente.Le modalità di utilizzo sono identiche sia che i capelli siano naturali o che si tratti di extension.Non ci sono controindicazioni.È tuttavia consigliabile non esporre i capelli durante il trattamento con Diksoplex Defensive a temperature superiori a 40/45°C di caldo umido.È altresì consigliabile un controllo più frequente durante l’operazione poiché il calore accelera i tempi di azione del colore e del decolorante.</t>
+  </si>
+  <si>
+    <t>836.14</t>
+  </si>
+  <si>
+    <t>149.56</t>
+  </si>
+  <si>
+    <t>424.45</t>
+  </si>
+  <si>
+    <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive Mini Kit</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-mini-kit</t>
+  </si>
+  <si>
+    <t>24006220</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°1 X 100mlDiksolissage Lissactive n°2 X 250mlDiksolissage Lissactive n°3 X 100ml</t>
+  </si>
+  <si>
+    <t>740.89</t>
+  </si>
+  <si>
+    <t>693.19</t>
+  </si>
+  <si>
+    <t>428.75</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°3</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-n3</t>
+  </si>
+  <si>
+    <t>24006213</t>
+  </si>
+  <si>
+    <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li lascia setosi al tatto, brillanti e visibilmente sani.Utilizzabile anche come maschera di mantenimento post-trattamento in abbinamento a n°1 DIKSO LISSAGE.LISSACTIVE. Shampoo.</t>
+  </si>
+  <si>
+    <t>281.65</t>
+  </si>
+  <si>
+    <t>652.49</t>
+  </si>
+  <si>
+    <t>694.59</t>
+  </si>
+  <si>
+    <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li la</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°2</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-n2</t>
+  </si>
+  <si>
+    <t>24006212</t>
+  </si>
+  <si>
+    <t>CREMA TRATTAMENTO LISCIANTE ANTICRESPOda 250mlCuore del trattamento DIKSO LISSAGE. LISSACTIVE,liscia i capelli rigenerandoli allo stesso tempo.</t>
+  </si>
+  <si>
+    <t>479.45</t>
+  </si>
+  <si>
+    <t>305.44</t>
+  </si>
+  <si>
+    <t>591.65</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°1</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-n1</t>
+  </si>
+  <si>
+    <t>24006211</t>
+  </si>
+  <si>
+    <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. LISSACTIVE.Senza Solfati.Da utilizzare solo in abbinamento alla crema-trattamento lisciante e come shampoo di mantenimento post-trattamento.</t>
+  </si>
+  <si>
+    <t>441.75</t>
+  </si>
+  <si>
+    <t>478.09</t>
+  </si>
+  <si>
+    <t>121.95</t>
+  </si>
+  <si>
+    <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. L</t>
+  </si>
+  <si>
+    <t>Dikso Neutral</t>
+  </si>
+  <si>
+    <t>dikso-neutral</t>
+  </si>
+  <si>
+    <t>20096042</t>
+  </si>
+  <si>
+    <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei capelli e del cuoio capelluto. L’elemento INNOVATIVO su cui si basa è una FORMULAZIONE UNICA BILANCIATA e TRATTANTE ESCLUSIVA, che ne consente l’applicazione su TUTTI I TIPI DI CAPELLI (naturali, trattati, colorati). Altra peculiarità che la rende applicabile su TUTTI I TIPI DI CAPELLI è la sua NON AGGRESSIVITÀ, in quanto è SENZA AMMONIACA e SENZA ACIDO TIOGLICOLICO.Stabilizza al meglio l’ondulazione rendendola uniforme dalle radici alle punte e neutralizza efficacemente i residui alcalini del liquido ondulante, mentre gli agenti condizionanti garantiscono protezione ed idratazione, preservando la struttura capillare.750 ml</t>
+  </si>
+  <si>
+    <t>509.39</t>
+  </si>
+  <si>
+    <t>360.79</t>
+  </si>
+  <si>
+    <t>315.94</t>
+  </si>
+  <si>
+    <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei cape</t>
+  </si>
+  <si>
+    <t>Diksoplex Defensive micro kit</t>
+  </si>
+  <si>
+    <t>diksoplex-defensive-micro-kit</t>
+  </si>
+  <si>
+    <t>24005232</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>720.49</t>
+  </si>
+  <si>
+    <t>9.19</t>
+  </si>
+  <si>
+    <t>564.89</t>
+  </si>
+  <si>
+    <t>Dikson Color</t>
+  </si>
+  <si>
+    <t>dikson-color</t>
+  </si>
+  <si>
+    <t>200210...</t>
+  </si>
+  <si>
+    <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per un’elevata cosmeticità.Colore stabile.Base cremosa condizionante.Riflessi naturali e di straordinaria brillantezza.Ampia gamma di varianti colore.Tonalità fredde.Tubo da 120ml per 2 trattamenti colore.</t>
+  </si>
+  <si>
+    <t>966.09</t>
+  </si>
+  <si>
+    <t>702.38</t>
+  </si>
+  <si>
+    <t>926.45</t>
+  </si>
+  <si>
+    <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per</t>
+  </si>
+  <si>
+    <t>Emulsiondor Eurotype 125ml</t>
+  </si>
+  <si>
+    <t>emulsiondor-eurotype-125ml</t>
+  </si>
+  <si>
+    <t>561625..</t>
+  </si>
+  <si>
+    <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.125ml.</t>
+  </si>
+  <si>
+    <t>537.49</t>
+  </si>
+  <si>
+    <t>779.50</t>
+  </si>
+  <si>
+    <t>561.85</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>dsm</t>
+  </si>
+  <si>
+    <t>12191211</t>
+  </si>
+  <si>
+    <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoio capelluto apportando vigore e salute.Benessere e vitalità per capelli energici e forti.10x10ml.</t>
+  </si>
+  <si>
+    <t>616.19</t>
+  </si>
+  <si>
+    <t>781.65</t>
+  </si>
+  <si>
+    <t>643.35</t>
+  </si>
+  <si>
+    <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoi</t>
   </si>
 </sst>
 </file>
@@ -625,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -731,19 +1490,19 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>141815307</v>
+        <v>913032480</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -767,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>45273.74955259259</v>
+        <v>45377.011642708334</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -776,31 +1535,31 @@
         <v>32</v>
       </c>
       <c r="T2">
-        <v>8.85519511401186</v>
+        <v>9.71847049755588</v>
       </c>
       <c r="U2" t="s">
         <v>37</v>
       </c>
       <c r="V2">
-        <v>49.04905265046132</v>
+        <v>12.524601948011664</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
       </c>
       <c r="X2">
-        <v>39.01588492645164</v>
+        <v>33.59503623289948</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
       </c>
       <c r="Z2">
-        <v>10.461210666906847</v>
+        <v>36.80949195486083</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
       </c>
       <c r="AB2">
-        <v>5.475500312252578</v>
+        <v>0.18861644052506682</v>
       </c>
       <c r="AC2" t="s">
         <v>39</v>
@@ -820,16 +1579,16 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>611109074</v>
+        <v>157200160</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -856,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45389.790285034724</v>
+        <v>45425.85463289352</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -865,31 +1624,31 @@
         <v>43</v>
       </c>
       <c r="T3">
-        <v>4.765024664592381</v>
+        <v>7.541569767753965</v>
       </c>
       <c r="U3" t="s">
         <v>37</v>
       </c>
       <c r="V3">
-        <v>23.542373718088587</v>
+        <v>28.75039311735261</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
       <c r="X3">
-        <v>37.91698461123941</v>
+        <v>49.97440787054786</v>
       </c>
       <c r="Y3" t="s">
         <v>38</v>
       </c>
       <c r="Z3">
-        <v>27.950726686894743</v>
+        <v>11.677588488567743</v>
       </c>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
       <c r="AB3">
-        <v>7.260371091409014</v>
+        <v>2.986808990733375</v>
       </c>
       <c r="AC3" t="s">
         <v>39</v>
@@ -909,16 +1668,16 @@
         <v>49</v>
       </c>
       <c r="E4">
-        <v>757928786</v>
+        <v>291678863</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -945,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>45297.609761921296</v>
+        <v>45616.606420104166</v>
       </c>
       <c r="R4" t="s">
         <v>47</v>
@@ -954,31 +1713,31 @@
         <v>54</v>
       </c>
       <c r="T4">
-        <v>5.21688854240584</v>
+        <v>1.1374537983652722</v>
       </c>
       <c r="U4" t="s">
         <v>37</v>
       </c>
       <c r="V4">
-        <v>36.846225645272405</v>
+        <v>37.01526702017835</v>
       </c>
       <c r="W4" t="s">
         <v>38</v>
       </c>
       <c r="X4">
-        <v>22.4110306333934</v>
+        <v>16.67715542375272</v>
       </c>
       <c r="Y4" t="s">
         <v>38</v>
       </c>
       <c r="Z4">
-        <v>18.91207226577805</v>
+        <v>23.382310154729772</v>
       </c>
       <c r="AA4" t="s">
         <v>38</v>
       </c>
       <c r="AB4">
-        <v>4.196053395271396</v>
+        <v>2.5993474417664557</v>
       </c>
       <c r="AC4" t="s">
         <v>39</v>
@@ -998,7 +1757,7 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>196626737</v>
+        <v>758496254</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
@@ -1007,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1034,40 +1793,40 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>45320.68106736111</v>
+        <v>45322.89702103009</v>
       </c>
       <c r="R5" t="s">
         <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T5">
-        <v>6.966608862124648</v>
+        <v>1.267964939304014</v>
       </c>
       <c r="U5" t="s">
         <v>37</v>
       </c>
       <c r="V5">
-        <v>47.225823554326404</v>
+        <v>22.777274954657116</v>
       </c>
       <c r="W5" t="s">
         <v>38</v>
       </c>
       <c r="X5">
-        <v>14.250302716908461</v>
+        <v>41.58791102141817</v>
       </c>
       <c r="Y5" t="s">
         <v>38</v>
       </c>
       <c r="Z5">
-        <v>31.76360245157376</v>
+        <v>27.799736435590134</v>
       </c>
       <c r="AA5" t="s">
         <v>38</v>
       </c>
       <c r="AB5">
-        <v>7.005868748092701</v>
+        <v>9.256168837153144</v>
       </c>
       <c r="AC5" t="s">
         <v>39</v>
@@ -1078,40 +1837,40 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>683867668</v>
+      </c>
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="E6">
-        <v>568794206</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>66</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>67</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>68</v>
-      </c>
-      <c r="M6" t="s">
-        <v>69</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -1123,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>45559.71535943287</v>
+        <v>45313.114521550924</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T6">
-        <v>6.45411638949085</v>
+        <v>4.202894527390093</v>
       </c>
       <c r="U6" t="s">
         <v>37</v>
       </c>
       <c r="V6">
-        <v>32.099858765126626</v>
+        <v>1.0693052320810408</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
       <c r="X6">
-        <v>2.9530478551930788</v>
+        <v>37.51656452772332</v>
       </c>
       <c r="Y6" t="s">
         <v>38</v>
       </c>
       <c r="Z6">
-        <v>1.8741287881629884</v>
+        <v>31.690868145677612</v>
       </c>
       <c r="AA6" t="s">
         <v>38</v>
       </c>
       <c r="AB6">
-        <v>1.649976373639804</v>
+        <v>2.9082257193635965</v>
       </c>
       <c r="AC6" t="s">
         <v>39</v>
@@ -1167,40 +1926,40 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>677791515</v>
+      </c>
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>73</v>
       </c>
-      <c r="E7">
-        <v>394560986</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>74</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -1212,42 +1971,2979 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>45545.130884479164</v>
+        <v>45269.437352175926</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T7">
-        <v>9.03736662263031</v>
+        <v>2.966968810404476</v>
       </c>
       <c r="U7" t="s">
         <v>37</v>
       </c>
       <c r="V7">
-        <v>28.570084203756867</v>
+        <v>23.788220522920152</v>
       </c>
       <c r="W7" t="s">
         <v>38</v>
       </c>
       <c r="X7">
-        <v>11.03627159248008</v>
+        <v>33.76659395375969</v>
       </c>
       <c r="Y7" t="s">
         <v>38</v>
       </c>
       <c r="Z7">
-        <v>9.505004234573828</v>
+        <v>10.84688689479582</v>
       </c>
       <c r="AA7" t="s">
         <v>38</v>
       </c>
       <c r="AB7">
-        <v>0.4518852489763069</v>
+        <v>6.0709232848865735</v>
       </c>
       <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>480781281</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>45441.74556802084</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8">
+        <v>6.98466125291299</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8">
+        <v>30.69031728609968</v>
+      </c>
+      <c r="W8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8">
+        <v>36.67159830363323</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8">
+        <v>42.17306988083574</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8">
+        <v>3.3396857882628086</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>667418225</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>45359.50582684028</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9">
+        <v>5.742067210181866</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9">
+        <v>32.69809723085167</v>
+      </c>
+      <c r="W9" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9">
+        <v>47.43989126617236</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9">
+        <v>48.263091212094004</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9">
+        <v>2.9105895784525777</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>370632622</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>45424.85743130787</v>
+      </c>
+      <c r="R10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>2.8211634353733124</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10">
+        <v>47.61956482448592</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10">
+        <v>31.260417505315758</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10">
+        <v>40.6451158792116</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10">
+        <v>1.270733151390606</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>636230293</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>45580.681533807874</v>
+      </c>
+      <c r="R11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11">
+        <v>7.644264361868708</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11">
+        <v>20.65016451327076</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11">
+        <v>14.483205732424397</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11">
+        <v>34.111866665984124</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11">
+        <v>5.291592578622266</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12">
+        <v>199512357</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>45575.0807328588</v>
+      </c>
+      <c r="R12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12">
+        <v>7.949604661268396</v>
+      </c>
+      <c r="U12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12">
+        <v>15.772183071422745</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12">
+        <v>24.284992948063824</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12">
+        <v>22.4299695851353</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12">
+        <v>8.800650982232241</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <v>946936994</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>45434.47008864583</v>
+      </c>
+      <c r="R13" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13">
+        <v>5.059550087772727</v>
+      </c>
+      <c r="U13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13">
+        <v>28.55056569015692</v>
+      </c>
+      <c r="W13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13">
+        <v>6.584773385743764</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13">
+        <v>23.86566718569803</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13">
+        <v>6.175073598398469</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>598260429</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>45597.86571295139</v>
+      </c>
+      <c r="R14" t="s">
+        <v>125</v>
+      </c>
+      <c r="S14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T14">
+        <v>4.295032247308038</v>
+      </c>
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14">
+        <v>21.318780134135327</v>
+      </c>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14">
+        <v>13.669785410793567</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14">
+        <v>28.32203704233574</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14">
+        <v>9.944395614137358</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15">
+        <v>925781719</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>45325.44128023148</v>
+      </c>
+      <c r="R15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T15">
+        <v>9.1921495908891</v>
+      </c>
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15">
+        <v>11.389630709322757</v>
+      </c>
+      <c r="W15" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15">
+        <v>8.361412617801538</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15">
+        <v>34.34144066577799</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15">
+        <v>7.102787224398926</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16">
+        <v>507894438</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>45348.23160190972</v>
+      </c>
+      <c r="R16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16">
+        <v>6.76594026352145</v>
+      </c>
+      <c r="U16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16">
+        <v>31.953840656084026</v>
+      </c>
+      <c r="W16" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16">
+        <v>22.275075256881085</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16">
+        <v>38.92971105353395</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16">
+        <v>4.686100648636611</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17">
+        <v>488085591</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>45453.65158269676</v>
+      </c>
+      <c r="R17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S17" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17">
+        <v>7.6892172859674695</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17">
+        <v>19.67693581114839</v>
+      </c>
+      <c r="W17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17">
+        <v>16.943292680932096</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17">
+        <v>34.55082868476403</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB17">
+        <v>9.730770963638959</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18">
+        <v>756207934</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>45381.70323368056</v>
+      </c>
+      <c r="R18" t="s">
+        <v>157</v>
+      </c>
+      <c r="S18" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18">
+        <v>9.35447012295611</v>
+      </c>
+      <c r="U18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18">
+        <v>49.05946663781259</v>
+      </c>
+      <c r="W18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18">
+        <v>3.4166661169971095</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18">
+        <v>6.816257853539407</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18">
+        <v>7.802180378990094</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19">
+        <v>628243652</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>45629.496048298606</v>
+      </c>
+      <c r="R19" t="s">
+        <v>164</v>
+      </c>
+      <c r="S19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T19">
+        <v>2.8627071659606673</v>
+      </c>
+      <c r="U19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19">
+        <v>39.605307864839965</v>
+      </c>
+      <c r="W19" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19">
+        <v>30.058695889406334</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>10.99999927614602</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB19">
+        <v>2.0456138058769264</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20">
+        <v>746897255</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="s">
+        <v>178</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>45546.86547464121</v>
+      </c>
+      <c r="R20" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20" t="s">
+        <v>179</v>
+      </c>
+      <c r="T20">
+        <v>6.35416655625003</v>
+      </c>
+      <c r="U20" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20">
+        <v>20.70889780065727</v>
+      </c>
+      <c r="W20" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20">
+        <v>37.62149860495332</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20">
+        <v>25.73756004821169</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20">
+        <v>5.916395971835178</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21">
+        <v>241906751</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>45406.96033459491</v>
+      </c>
+      <c r="R21" t="s">
+        <v>180</v>
+      </c>
+      <c r="S21" t="s">
+        <v>187</v>
+      </c>
+      <c r="T21">
+        <v>4.346270138302295</v>
+      </c>
+      <c r="U21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21">
+        <v>42.63663312458249</v>
+      </c>
+      <c r="W21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21">
+        <v>42.27823535687108</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z21">
+        <v>26.8959537309402</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB21">
+        <v>6.3511822235207225</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>765965962</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="s">
+        <v>193</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>45337.85512678241</v>
+      </c>
+      <c r="R22" t="s">
+        <v>188</v>
+      </c>
+      <c r="S22" t="s">
+        <v>194</v>
+      </c>
+      <c r="T22">
+        <v>2.160645974331393</v>
+      </c>
+      <c r="U22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22">
+        <v>48.3889040600098</v>
+      </c>
+      <c r="W22" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22">
+        <v>9.527384814419053</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22">
+        <v>33.30691719417157</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB22">
+        <v>5.489624265265637</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23">
+        <v>433314494</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="s">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>45434.61592892361</v>
+      </c>
+      <c r="R23" t="s">
+        <v>195</v>
+      </c>
+      <c r="S23" t="s">
+        <v>201</v>
+      </c>
+      <c r="T23">
+        <v>2.381703350714019</v>
+      </c>
+      <c r="U23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23">
+        <v>35.37918931021224</v>
+      </c>
+      <c r="W23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23">
+        <v>19.829284629236977</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23">
+        <v>36.167290989372475</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23">
+        <v>0.15655782634998078</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24">
+        <v>638983964</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>45626.31625013889</v>
+      </c>
+      <c r="R24" t="s">
+        <v>202</v>
+      </c>
+      <c r="S24" t="s">
+        <v>205</v>
+      </c>
+      <c r="T24">
+        <v>2.5007141656351823</v>
+      </c>
+      <c r="U24" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24">
+        <v>40.235025733156405</v>
+      </c>
+      <c r="W24" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24">
+        <v>2.2381031701884258</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24">
+        <v>12.722935030110458</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB24">
+        <v>2.1107439248446265</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25">
+        <v>174058976</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="s">
+        <v>215</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>45435.96602299769</v>
+      </c>
+      <c r="R25" t="s">
+        <v>209</v>
+      </c>
+      <c r="S25" t="s">
+        <v>212</v>
+      </c>
+      <c r="T25">
+        <v>5.006855912229922</v>
+      </c>
+      <c r="U25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25">
+        <v>11.955340550598248</v>
+      </c>
+      <c r="W25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25">
+        <v>32.92135262000896</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z25">
+        <v>39.41546172108517</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB25">
+        <v>2.083779066532095</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26">
+        <v>410503587</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="s">
+        <v>222</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>45580.42792449074</v>
+      </c>
+      <c r="R26" t="s">
+        <v>216</v>
+      </c>
+      <c r="S26" t="s">
+        <v>223</v>
+      </c>
+      <c r="T26">
+        <v>6.414258438713383</v>
+      </c>
+      <c r="U26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26">
+        <v>15.241767418201107</v>
+      </c>
+      <c r="W26" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26">
+        <v>44.512195613232024</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26">
+        <v>29.2554289648832</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB26">
+        <v>5.091344938569399</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27">
+        <v>433911106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>45630.54747392361</v>
+      </c>
+      <c r="R27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S27" t="s">
+        <v>231</v>
+      </c>
+      <c r="T27">
+        <v>9.451100787647798</v>
+      </c>
+      <c r="U27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27">
+        <v>10.956604668186795</v>
+      </c>
+      <c r="W27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27">
+        <v>23.320676652351622</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27">
+        <v>26.852810033476707</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB27">
+        <v>4.702965294887144</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28">
+        <v>508889964</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>45440.89271997685</v>
+      </c>
+      <c r="R28" t="s">
+        <v>232</v>
+      </c>
+      <c r="S28" t="s">
+        <v>239</v>
+      </c>
+      <c r="T28">
+        <v>8.476404089775667</v>
+      </c>
+      <c r="U28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28">
+        <v>35.623982303843036</v>
+      </c>
+      <c r="W28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X28">
+        <v>35.66100865489114</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28">
+        <v>48.463045940711716</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB28">
+        <v>6.410824955109145</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29">
+        <v>835994376</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>45352.60911701389</v>
+      </c>
+      <c r="R29" t="s">
+        <v>240</v>
+      </c>
+      <c r="S29" t="s">
+        <v>247</v>
+      </c>
+      <c r="T29">
+        <v>9.333318157618008</v>
+      </c>
+      <c r="U29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29">
+        <v>6.245977900825297</v>
+      </c>
+      <c r="W29" t="s">
+        <v>38</v>
+      </c>
+      <c r="X29">
+        <v>4.236388767925606</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29">
+        <v>4.939642949834054</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB29">
+        <v>5.345548589458872</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30">
+        <v>115275261</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="s">
+        <v>254</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>45444.40691954861</v>
+      </c>
+      <c r="R30" t="s">
+        <v>248</v>
+      </c>
+      <c r="S30" t="s">
+        <v>255</v>
+      </c>
+      <c r="T30">
+        <v>1.865088722139134</v>
+      </c>
+      <c r="U30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30">
+        <v>37.19450549988821</v>
+      </c>
+      <c r="W30" t="s">
+        <v>38</v>
+      </c>
+      <c r="X30">
+        <v>18.45806197620836</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30">
+        <v>13.714490796060229</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB30">
+        <v>5.169723975156625</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31">
+        <v>670155720</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>45333.28914148148</v>
+      </c>
+      <c r="R31" t="s">
+        <v>256</v>
+      </c>
+      <c r="S31" t="s">
+        <v>263</v>
+      </c>
+      <c r="T31">
+        <v>5.302701287483923</v>
+      </c>
+      <c r="U31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31">
+        <v>10.828709357196441</v>
+      </c>
+      <c r="W31" t="s">
+        <v>38</v>
+      </c>
+      <c r="X31">
+        <v>28.450305719721786</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z31">
+        <v>46.47089383873194</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB31">
+        <v>3.5532943633432628</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32">
+        <v>414216186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="s">
+        <v>270</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>45352.277841250005</v>
+      </c>
+      <c r="R32" t="s">
+        <v>264</v>
+      </c>
+      <c r="S32" t="s">
+        <v>267</v>
+      </c>
+      <c r="T32">
+        <v>7.476233506747075</v>
+      </c>
+      <c r="U32" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32">
+        <v>2.9322522073628963</v>
+      </c>
+      <c r="W32" t="s">
+        <v>38</v>
+      </c>
+      <c r="X32">
+        <v>42.80726100264489</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32">
+        <v>24.965734450662737</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB32">
+        <v>2.1936655070124926</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33">
+        <v>375935681</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="s">
+        <v>277</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>45279.86446599537</v>
+      </c>
+      <c r="R33" t="s">
+        <v>271</v>
+      </c>
+      <c r="S33" t="s">
+        <v>278</v>
+      </c>
+      <c r="T33">
+        <v>6.823437493994931</v>
+      </c>
+      <c r="U33" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33">
+        <v>31.480770838951774</v>
+      </c>
+      <c r="W33" t="s">
+        <v>38</v>
+      </c>
+      <c r="X33">
+        <v>45.06326058998254</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z33">
+        <v>4.149918349625013</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB33">
+        <v>8.675063442235752</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34">
+        <v>173655385</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>45300.65231538194</v>
+      </c>
+      <c r="R34" t="s">
+        <v>279</v>
+      </c>
+      <c r="S34" t="s">
+        <v>282</v>
+      </c>
+      <c r="T34">
+        <v>1.6947702194607313</v>
+      </c>
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34">
+        <v>6.780733668911254</v>
+      </c>
+      <c r="W34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X34">
+        <v>25.55819138422115</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z34">
+        <v>1.4448569751149367</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB34">
+        <v>0.9273493297441927</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35">
+        <v>811610895</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="s">
+        <v>292</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>45367.77903077546</v>
+      </c>
+      <c r="R35" t="s">
+        <v>286</v>
+      </c>
+      <c r="S35" t="s">
+        <v>293</v>
+      </c>
+      <c r="T35">
+        <v>7.613413881523949</v>
+      </c>
+      <c r="U35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35">
+        <v>43.58682641379436</v>
+      </c>
+      <c r="W35" t="s">
+        <v>38</v>
+      </c>
+      <c r="X35">
+        <v>41.85389159798362</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35">
+        <v>11.643783036886788</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB35">
+        <v>4.661000720335692</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36">
+        <v>360437523</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="s">
+        <v>300</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>45405.07215972222</v>
+      </c>
+      <c r="R36" t="s">
+        <v>294</v>
+      </c>
+      <c r="S36" t="s">
+        <v>301</v>
+      </c>
+      <c r="T36">
+        <v>8.47957816548095</v>
+      </c>
+      <c r="U36" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36">
+        <v>6.987035771520859</v>
+      </c>
+      <c r="W36" t="s">
+        <v>38</v>
+      </c>
+      <c r="X36">
+        <v>1.9701432179442828</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z36">
+        <v>12.103920288323533</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB36">
+        <v>9.424395763687812</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37">
+        <v>459653362</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37" t="s">
+        <v>308</v>
+      </c>
+      <c r="N37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>45306.10136752315</v>
+      </c>
+      <c r="R37" t="s">
+        <v>302</v>
+      </c>
+      <c r="S37" t="s">
+        <v>305</v>
+      </c>
+      <c r="T37">
+        <v>9.246840106656931</v>
+      </c>
+      <c r="U37" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37">
+        <v>39.292722754440774</v>
+      </c>
+      <c r="W37" t="s">
+        <v>38</v>
+      </c>
+      <c r="X37">
+        <v>22.58428445430136</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z37">
+        <v>5.696550109903771</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB37">
+        <v>9.166222630759732</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38">
+        <v>503634886</v>
+      </c>
+      <c r="F38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="s">
+        <v>315</v>
+      </c>
+      <c r="N38" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>45287.037710069446</v>
+      </c>
+      <c r="R38" t="s">
+        <v>309</v>
+      </c>
+      <c r="S38" t="s">
+        <v>316</v>
+      </c>
+      <c r="T38">
+        <v>0.5561351917452297</v>
+      </c>
+      <c r="U38" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38">
+        <v>24.450504290718637</v>
+      </c>
+      <c r="W38" t="s">
+        <v>38</v>
+      </c>
+      <c r="X38">
+        <v>44.22581670319987</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38">
+        <v>3.45979873513206</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB38">
+        <v>3.3225584142702482</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39">
+        <v>699136402</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s">
+        <v>322</v>
+      </c>
+      <c r="M39" t="s">
+        <v>323</v>
+      </c>
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>45364.429213703705</v>
+      </c>
+      <c r="R39" t="s">
+        <v>317</v>
+      </c>
+      <c r="S39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T39">
+        <v>3.9761190758813427</v>
+      </c>
+      <c r="U39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39">
+        <v>21.91413460417818</v>
+      </c>
+      <c r="W39" t="s">
+        <v>38</v>
+      </c>
+      <c r="X39">
+        <v>4.11931686338089</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z39">
+        <v>47.96207087337224</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB39">
+        <v>7.085814347481226</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40">
+        <v>837279286</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="s">
+        <v>330</v>
+      </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>45624.06733600695</v>
+      </c>
+      <c r="R40" t="s">
+        <v>324</v>
+      </c>
+      <c r="S40" t="s">
+        <v>331</v>
+      </c>
+      <c r="T40">
+        <v>7.667268210458439</v>
+      </c>
+      <c r="U40" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40">
+        <v>16.23824085614314</v>
+      </c>
+      <c r="W40" t="s">
+        <v>38</v>
+      </c>
+      <c r="X40">
+        <v>44.01979463064278</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z40">
+        <v>6.285286741236319</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB40">
+        <v>2.5684947150011133</v>
+      </c>
+      <c r="AC40" t="s">
         <v>39</v>
       </c>
     </row>

--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>338.85</t>
-  </si>
-  <si>
-    <t>761.89</t>
-  </si>
-  <si>
-    <t>739.85</t>
+    <t>23.18</t>
+  </si>
+  <si>
+    <t>595.99</t>
+  </si>
+  <si>
+    <t>702.29</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -157,103 +157,19 @@
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>128.39</t>
-  </si>
-  <si>
-    <t>13.15</t>
-  </si>
-  <si>
-    <t>359.15</t>
+    <t>366.89</t>
+  </si>
+  <si>
+    <t>344.80</t>
+  </si>
+  <si>
+    <t>786.90</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/urtinol</t>
   </si>
   <si>
     <t>products\Urtinol_12201201\image.jpg</t>
-  </si>
-  <si>
-    <t>Structur Fort</t>
-  </si>
-  <si>
-    <t>structur-fort</t>
-  </si>
-  <si>
-    <t>12077011</t>
-  </si>
-  <si>
-    <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agendo come ottimo districante ed emolliente.Aiuta la stabilizzazione delle condizioni fisiologiche ideali della cute agendo, quindi, anche da antiforfora e antigrasso.10x12ml.</t>
-  </si>
-  <si>
-    <t>106.29</t>
-  </si>
-  <si>
-    <t>215.15</t>
-  </si>
-  <si>
-    <t>328.59</t>
-  </si>
-  <si>
-    <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agend</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/structur-fort</t>
-  </si>
-  <si>
-    <t>products\Structur Fort_12077011\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikson Treat shampoo neutro</t>
-  </si>
-  <si>
-    <t>dikson-treat-shampoo-neutro</t>
-  </si>
-  <si>
-    <t>24007424</t>
-  </si>
-  <si>
-    <t>Con Olio di Argan.Deterge delicatamente senza alterare il naturale equilibrio.L’olio di argan fortifica i capelli.Uso professionale.10kg.</t>
-  </si>
-  <si>
-    <t>806.35</t>
-  </si>
-  <si>
-    <t>911.09</t>
-  </si>
-  <si>
-    <t>366.75</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-neutro-24007424</t>
-  </si>
-  <si>
-    <t>products\Dikson Treat shampoo neutro_24007424\image.jpg</t>
-  </si>
-  <si>
-    <t>Herbelan pack</t>
-  </si>
-  <si>
-    <t>herbelan-pack</t>
-  </si>
-  <si>
-    <t>13046002</t>
-  </si>
-  <si>
-    <t>1000ml.</t>
-  </si>
-  <si>
-    <t>249.46</t>
-  </si>
-  <si>
-    <t>614.00</t>
-  </si>
-  <si>
-    <t>420.05</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/herbelan-pack-13046002</t>
-  </si>
-  <si>
-    <t>products\Herbelan pack_13046002\image.jpg</t>
   </si>
 </sst>
 </file>
@@ -631,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -743,19 +659,19 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>825330719</v>
+        <v>626953440</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -779,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>45554.01142416667</v>
+        <v>45358.41935195602</v>
       </c>
       <c r="R2" t="s">
         <v>31</v>
@@ -788,31 +704,31 @@
         <v>34</v>
       </c>
       <c r="T2">
-        <v>0.8718791864466695</v>
+        <v>2.921544788659258</v>
       </c>
       <c r="U2" t="s">
         <v>39</v>
       </c>
       <c r="V2">
-        <v>43.92384794589015</v>
+        <v>22.408597654344067</v>
       </c>
       <c r="W2" t="s">
         <v>40</v>
       </c>
       <c r="X2">
-        <v>27.644930357464883</v>
+        <v>48.86398846878669</v>
       </c>
       <c r="Y2" t="s">
         <v>40</v>
       </c>
       <c r="Z2">
-        <v>34.854686919139446</v>
+        <v>46.837836729074134</v>
       </c>
       <c r="AA2" t="s">
         <v>40</v>
       </c>
       <c r="AB2">
-        <v>8.13415601074598</v>
+        <v>9.629019338469703</v>
       </c>
       <c r="AC2" t="s">
         <v>41</v>
@@ -838,16 +754,16 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>948864509</v>
+        <v>695523634</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -874,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45426.140022673615</v>
+        <v>45569.030642349535</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
@@ -883,31 +799,31 @@
         <v>47</v>
       </c>
       <c r="T3">
-        <v>7.323057302365333</v>
+        <v>7.554370491667962</v>
       </c>
       <c r="U3" t="s">
         <v>39</v>
       </c>
       <c r="V3">
-        <v>16.830735381766594</v>
+        <v>18.363273427744875</v>
       </c>
       <c r="W3" t="s">
         <v>40</v>
       </c>
       <c r="X3">
-        <v>49.12898255710208</v>
+        <v>43.550365832397745</v>
       </c>
       <c r="Y3" t="s">
         <v>40</v>
       </c>
       <c r="Z3">
-        <v>20.98003234661274</v>
+        <v>12.71785675958698</v>
       </c>
       <c r="AA3" t="s">
         <v>40</v>
       </c>
       <c r="AB3">
-        <v>2.0088476140119154</v>
+        <v>8.083198355929534</v>
       </c>
       <c r="AC3" t="s">
         <v>41</v>
@@ -917,291 +833,6 @@
       </c>
       <c r="AE3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>231260038</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>45429.62946493056</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4">
-        <v>7.404275702861582</v>
-      </c>
-      <c r="U4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4">
-        <v>38.44168784542295</v>
-      </c>
-      <c r="W4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4">
-        <v>24.61199098810436</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4">
-        <v>36.7729363538751</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4">
-        <v>2.6333524809624795</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5">
-        <v>132340081</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>45429.44888780093</v>
-      </c>
-      <c r="R5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5">
-        <v>0.3767139863070734</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5">
-        <v>14.14104513660694</v>
-      </c>
-      <c r="W5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5">
-        <v>36.33007115984991</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5">
-        <v>42.9834457094525</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5">
-        <v>7.079567911001678</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>240971940</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>45286.956268344904</v>
-      </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6">
-        <v>5.5448861397919345</v>
-      </c>
-      <c r="U6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6">
-        <v>26.360369074077568</v>
-      </c>
-      <c r="W6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6">
-        <v>31.751492878897135</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6">
-        <v>44.03750737467694</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6">
-        <v>6.990623504435824</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="410">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>23.18</t>
-  </si>
-  <si>
-    <t>595.99</t>
-  </si>
-  <si>
-    <t>702.29</t>
+    <t>446.09</t>
+  </si>
+  <si>
+    <t>688.50</t>
+  </si>
+  <si>
+    <t>553.59</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -157,19 +157,1090 @@
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>366.89</t>
-  </si>
-  <si>
-    <t>344.80</t>
-  </si>
-  <si>
-    <t>786.90</t>
+    <t>704.29</t>
+  </si>
+  <si>
+    <t>618.25</t>
+  </si>
+  <si>
+    <t>974.79</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/urtinol</t>
   </si>
   <si>
     <t>products\Urtinol_12201201\image.jpg</t>
+  </si>
+  <si>
+    <t>Structur Fort</t>
+  </si>
+  <si>
+    <t>structur-fort</t>
+  </si>
+  <si>
+    <t>12077011</t>
+  </si>
+  <si>
+    <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agendo come ottimo districante ed emolliente.Aiuta la stabilizzazione delle condizioni fisiologiche ideali della cute agendo, quindi, anche da antiforfora e antigrasso.10x12ml.</t>
+  </si>
+  <si>
+    <t>198.59</t>
+  </si>
+  <si>
+    <t>990.39</t>
+  </si>
+  <si>
+    <t>644.69</t>
+  </si>
+  <si>
+    <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agend</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/structur-fort</t>
+  </si>
+  <si>
+    <t>products\Structur Fort_12077011\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Treat shampoo neutro</t>
+  </si>
+  <si>
+    <t>dikson-treat-shampoo-neutro</t>
+  </si>
+  <si>
+    <t>24007424</t>
+  </si>
+  <si>
+    <t>Con Olio di Argan.Deterge delicatamente senza alterare il naturale equilibrio.L’olio di argan fortifica i capelli.Uso professionale.10kg.</t>
+  </si>
+  <si>
+    <t>166.39</t>
+  </si>
+  <si>
+    <t>564.69</t>
+  </si>
+  <si>
+    <t>656.09</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-neutro-24007424</t>
+  </si>
+  <si>
+    <t>products\Dikson Treat shampoo neutro_24007424\image.jpg</t>
+  </si>
+  <si>
+    <t>Herbelan pack</t>
+  </si>
+  <si>
+    <t>herbelan-pack</t>
+  </si>
+  <si>
+    <t>13046002</t>
+  </si>
+  <si>
+    <t>1000ml.</t>
+  </si>
+  <si>
+    <t>717.55</t>
+  </si>
+  <si>
+    <t>978.49</t>
+  </si>
+  <si>
+    <t>734.25</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/herbelan-pack-13046002</t>
+  </si>
+  <si>
+    <t>products\Herbelan pack_13046002\image.jpg</t>
+  </si>
+  <si>
+    <t>Sutil</t>
+  </si>
+  <si>
+    <t>sutil</t>
+  </si>
+  <si>
+    <t>12077271</t>
+  </si>
+  <si>
+    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fisico-chimici e migliorano la pettinabilità.Indicato per ogni tipo di acconciatura.250ml.</t>
+  </si>
+  <si>
+    <t>856.29</t>
+  </si>
+  <si>
+    <t>87.25</t>
+  </si>
+  <si>
+    <t>993.99</t>
+  </si>
+  <si>
+    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fi</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/sutil</t>
+  </si>
+  <si>
+    <t>products\Sutil_12077271\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Treat shampoo riparatore</t>
+  </si>
+  <si>
+    <t>dikson-treat-shampoo-riparatore</t>
+  </si>
+  <si>
+    <t>24007414</t>
+  </si>
+  <si>
+    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti.Uso professionale.10kg.</t>
+  </si>
+  <si>
+    <t>139.76</t>
+  </si>
+  <si>
+    <t>366.99</t>
+  </si>
+  <si>
+    <t>841.65</t>
+  </si>
+  <si>
+    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-riparatore-24007414</t>
+  </si>
+  <si>
+    <t>products\Dikson Treat shampoo riparatore_24007414\image.jpg</t>
+  </si>
+  <si>
+    <t>Emulsiondor Eurotype 980ml</t>
+  </si>
+  <si>
+    <t>emulsiondor-eurotype-980ml</t>
+  </si>
+  <si>
+    <t>160290..</t>
+  </si>
+  <si>
+    <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
+  </si>
+  <si>
+    <t>649.39</t>
+  </si>
+  <si>
+    <t>589.65</t>
+  </si>
+  <si>
+    <t>525.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-980ml</t>
+  </si>
+  <si>
+    <t>products\Emulsiondor Eurotype 980ml_160290..\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Blonde up to 9nine bustine</t>
+  </si>
+  <si>
+    <t>dikso-blonde-up-to-9nine-bustine</t>
+  </si>
+  <si>
+    <t>24006101</t>
+  </si>
+  <si>
+    <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
+  </si>
+  <si>
+    <t>78.29</t>
+  </si>
+  <si>
+    <t>791.45</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-up-to-9nine-bustine</t>
+  </si>
+  <si>
+    <t>products\Dikso Blonde up to 9nine bustine_24006101\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Blonde maschera antigiallo</t>
+  </si>
+  <si>
+    <t>dikso-blonde-maschera-antigiallo</t>
+  </si>
+  <si>
+    <t>24006132</t>
+  </si>
+  <si>
+    <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
+  </si>
+  <si>
+    <t>462.35</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>346.79</t>
+  </si>
+  <si>
+    <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-maschera-antigiallo</t>
+  </si>
+  <si>
+    <t>products\Dikso Blonde maschera antigiallo_24006132\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Blonde shampoo antigiallo tonalizzante</t>
+  </si>
+  <si>
+    <t>dikso-blonde-shampoo-antigiallo-tonalizzante</t>
+  </si>
+  <si>
+    <t>24006131</t>
+  </si>
+  <si>
+    <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
+  </si>
+  <si>
+    <t>719.99</t>
+  </si>
+  <si>
+    <t>580.75</t>
+  </si>
+  <si>
+    <t>931.49</t>
+  </si>
+  <si>
+    <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-shampoo-antigiallo-tonalizzante-24006131</t>
+  </si>
+  <si>
+    <t>products\Dikso Blonde shampoo antigiallo tonalizzante_24006131\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction final touch spray</t>
+  </si>
+  <si>
+    <t>illaminaction-final-touch-spray</t>
+  </si>
+  <si>
+    <t>24006256</t>
+  </si>
+  <si>
+    <t>Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la lucentezza dei capelli con un effetto leggero, che non appesantisce.USO: Vaporizzare a capelli asciutti per completare il processo di laminazione e attriburire un fattore di Extra Brilantezza Applicare anche più volte al giorno per esaltare l’Effetto Specchio dei capelli.</t>
+  </si>
+  <si>
+    <t>267.35</t>
+  </si>
+  <si>
+    <t>154.69</t>
+  </si>
+  <si>
+    <t>652.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-final-touch-spray</t>
+  </si>
+  <si>
+    <t>products\Illaminaction final touch spray_24006256\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction Concentrato laminante</t>
+  </si>
+  <si>
+    <t>illaminaction-concentrato-laminante</t>
+  </si>
+  <si>
+    <t>24006253</t>
+  </si>
+  <si>
+    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificante dell’Olio di Cocco, nutre, ammorbidisce e apporta struttura proteica all’interno del capello. Il suo speciale pH acido sigilla istantaneamente le squame per concentrarne l’effetto sostantivante e rigenerante, creando una lamina esterna protettiva. La speciale Tecnologia Termoattiva , potenziata con Acido Ialuronico e Vitamina E, fissa il trattamento laminante sopra le squame con un effetto «lamellare» uniforme e brillante.USO: Applicare su capelli bagnati e massaggiare a lungo. Risciacquare e ripetere l’applicazione. Asciugare parzialmente i capelli prima di passare alla fase successiva.</t>
+  </si>
+  <si>
+    <t>499.40</t>
+  </si>
+  <si>
+    <t>341.29</t>
+  </si>
+  <si>
+    <t>887.12</t>
+  </si>
+  <si>
+    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificant</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-concentrato-laminante</t>
+  </si>
+  <si>
+    <t>products\Illaminaction Concentrato laminante_24006253\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction Primer preparatore alcalinizzante</t>
+  </si>
+  <si>
+    <t>illaminaction-primer-preparatore-alcalinizzante</t>
+  </si>
+  <si>
+    <t>24006252</t>
+  </si>
+  <si>
+    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula agevola l’apertura delle squame senza intaccare la struttura del capello.USO: Dopo lo shampoo, asciugare parzialmente per eliminare residui d’acqua e vaporizzare il Primer uniformemente su lunghezze e punte. Massaggiare e pettinare delicatamente. Eliminare l’eventuale eccesso di prodotto con il phon e procedere con il Trattamento Laminante.</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>601.29</t>
+  </si>
+  <si>
+    <t>137.25</t>
+  </si>
+  <si>
+    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula age</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-primer-preparatore-alcalinizzante</t>
+  </si>
+  <si>
+    <t>products\Illaminaction Primer preparatore alcalinizzante_24006252\image.jpg</t>
+  </si>
+  <si>
+    <t>Cristalli Fluidi</t>
+  </si>
+  <si>
+    <t>cristalli-fluidi</t>
+  </si>
+  <si>
+    <t>12077211</t>
+  </si>
+  <si>
+    <t>Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution and weathering agents.It wraps the hair with an elastic micro sheath and welds split ends.It develops an intense revitalizing action.It donates an intense, crystalline glossiness, brightness and silk effect.Smooth hair, easy to brush and silky to the touch. Disentangling – it does not oil.cod. 12077211C - 100 ml</t>
+  </si>
+  <si>
+    <t>70.77</t>
+  </si>
+  <si>
+    <t>615.39</t>
+  </si>
+  <si>
+    <t>135.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/cristalli-fluidi</t>
+  </si>
+  <si>
+    <t>products\Cristalli Fluidi_12077211\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Sten</t>
+  </si>
+  <si>
+    <t>dikso-sten</t>
+  </si>
+  <si>
+    <t>19010301</t>
+  </si>
+  <si>
+    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natural or treated.For professional use.Straightening gel:100ml + neutralizer: 100ml.</t>
+  </si>
+  <si>
+    <t>301.29</t>
+  </si>
+  <si>
+    <t>161.49</t>
+  </si>
+  <si>
+    <t>765.19</t>
+  </si>
+  <si>
+    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natur</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikso-sten</t>
+  </si>
+  <si>
+    <t>products\Dikso Sten_19010301\image.jpg</t>
+  </si>
+  <si>
+    <t>Soffice forte</t>
+  </si>
+  <si>
+    <t>soffice-forte</t>
+  </si>
+  <si>
+    <t>15132001</t>
+  </si>
+  <si>
+    <t>No gas. Ensures a high output.Natural hold, does not make hair heavy; removable with a few brush strokes.Maximum output.Strong hold factor.350ml.</t>
+  </si>
+  <si>
+    <t>825.59</t>
+  </si>
+  <si>
+    <t>90.69</t>
+  </si>
+  <si>
+    <t>594.49</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/soffice-forte</t>
+  </si>
+  <si>
+    <t>products\Soffice forte_15132001\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Luxury Caviar conditioner</t>
+  </si>
+  <si>
+    <t>dikson-luxury-caviar-conditioner</t>
+  </si>
+  <si>
+    <t>24005903</t>
+  </si>
+  <si>
+    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extract of Caulerpa Lentillifera, common algae in the Far East, rich in minerals, polysaccharides, vitamins A, C and E and trace elements, which soften the hair and restore vitality to the hair structure, while protecting it from oxidative stress and future damage. Created to rapidly help weakened and dull hair to return strong, looking radiant and healthy. For best results, use with the other products in the Dikson Luxury Caviar line.cod 24005903 - 280ml.cod 24005902 - 1000ml.</t>
+  </si>
+  <si>
+    <t>73.59</t>
+  </si>
+  <si>
+    <t>615.35</t>
+  </si>
+  <si>
+    <t>736.81</t>
+  </si>
+  <si>
+    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extr</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-conditioner-24006011</t>
+  </si>
+  <si>
+    <t>products\Dikson Luxury Caviar conditioner_24005903\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Luxury Caviar maschera rivitalizzante</t>
+  </si>
+  <si>
+    <t>dikson-luxury-caviar-maschera-rivitalizzante</t>
+  </si>
+  <si>
+    <t>24005904</t>
+  </si>
+  <si>
+    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and nourished.500ml.</t>
+  </si>
+  <si>
+    <t>542.99</t>
+  </si>
+  <si>
+    <t>270.20</t>
+  </si>
+  <si>
+    <t>559.20</t>
+  </si>
+  <si>
+    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and n</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-maschera-rivitalizzante-24006032</t>
+  </si>
+  <si>
+    <t>products\Dikson Luxury Caviar maschera rivitalizzante_24005904\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction lamellar sealer</t>
+  </si>
+  <si>
+    <t>illaminaction-lamellar-sealer</t>
+  </si>
+  <si>
+    <t>24006255</t>
+  </si>
+  <si>
+    <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact and soft. It protects against heat, setting the lamellar film on the cuticle for a «mirror-effect» illuminating action that leaves the hair looking healthy, full of life and of light-reflecting shine.USE: Spray evenly onto the lengths and ends and blow-dry. Use a straightener for an even glossier effect.</t>
+  </si>
+  <si>
+    <t>752.59</t>
+  </si>
+  <si>
+    <t>171.59</t>
+  </si>
+  <si>
+    <t>17.08</t>
+  </si>
+  <si>
+    <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact a</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/illaminaction-lamellar-sealer</t>
+  </si>
+  <si>
+    <t>products\Illaminaction lamellar sealer_24006255\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction laminating concentrate</t>
+  </si>
+  <si>
+    <t>illaminaction-laminating-concentrate</t>
+  </si>
+  <si>
+    <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its special acidic pH instantly seals the scales for a more targeted replenishing and regenerating effect, creating a protective outer layer. The special Thermo-Active Technology, boosted with Hyaluronic Acid and Vitamin E, seals the laminating treatment on the scales for a glossy and uniform «lamellar» effect.USE: after the Primer, use a brush to apply a suitable amount of Laminating Concentrate on each strand. Massage gently against the scales to let the product absorb, and then comb through with a wide tooth comb to promote the pH sealing action. Apply a cap and place under a heat source for 10 minutes. Then rinse.</t>
+  </si>
+  <si>
+    <t>876.69</t>
+  </si>
+  <si>
+    <t>294.09</t>
+  </si>
+  <si>
+    <t>849.30</t>
+  </si>
+  <si>
+    <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its spec</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/illaminaction-laminating-concentrate</t>
+  </si>
+  <si>
+    <t>products\Illaminaction laminating concentrate_24006253\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction alkalising primer preparer</t>
+  </si>
+  <si>
+    <t>illaminaction-alkalising-primer-preparer</t>
+  </si>
+  <si>
+    <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps open up the scales without damaging the hair structure.USE: SHAKE WELL BEFORE USE. After shampooing, partially dry the hair to get rid of any excess water and spray the Primer evenly onto lengths and ends. Massage and comb gently. Remove any excess product with a hair dryer and then proceed with the Lamination Treatment.</t>
+  </si>
+  <si>
+    <t>830.59</t>
+  </si>
+  <si>
+    <t>927.35</t>
+  </si>
+  <si>
+    <t>105.80</t>
+  </si>
+  <si>
+    <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/illaminaction-alkalising-primer-preparer</t>
+  </si>
+  <si>
+    <t>products\Illaminaction alkalising primer preparer_24006252\image.jpg</t>
+  </si>
+  <si>
+    <t>Platidik</t>
+  </si>
+  <si>
+    <t>platidik</t>
+  </si>
+  <si>
+    <t>18035024</t>
+  </si>
+  <si>
+    <t>Super decolorante professionale per capelli rapido universale ideale per decolorazioni forti, contrasti, mèches e colpi di sole.Uso professionale.24x35g.</t>
+  </si>
+  <si>
+    <t>976.00</t>
+  </si>
+  <si>
+    <t>560.19</t>
+  </si>
+  <si>
+    <t>190.59</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/platidik</t>
+  </si>
+  <si>
+    <t>products\Platidik_18035024\image.jpg</t>
+  </si>
+  <si>
+    <t>Oil gel</t>
+  </si>
+  <si>
+    <t>oil-gel</t>
+  </si>
+  <si>
+    <t>12100520</t>
+  </si>
+  <si>
+    <t>Gel fissativo ad azione lucidante per un effetto bagnato duraturo.500ml.</t>
+  </si>
+  <si>
+    <t>341.19</t>
+  </si>
+  <si>
+    <t>419.99</t>
+  </si>
+  <si>
+    <t>722.35</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/oil-gel</t>
+  </si>
+  <si>
+    <t>products\Oil gel_12100520\image.jpg</t>
+  </si>
+  <si>
+    <t>PR 25</t>
+  </si>
+  <si>
+    <t>pr-25</t>
+  </si>
+  <si>
+    <t>12111211</t>
+  </si>
+  <si>
+    <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capelli fragili e deboli.10x10ml.</t>
+  </si>
+  <si>
+    <t>646.49</t>
+  </si>
+  <si>
+    <t>696.99</t>
+  </si>
+  <si>
+    <t>877.30</t>
+  </si>
+  <si>
+    <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capel</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/pr-25</t>
+  </si>
+  <si>
+    <t>products\PR 25_12111211\image.jpg</t>
+  </si>
+  <si>
+    <t>Platidik Advanced</t>
+  </si>
+  <si>
+    <t>platidik-advanced</t>
+  </si>
+  <si>
+    <t>18035030</t>
+  </si>
+  <si>
+    <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso professionale.24x35g.</t>
+  </si>
+  <si>
+    <t>464.75</t>
+  </si>
+  <si>
+    <t>550.40</t>
+  </si>
+  <si>
+    <t>179.49</t>
+  </si>
+  <si>
+    <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/platidik-advanced</t>
+  </si>
+  <si>
+    <t>products\Platidik Advanced_18035030\image.jpg</t>
+  </si>
+  <si>
+    <t>Polipant Complex</t>
+  </si>
+  <si>
+    <t>polipant-complex</t>
+  </si>
+  <si>
+    <t>12091200</t>
+  </si>
+  <si>
+    <t>Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di prevenzione contro la caduta dei capelli.12x10ml.</t>
+  </si>
+  <si>
+    <t>878.89</t>
+  </si>
+  <si>
+    <t>857.99</t>
+  </si>
+  <si>
+    <t>635.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/polipant-complex</t>
+  </si>
+  <si>
+    <t>products\Polipant Complex_12091200\image.jpg</t>
+  </si>
+  <si>
+    <t>Poly oil</t>
+  </si>
+  <si>
+    <t>poly-oil</t>
+  </si>
+  <si>
+    <t>12077110</t>
+  </si>
+  <si>
+    <t>Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto capillare e riduce la presenza di doppie punte.E’ di efficace aiuto per la realizzazione di raccolti.Si applica su capelli sia asciutti che bagnati.12x10ml.</t>
+  </si>
+  <si>
+    <t>972.55</t>
+  </si>
+  <si>
+    <t>201.39</t>
+  </si>
+  <si>
+    <t>769.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/poly-oil</t>
+  </si>
+  <si>
+    <t>products\Poly oil_12077110\image.jpg</t>
+  </si>
+  <si>
+    <t>Ristrutturante Dikson</t>
+  </si>
+  <si>
+    <t>ristrutturante-dikson</t>
+  </si>
+  <si>
+    <t>12077002</t>
+  </si>
+  <si>
+    <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabilirsi dell’equilibrio fisiologico dei capelli naturali.Svolge un’efficace azione protettiva, districante ed emolliente; ideale sia dopo l’applicazione di trattamenti alcalini (tinture, permanenti, decolorazioni ecc.) come coadiuvante, sia prima per un’intensa azione protettiva.12x12ml.</t>
+  </si>
+  <si>
+    <t>528.25</t>
+  </si>
+  <si>
+    <t>779.80</t>
+  </si>
+  <si>
+    <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabili</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/ristrutturante-dikson</t>
+  </si>
+  <si>
+    <t>products\Ristrutturante Dikson_12077002\image.jpg</t>
+  </si>
+  <si>
+    <t>Diksoplex Defensive n°1</t>
+  </si>
+  <si>
+    <t>diksoplex-defensive-n1</t>
+  </si>
+  <si>
+    <t>24005202</t>
+  </si>
+  <si>
+    <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità.Senza Parabeni e Solfati.100ml.A tutte le clienti che richiedono servizi tecnici in salone e a quelle che hanno capelli sfibrati da ripetuti servizi tecnici.Diksoplex Defensive non modifica in alcun modo gli abituali metodi di realizzazione dei servizi tecnici, né nelle fasi applicative, né nei tempi, ma assicura protezione alla struttura dei capelli durante il loro svolgimento.Che il rapporto di miscelazione della crema colorante sia 1:1 o 1:1,5, la diluizione con Diksoplex Defensive 1.Shield non cambia e rimane 2ml di prodotto ogni 20ml di crema colorante.La diluizione cambia quando il rapporto di miscelazione con l’ossidante riguarda una colorazione superschiarente: in questo caso si devono impiegare 4ml di Diksoplex Defensive 1.Shield ogni 25g di crema colorante superschiarente.Si, se la struttura dei capelli lo consente.No, il potere schiarente non si modifica.È tuttavia fondamentale che vengano rispettate le dosi di miscelazione.Certamente, è possibile utilizzare il sistema Diksoplex Defensive su capelli che sono stati colorati, decolorati, stirati o permanentati, anche se la loro struttura appare integra.Diksoplex Defensive 1.Shield deve essere miscelato in proporzione fissa, come indicato nelle modalità di applicazione nei singoli servizi tecnici.Invece la quantità di Diksoplex Defensive 2.Shield Magnifier dipende dalla lunghezza dei capelli e dalla loro porosità.Quindi la dose può essere commisurata a quella che si userebbe se il prodotto fosse una maschera o un conditioner.Certamente.Le modalità di utilizzo sono identiche sia che i capelli siano naturali o che si tratti di extension.Non ci sono controindicazioni.È tuttavia consigliabile non esporre i capelli durante il trattamento con Diksoplex Defensive a temperature superiori a 40/45°C di caldo umido.È altresì consigliabile un controllo più frequente durante l’operazione poiché il calore accelera i tempi di azione del colore e del decolorante.</t>
+  </si>
+  <si>
+    <t>940.75</t>
+  </si>
+  <si>
+    <t>818.19</t>
+  </si>
+  <si>
+    <t>646.59</t>
+  </si>
+  <si>
+    <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-n1-24005202</t>
+  </si>
+  <si>
+    <t>products\Diksoplex Defensive n°1_24005202\image.jpg</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive Mini Kit</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-mini-kit</t>
+  </si>
+  <si>
+    <t>24006220</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°1 X 100mlDiksolissage Lissactive n°2 X 250mlDiksolissage Lissactive n°3 X 100ml</t>
+  </si>
+  <si>
+    <t>441.25</t>
+  </si>
+  <si>
+    <t>548.30</t>
+  </si>
+  <si>
+    <t>693.65</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-mini-kit</t>
+  </si>
+  <si>
+    <t>products\Diksolissage Lissactive Mini Kit_24006220\image.jpg</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°3</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-n3</t>
+  </si>
+  <si>
+    <t>24006213</t>
+  </si>
+  <si>
+    <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li lascia setosi al tatto, brillanti e visibilmente sani.Utilizzabile anche come maschera di mantenimento post-trattamento in abbinamento a n°1 DIKSO LISSAGE.LISSACTIVE. Shampoo.</t>
+  </si>
+  <si>
+    <t>297.29</t>
+  </si>
+  <si>
+    <t>634.24</t>
+  </si>
+  <si>
+    <t>182.35</t>
+  </si>
+  <si>
+    <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li la</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n3</t>
+  </si>
+  <si>
+    <t>products\Diksolissage Lissactive n°3_24006213\image.jpg</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°2</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-n2</t>
+  </si>
+  <si>
+    <t>24006212</t>
+  </si>
+  <si>
+    <t>CREMA TRATTAMENTO LISCIANTE ANTICRESPOda 250mlCuore del trattamento DIKSO LISSAGE. LISSACTIVE,liscia i capelli rigenerandoli allo stesso tempo.</t>
+  </si>
+  <si>
+    <t>662.29</t>
+  </si>
+  <si>
+    <t>384.45</t>
+  </si>
+  <si>
+    <t>947.29</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n2</t>
+  </si>
+  <si>
+    <t>products\Diksolissage Lissactive n°2_24006212\image.jpg</t>
+  </si>
+  <si>
+    <t>Diksolissage Lissactive n°1</t>
+  </si>
+  <si>
+    <t>diksolissage-lissactive-n1</t>
+  </si>
+  <si>
+    <t>24006211</t>
+  </si>
+  <si>
+    <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. LISSACTIVE.Senza Solfati.Da utilizzare solo in abbinamento alla crema-trattamento lisciante e come shampoo di mantenimento post-trattamento.</t>
+  </si>
+  <si>
+    <t>236.88</t>
+  </si>
+  <si>
+    <t>298.59</t>
+  </si>
+  <si>
+    <t>433.85</t>
+  </si>
+  <si>
+    <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. L</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n1</t>
+  </si>
+  <si>
+    <t>products\Diksolissage Lissactive n°1_24006211\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Neutral</t>
+  </si>
+  <si>
+    <t>dikso-neutral</t>
+  </si>
+  <si>
+    <t>20096042</t>
+  </si>
+  <si>
+    <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei capelli e del cuoio capelluto. L’elemento INNOVATIVO su cui si basa è una FORMULAZIONE UNICA BILANCIATA e TRATTANTE ESCLUSIVA, che ne consente l’applicazione su TUTTI I TIPI DI CAPELLI (naturali, trattati, colorati). Altra peculiarità che la rende applicabile su TUTTI I TIPI DI CAPELLI è la sua NON AGGRESSIVITÀ, in quanto è SENZA AMMONIACA e SENZA ACIDO TIOGLICOLICO.Stabilizza al meglio l’ondulazione rendendola uniforme dalle radici alle punte e neutralizza efficacemente i residui alcalini del liquido ondulante, mentre gli agenti condizionanti garantiscono protezione ed idratazione, preservando la struttura capillare.750 ml</t>
+  </si>
+  <si>
+    <t>858.30</t>
+  </si>
+  <si>
+    <t>626.75</t>
+  </si>
+  <si>
+    <t>161.69</t>
+  </si>
+  <si>
+    <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei cape</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-neutral</t>
+  </si>
+  <si>
+    <t>products\Dikso Neutral_20096042\image.jpg</t>
+  </si>
+  <si>
+    <t>Diksoplex Defensive micro kit</t>
+  </si>
+  <si>
+    <t>diksoplex-defensive-micro-kit</t>
+  </si>
+  <si>
+    <t>24005232</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>715.55</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>494.75</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-micro-kit</t>
+  </si>
+  <si>
+    <t>products\Diksoplex Defensive micro kit_24005232\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Color</t>
+  </si>
+  <si>
+    <t>dikson-color</t>
+  </si>
+  <si>
+    <t>200210...</t>
+  </si>
+  <si>
+    <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per un’elevata cosmeticità.Colore stabile.Base cremosa condizionante.Riflessi naturali e di straordinaria brillantezza.Ampia gamma di varianti colore.Tonalità fredde.Tubo da 120ml per 2 trattamenti colore.</t>
+  </si>
+  <si>
+    <t>393.09</t>
+  </si>
+  <si>
+    <t>578.49</t>
+  </si>
+  <si>
+    <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-color-new</t>
+  </si>
+  <si>
+    <t>products\Dikson Color_200210...\image.jpg</t>
+  </si>
+  <si>
+    <t>Emulsiondor Eurotype 125ml</t>
+  </si>
+  <si>
+    <t>emulsiondor-eurotype-125ml</t>
+  </si>
+  <si>
+    <t>561625..</t>
+  </si>
+  <si>
+    <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.125ml.</t>
+  </si>
+  <si>
+    <t>848.39</t>
+  </si>
+  <si>
+    <t>959.09</t>
+  </si>
+  <si>
+    <t>887.49</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-125ml</t>
+  </si>
+  <si>
+    <t>products\Emulsiondor Eurotype 125ml_561625..\image.jpg</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>dsm</t>
+  </si>
+  <si>
+    <t>12191211</t>
+  </si>
+  <si>
+    <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoio capelluto apportando vigore e salute.Benessere e vitalità per capelli energici e forti.10x10ml.</t>
+  </si>
+  <si>
+    <t>99.59</t>
+  </si>
+  <si>
+    <t>404.87</t>
+  </si>
+  <si>
+    <t>24.25</t>
+  </si>
+  <si>
+    <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoi</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dsm</t>
+  </si>
+  <si>
+    <t>products\DSM_12191211\image.jpg</t>
   </si>
 </sst>
 </file>
@@ -547,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -659,16 +1730,16 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>626953440</v>
+        <v>435101087</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -695,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>45358.41935195602</v>
+        <v>45502.38182282407</v>
       </c>
       <c r="R2" t="s">
         <v>31</v>
@@ -704,31 +1775,31 @@
         <v>34</v>
       </c>
       <c r="T2">
-        <v>2.921544788659258</v>
+        <v>1.4752259081139476</v>
       </c>
       <c r="U2" t="s">
         <v>39</v>
       </c>
       <c r="V2">
-        <v>22.408597654344067</v>
+        <v>23.626663704603693</v>
       </c>
       <c r="W2" t="s">
         <v>40</v>
       </c>
       <c r="X2">
-        <v>48.86398846878669</v>
+        <v>2.001852651128238</v>
       </c>
       <c r="Y2" t="s">
         <v>40</v>
       </c>
       <c r="Z2">
-        <v>46.837836729074134</v>
+        <v>1.0090186289663454</v>
       </c>
       <c r="AA2" t="s">
         <v>40</v>
       </c>
       <c r="AB2">
-        <v>9.629019338469703</v>
+        <v>9.81022961773889</v>
       </c>
       <c r="AC2" t="s">
         <v>41</v>
@@ -754,16 +1825,16 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>695523634</v>
+        <v>854612606</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>6</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -790,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45569.030642349535</v>
+        <v>45575.20496357639</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
@@ -799,31 +1870,31 @@
         <v>47</v>
       </c>
       <c r="T3">
-        <v>7.554370491667962</v>
+        <v>4.626789690136456</v>
       </c>
       <c r="U3" t="s">
         <v>39</v>
       </c>
       <c r="V3">
-        <v>18.363273427744875</v>
+        <v>37.635002019770255</v>
       </c>
       <c r="W3" t="s">
         <v>40</v>
       </c>
       <c r="X3">
-        <v>43.550365832397745</v>
+        <v>40.99320841639345</v>
       </c>
       <c r="Y3" t="s">
         <v>40</v>
       </c>
       <c r="Z3">
-        <v>12.71785675958698</v>
+        <v>23.928669109604137</v>
       </c>
       <c r="AA3" t="s">
         <v>40</v>
       </c>
       <c r="AB3">
-        <v>8.083198355929534</v>
+        <v>7.532357859695052</v>
       </c>
       <c r="AC3" t="s">
         <v>41</v>
@@ -833,6 +1904,3521 @@
       </c>
       <c r="AE3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>131113799</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>45433.63874527778</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4">
+        <v>0.624218921403536</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4">
+        <v>25.92153664823084</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4">
+        <v>7.6842249404160645</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <v>24.05556309792531</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4">
+        <v>6.895317089830195</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>680908763</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>45545.61869072917</v>
+      </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5">
+        <v>9.745523994191661</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5">
+        <v>21.184650700811748</v>
+      </c>
+      <c r="W5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5">
+        <v>5.656980106476886</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5">
+        <v>1.3172615981167741</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5">
+        <v>1.9509044068175623</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>131769407</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45421.00433872685</v>
+      </c>
+      <c r="R6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6">
+        <v>6.79158504617409</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6">
+        <v>34.7912924048794</v>
+      </c>
+      <c r="W6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6">
+        <v>25.26336190211809</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>46.44630602110126</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6">
+        <v>1.7011138957343508</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>805122918</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>45317.3932259838</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7">
+        <v>0.4648078117894384</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7">
+        <v>22.598780748173777</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7">
+        <v>18.236660830956655</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7">
+        <v>25.57993029401512</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7">
+        <v>3.6295566062766715</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>737078382</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>45579.61862234954</v>
+      </c>
+      <c r="R8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8">
+        <v>5.459632665979756</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8">
+        <v>3.398556348332417</v>
+      </c>
+      <c r="W8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8">
+        <v>23.927634430938696</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8">
+        <v>39.357965109410124</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8">
+        <v>5.67451625197986</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>464250373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>45486.02801159723</v>
+      </c>
+      <c r="R9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9">
+        <v>2.24524171642255</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9">
+        <v>29.123114162517354</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9">
+        <v>6.917902081407585</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9">
+        <v>12.198332126272659</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9">
+        <v>1.3096819665213288</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10">
+        <v>824605511</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>45422.35579731481</v>
+      </c>
+      <c r="R10" t="s">
+        <v>111</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10">
+        <v>1.253823457657119</v>
+      </c>
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10">
+        <v>41.79566895668407</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10">
+        <v>49.16247290899438</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10">
+        <v>18.486942088248504</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10">
+        <v>9.999551208342453</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11">
+        <v>369551781</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>45407.611069189814</v>
+      </c>
+      <c r="R11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" t="s">
+        <v>128</v>
+      </c>
+      <c r="T11">
+        <v>1.3473120289165543</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11">
+        <v>17.4474220181762</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11">
+        <v>30.111508172254865</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>19.281074560544262</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11">
+        <v>8.08986429697926</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <v>287449308</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>45556.93236037037</v>
+      </c>
+      <c r="R12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12">
+        <v>2.7410355556919397</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12">
+        <v>44.20762530721429</v>
+      </c>
+      <c r="W12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12">
+        <v>32.1345687070029</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12">
+        <v>36.42932785910871</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12">
+        <v>4.003058430132994</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13">
+        <v>614071511</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>45563.99907068287</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>148</v>
+      </c>
+      <c r="T13">
+        <v>3.160624342936639</v>
+      </c>
+      <c r="U13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13">
+        <v>2.889370522473843</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13">
+        <v>15.366386733097258</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13">
+        <v>37.28701399297435</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB13">
+        <v>8.672948210966213</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14">
+        <v>858304367</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>45536.10749293982</v>
+      </c>
+      <c r="R14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14">
+        <v>2.7838757420292093</v>
+      </c>
+      <c r="U14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14">
+        <v>43.16546546993368</v>
+      </c>
+      <c r="W14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14">
+        <v>4.891344581281814</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14">
+        <v>1.5172597394509642</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB14">
+        <v>6.481623416745235</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>704306599</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>45518.19958940972</v>
+      </c>
+      <c r="R15" t="s">
+        <v>161</v>
+      </c>
+      <c r="S15" t="s">
+        <v>168</v>
+      </c>
+      <c r="T15">
+        <v>8.320602894603292</v>
+      </c>
+      <c r="U15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15">
+        <v>49.84665284360551</v>
+      </c>
+      <c r="W15" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15">
+        <v>47.82475094881166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15">
+        <v>30.275112444853587</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15">
+        <v>4.04505165625569</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16">
+        <v>482434128</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>45569.606626608795</v>
+      </c>
+      <c r="R16" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" t="s">
+        <v>178</v>
+      </c>
+      <c r="T16">
+        <v>2.135385205490741</v>
+      </c>
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16">
+        <v>28.0436915756705</v>
+      </c>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16">
+        <v>1.2434918434568165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16">
+        <v>48.51293872209329</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16">
+        <v>5.316700040521554</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17">
+        <v>705709660</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>45493.62301894676</v>
+      </c>
+      <c r="R17" t="s">
+        <v>181</v>
+      </c>
+      <c r="S17" t="s">
+        <v>188</v>
+      </c>
+      <c r="T17">
+        <v>8.501762182617735</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17">
+        <v>48.86101916732512</v>
+      </c>
+      <c r="W17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17">
+        <v>12.41449591669374</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17">
+        <v>22.694637020955405</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17">
+        <v>8.665761316333866</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18">
+        <v>865545862</v>
+      </c>
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>45282.19472594907</v>
+      </c>
+      <c r="R18" t="s">
+        <v>191</v>
+      </c>
+      <c r="S18" t="s">
+        <v>194</v>
+      </c>
+      <c r="T18">
+        <v>1.8511045469408205</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18">
+        <v>11.968652277159276</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18">
+        <v>31.946986317099828</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18">
+        <v>1.5886037071460235</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18">
+        <v>3.238534161960586</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19">
+        <v>457487861</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>45285.36612989583</v>
+      </c>
+      <c r="R19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" t="s">
+        <v>207</v>
+      </c>
+      <c r="T19">
+        <v>1.3615412648569978</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19">
+        <v>5.988393882092407</v>
+      </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19">
+        <v>48.98616385676955</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19">
+        <v>8.450266916980375</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19">
+        <v>6.8742645603595935</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20">
+        <v>716272064</v>
+      </c>
+      <c r="F20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s">
+        <v>215</v>
+      </c>
+      <c r="M20" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>45573.93254405093</v>
+      </c>
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" t="s">
+        <v>217</v>
+      </c>
+      <c r="T20">
+        <v>6.988746547011252</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20">
+        <v>32.82611934295382</v>
+      </c>
+      <c r="W20" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20">
+        <v>14.676648932274961</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20">
+        <v>46.03046660439508</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB20">
+        <v>8.798966876237035</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21">
+        <v>593776922</v>
+      </c>
+      <c r="F21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s">
+        <v>226</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>45325.08887943287</v>
+      </c>
+      <c r="R21" t="s">
+        <v>220</v>
+      </c>
+      <c r="S21" t="s">
+        <v>227</v>
+      </c>
+      <c r="T21">
+        <v>4.766833484427538</v>
+      </c>
+      <c r="U21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21">
+        <v>11.215858532657482</v>
+      </c>
+      <c r="W21" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21">
+        <v>29.626807672478634</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21">
+        <v>29.97491389995743</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21">
+        <v>1.1137820401756675</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22">
+        <v>558348497</v>
+      </c>
+      <c r="F22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s">
+        <v>235</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>45582.85765359954</v>
+      </c>
+      <c r="R22" t="s">
+        <v>230</v>
+      </c>
+      <c r="S22" t="s">
+        <v>236</v>
+      </c>
+      <c r="T22">
+        <v>3.8860927063964206</v>
+      </c>
+      <c r="U22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22">
+        <v>1.0450112635224436</v>
+      </c>
+      <c r="W22" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22">
+        <v>39.45119564799118</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22">
+        <v>45.810329189896876</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB22">
+        <v>9.85630578397788</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23">
+        <v>366777705</v>
+      </c>
+      <c r="F23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>45385.109536689815</v>
+      </c>
+      <c r="R23" t="s">
+        <v>239</v>
+      </c>
+      <c r="S23" t="s">
+        <v>245</v>
+      </c>
+      <c r="T23">
+        <v>2.5633594946198324</v>
+      </c>
+      <c r="U23" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23">
+        <v>30.237468776368125</v>
+      </c>
+      <c r="W23" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23">
+        <v>27.59289087271342</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23">
+        <v>12.972041258632938</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB23">
+        <v>4.948499428537239</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24">
+        <v>503204727</v>
+      </c>
+      <c r="F24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>252</v>
+      </c>
+      <c r="L24" t="s">
+        <v>253</v>
+      </c>
+      <c r="M24" t="s">
+        <v>254</v>
+      </c>
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>45402.80811068287</v>
+      </c>
+      <c r="R24" t="s">
+        <v>248</v>
+      </c>
+      <c r="S24" t="s">
+        <v>251</v>
+      </c>
+      <c r="T24">
+        <v>2.0193886509521874</v>
+      </c>
+      <c r="U24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24">
+        <v>47.80330984308998</v>
+      </c>
+      <c r="W24" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24">
+        <v>15.510198554782527</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z24">
+        <v>14.809908023361425</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB24">
+        <v>3.521101542576219</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25">
+        <v>367643351</v>
+      </c>
+      <c r="F25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>261</v>
+      </c>
+      <c r="L25" t="s">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s">
+        <v>263</v>
+      </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>45275.70776958333</v>
+      </c>
+      <c r="R25" t="s">
+        <v>257</v>
+      </c>
+      <c r="S25" t="s">
+        <v>260</v>
+      </c>
+      <c r="T25">
+        <v>9.574643159035523</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25">
+        <v>32.9327321577794</v>
+      </c>
+      <c r="W25" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25">
+        <v>10.499939181998387</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25">
+        <v>49.02778659872365</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB25">
+        <v>5.778663475181084</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26">
+        <v>691466023</v>
+      </c>
+      <c r="F26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>270</v>
+      </c>
+      <c r="L26" t="s">
+        <v>271</v>
+      </c>
+      <c r="M26" t="s">
+        <v>272</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>45413.75560365741</v>
+      </c>
+      <c r="R26" t="s">
+        <v>266</v>
+      </c>
+      <c r="S26" t="s">
+        <v>273</v>
+      </c>
+      <c r="T26">
+        <v>4.5616882299185795</v>
+      </c>
+      <c r="U26" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26">
+        <v>32.93446236745227</v>
+      </c>
+      <c r="W26" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26">
+        <v>25.213870486636196</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z26">
+        <v>35.420894516858226</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB26">
+        <v>2.482322500120169</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27">
+        <v>632857484</v>
+      </c>
+      <c r="F27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>280</v>
+      </c>
+      <c r="L27" t="s">
+        <v>281</v>
+      </c>
+      <c r="M27" t="s">
+        <v>282</v>
+      </c>
+      <c r="N27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>45608.47008013889</v>
+      </c>
+      <c r="R27" t="s">
+        <v>276</v>
+      </c>
+      <c r="S27" t="s">
+        <v>283</v>
+      </c>
+      <c r="T27">
+        <v>5.516290239819236</v>
+      </c>
+      <c r="U27" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27">
+        <v>16.480378055052483</v>
+      </c>
+      <c r="W27" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27">
+        <v>23.457652032743372</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27">
+        <v>49.02458449083592</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB27">
+        <v>4.143734858163868</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28">
+        <v>103259478</v>
+      </c>
+      <c r="F28" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>290</v>
+      </c>
+      <c r="L28" t="s">
+        <v>291</v>
+      </c>
+      <c r="M28" t="s">
+        <v>292</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>45632.02331590278</v>
+      </c>
+      <c r="R28" t="s">
+        <v>286</v>
+      </c>
+      <c r="S28" t="s">
+        <v>293</v>
+      </c>
+      <c r="T28">
+        <v>1.6915082268317023</v>
+      </c>
+      <c r="U28" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28">
+        <v>33.93362300453621</v>
+      </c>
+      <c r="W28" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28">
+        <v>12.1724548595573</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28">
+        <v>21.77561378833677</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB28">
+        <v>3.1000736363912282</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29">
+        <v>474783203</v>
+      </c>
+      <c r="F29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" t="s">
+        <v>301</v>
+      </c>
+      <c r="M29" t="s">
+        <v>302</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>45490.67861224537</v>
+      </c>
+      <c r="R29" t="s">
+        <v>296</v>
+      </c>
+      <c r="S29" t="s">
+        <v>303</v>
+      </c>
+      <c r="T29">
+        <v>0.43506104076700425</v>
+      </c>
+      <c r="U29" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29">
+        <v>35.672037441623644</v>
+      </c>
+      <c r="W29" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29">
+        <v>38.94652007449748</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29">
+        <v>27.564318208453077</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB29">
+        <v>4.768735395690598</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30">
+        <v>191944782</v>
+      </c>
+      <c r="F30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>310</v>
+      </c>
+      <c r="L30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>45381.7456934838</v>
+      </c>
+      <c r="R30" t="s">
+        <v>306</v>
+      </c>
+      <c r="S30" t="s">
+        <v>312</v>
+      </c>
+      <c r="T30">
+        <v>4.960330351728207</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30">
+        <v>37.65086272675276</v>
+      </c>
+      <c r="W30" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30">
+        <v>6.026374185188027</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30">
+        <v>13.030028100421594</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB30">
+        <v>1.2685856883581397</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31">
+        <v>954330251</v>
+      </c>
+      <c r="F31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>319</v>
+      </c>
+      <c r="L31" t="s">
+        <v>320</v>
+      </c>
+      <c r="M31" t="s">
+        <v>321</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>45427.776519756946</v>
+      </c>
+      <c r="R31" t="s">
+        <v>315</v>
+      </c>
+      <c r="S31" t="s">
+        <v>322</v>
+      </c>
+      <c r="T31">
+        <v>7.617910325630156</v>
+      </c>
+      <c r="U31" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31">
+        <v>27.841040264286374</v>
+      </c>
+      <c r="W31" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31">
+        <v>3.224774560053949</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31">
+        <v>28.686703342289057</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB31">
+        <v>9.051328535363368</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32">
+        <v>401578922</v>
+      </c>
+      <c r="F32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" t="s">
+        <v>330</v>
+      </c>
+      <c r="M32" t="s">
+        <v>331</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>45517.96703755787</v>
+      </c>
+      <c r="R32" t="s">
+        <v>325</v>
+      </c>
+      <c r="S32" t="s">
+        <v>328</v>
+      </c>
+      <c r="T32">
+        <v>2.6059395327535726</v>
+      </c>
+      <c r="U32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32">
+        <v>32.90258049458559</v>
+      </c>
+      <c r="W32" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32">
+        <v>10.213147009627498</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z32">
+        <v>4.114056115713461</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB32">
+        <v>8.776549735743927</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33">
+        <v>419609981</v>
+      </c>
+      <c r="F33" t="s">
+        <v>337</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>338</v>
+      </c>
+      <c r="L33" t="s">
+        <v>339</v>
+      </c>
+      <c r="M33" t="s">
+        <v>340</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>45365.73622037037</v>
+      </c>
+      <c r="R33" t="s">
+        <v>334</v>
+      </c>
+      <c r="S33" t="s">
+        <v>341</v>
+      </c>
+      <c r="T33">
+        <v>2.6393703688921595</v>
+      </c>
+      <c r="U33" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33">
+        <v>39.55531009541023</v>
+      </c>
+      <c r="W33" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33">
+        <v>38.85831004959476</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33">
+        <v>19.80029850718244</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB33">
+        <v>7.207589660527006</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34">
+        <v>375604276</v>
+      </c>
+      <c r="F34" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>348</v>
+      </c>
+      <c r="L34" t="s">
+        <v>349</v>
+      </c>
+      <c r="M34" t="s">
+        <v>350</v>
+      </c>
+      <c r="N34" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>45612.12787033565</v>
+      </c>
+      <c r="R34" t="s">
+        <v>344</v>
+      </c>
+      <c r="S34" t="s">
+        <v>347</v>
+      </c>
+      <c r="T34">
+        <v>1.9174712480651699</v>
+      </c>
+      <c r="U34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34">
+        <v>43.065837132784964</v>
+      </c>
+      <c r="W34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34">
+        <v>39.51440549538277</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z34">
+        <v>35.83793672035411</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB34">
+        <v>5.803480570297303</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>353</v>
+      </c>
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" t="s">
+        <v>355</v>
+      </c>
+      <c r="E35">
+        <v>447630703</v>
+      </c>
+      <c r="F35" t="s">
+        <v>356</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>357</v>
+      </c>
+      <c r="L35" t="s">
+        <v>358</v>
+      </c>
+      <c r="M35" t="s">
+        <v>359</v>
+      </c>
+      <c r="N35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>45426.02727189814</v>
+      </c>
+      <c r="R35" t="s">
+        <v>353</v>
+      </c>
+      <c r="S35" t="s">
+        <v>360</v>
+      </c>
+      <c r="T35">
+        <v>2.845495310374626</v>
+      </c>
+      <c r="U35" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35">
+        <v>19.561257728542223</v>
+      </c>
+      <c r="W35" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35">
+        <v>48.320539190633305</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z35">
+        <v>24.89983414068317</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB35">
+        <v>8.871378082509413</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
+      <c r="D36" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36">
+        <v>200112654</v>
+      </c>
+      <c r="F36" t="s">
+        <v>366</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>367</v>
+      </c>
+      <c r="L36" t="s">
+        <v>368</v>
+      </c>
+      <c r="M36" t="s">
+        <v>369</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>45426.78384891203</v>
+      </c>
+      <c r="R36" t="s">
+        <v>363</v>
+      </c>
+      <c r="S36" t="s">
+        <v>370</v>
+      </c>
+      <c r="T36">
+        <v>4.156585392585765</v>
+      </c>
+      <c r="U36" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36">
+        <v>25.626204557644996</v>
+      </c>
+      <c r="W36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36">
+        <v>7.4911631177621025</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z36">
+        <v>38.69156457755228</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB36">
+        <v>2.4641822341547375</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" t="s">
+        <v>374</v>
+      </c>
+      <c r="D37" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37">
+        <v>974906590</v>
+      </c>
+      <c r="F37" t="s">
+        <v>376</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>377</v>
+      </c>
+      <c r="L37" t="s">
+        <v>378</v>
+      </c>
+      <c r="M37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>45462.89292489583</v>
+      </c>
+      <c r="R37" t="s">
+        <v>373</v>
+      </c>
+      <c r="S37" t="s">
+        <v>376</v>
+      </c>
+      <c r="T37">
+        <v>2.892824644996028</v>
+      </c>
+      <c r="U37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37">
+        <v>5.144135935597661</v>
+      </c>
+      <c r="W37" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37">
+        <v>40.10983359208366</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z37">
+        <v>48.17273421243926</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB37">
+        <v>5.336978222975517</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
+        <v>384</v>
+      </c>
+      <c r="E38">
+        <v>531490858</v>
+      </c>
+      <c r="F38" t="s">
+        <v>385</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>386</v>
+      </c>
+      <c r="L38" t="s">
+        <v>387</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>45622.80706232639</v>
+      </c>
+      <c r="R38" t="s">
+        <v>382</v>
+      </c>
+      <c r="S38" t="s">
+        <v>388</v>
+      </c>
+      <c r="T38">
+        <v>9.856431295969234</v>
+      </c>
+      <c r="U38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38">
+        <v>20.89222499258176</v>
+      </c>
+      <c r="W38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38">
+        <v>6.913164350296558</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38">
+        <v>25.683606863348142</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB38">
+        <v>2.8494202105450066</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" t="s">
+        <v>392</v>
+      </c>
+      <c r="D39" t="s">
+        <v>393</v>
+      </c>
+      <c r="E39">
+        <v>205621958</v>
+      </c>
+      <c r="F39" t="s">
+        <v>394</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>395</v>
+      </c>
+      <c r="L39" t="s">
+        <v>396</v>
+      </c>
+      <c r="M39" t="s">
+        <v>397</v>
+      </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>45608.45500565972</v>
+      </c>
+      <c r="R39" t="s">
+        <v>391</v>
+      </c>
+      <c r="S39" t="s">
+        <v>108</v>
+      </c>
+      <c r="T39">
+        <v>3.0193834100816783</v>
+      </c>
+      <c r="U39" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39">
+        <v>35.6879150771008</v>
+      </c>
+      <c r="W39" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39">
+        <v>14.560898145915504</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z39">
+        <v>3.3196244613222747</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB39">
+        <v>6.27656195359986</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40">
+        <v>451948752</v>
+      </c>
+      <c r="F40" t="s">
+        <v>403</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>404</v>
+      </c>
+      <c r="L40" t="s">
+        <v>405</v>
+      </c>
+      <c r="M40" t="s">
+        <v>406</v>
+      </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>45576.275298252316</v>
+      </c>
+      <c r="R40" t="s">
+        <v>400</v>
+      </c>
+      <c r="S40" t="s">
+        <v>407</v>
+      </c>
+      <c r="T40">
+        <v>1.91272207481139</v>
+      </c>
+      <c r="U40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40">
+        <v>29.63499448504395</v>
+      </c>
+      <c r="W40" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40">
+        <v>43.727940842521896</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z40">
+        <v>9.431075144006911</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB40">
+        <v>2.116656479581448</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="412">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>446.09</t>
-  </si>
-  <si>
-    <t>688.50</t>
-  </si>
-  <si>
-    <t>553.59</t>
+    <t>700.35</t>
+  </si>
+  <si>
+    <t>915.79</t>
+  </si>
+  <si>
+    <t>455.80</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -142,7 +142,7 @@
     <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-ristrutturante-24007413</t>
   </si>
   <si>
-    <t>products\Dikson Treat shampoo ristrutturante_24007413\image.jpg</t>
+    <t>products_all\Dikson Treat shampoo ristrutturante_24007413\image.jpg</t>
   </si>
   <si>
     <t>Urtinol</t>
@@ -157,19 +157,19 @@
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>704.29</t>
-  </si>
-  <si>
-    <t>618.25</t>
-  </si>
-  <si>
-    <t>974.79</t>
+    <t>114.19</t>
+  </si>
+  <si>
+    <t>786.39</t>
+  </si>
+  <si>
+    <t>906.79</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/urtinol</t>
   </si>
   <si>
-    <t>products\Urtinol_12201201\image.jpg</t>
+    <t>products_all\Urtinol_12201201\image.jpg</t>
   </si>
   <si>
     <t>Structur Fort</t>
@@ -184,13 +184,13 @@
     <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agendo come ottimo districante ed emolliente.Aiuta la stabilizzazione delle condizioni fisiologiche ideali della cute agendo, quindi, anche da antiforfora e antigrasso.10x12ml.</t>
   </si>
   <si>
-    <t>198.59</t>
-  </si>
-  <si>
-    <t>990.39</t>
-  </si>
-  <si>
-    <t>644.69</t>
+    <t>802.59</t>
+  </si>
+  <si>
+    <t>810.69</t>
+  </si>
+  <si>
+    <t>366.80</t>
   </si>
   <si>
     <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agend</t>
@@ -199,7 +199,7 @@
     <t>https://muster-dikson.com/it/prodotto/structur-fort</t>
   </si>
   <si>
-    <t>products\Structur Fort_12077011\image.jpg</t>
+    <t>products_all\Structur Fort_12077011\image.jpg</t>
   </si>
   <si>
     <t>Dikson Treat shampoo neutro</t>
@@ -214,19 +214,19 @@
     <t>Con Olio di Argan.Deterge delicatamente senza alterare il naturale equilibrio.L’olio di argan fortifica i capelli.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>166.39</t>
-  </si>
-  <si>
-    <t>564.69</t>
-  </si>
-  <si>
-    <t>656.09</t>
+    <t>595.29</t>
+  </si>
+  <si>
+    <t>861.79</t>
+  </si>
+  <si>
+    <t>478.69</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-neutro-24007424</t>
   </si>
   <si>
-    <t>products\Dikson Treat shampoo neutro_24007424\image.jpg</t>
+    <t>products_all\Dikson Treat shampoo neutro_24007424\image.jpg</t>
   </si>
   <si>
     <t>Herbelan pack</t>
@@ -241,466 +241,466 @@
     <t>1000ml.</t>
   </si>
   <si>
+    <t>119.29</t>
+  </si>
+  <si>
+    <t>410.19</t>
+  </si>
+  <si>
+    <t>695.59</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/herbelan-pack-13046002</t>
+  </si>
+  <si>
+    <t>products_all\Herbelan pack_13046002\image.jpg</t>
+  </si>
+  <si>
+    <t>Sutil</t>
+  </si>
+  <si>
+    <t>sutil</t>
+  </si>
+  <si>
+    <t>12077271</t>
+  </si>
+  <si>
+    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fisico-chimici e migliorano la pettinabilità.Indicato per ogni tipo di acconciatura.250ml.</t>
+  </si>
+  <si>
+    <t>276.19</t>
+  </si>
+  <si>
+    <t>662.35</t>
+  </si>
+  <si>
+    <t>557.39</t>
+  </si>
+  <si>
+    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fi</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/sutil</t>
+  </si>
+  <si>
+    <t>products_all\Sutil_12077271\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Treat shampoo riparatore</t>
+  </si>
+  <si>
+    <t>dikson-treat-shampoo-riparatore</t>
+  </si>
+  <si>
+    <t>24007414</t>
+  </si>
+  <si>
+    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti.Uso professionale.10kg.</t>
+  </si>
+  <si>
+    <t>495.65</t>
+  </si>
+  <si>
+    <t>386.05</t>
+  </si>
+  <si>
+    <t>812.48</t>
+  </si>
+  <si>
+    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-riparatore-24007414</t>
+  </si>
+  <si>
+    <t>products_all\Dikson Treat shampoo riparatore_24007414\image.jpg</t>
+  </si>
+  <si>
+    <t>Emulsiondor Eurotype 980ml</t>
+  </si>
+  <si>
+    <t>emulsiondor-eurotype-980ml</t>
+  </si>
+  <si>
+    <t>160290..</t>
+  </si>
+  <si>
+    <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
+  </si>
+  <si>
+    <t>363.39</t>
+  </si>
+  <si>
+    <t>821.45</t>
+  </si>
+  <si>
+    <t>911.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-980ml</t>
+  </si>
+  <si>
+    <t>products_all\Emulsiondor Eurotype 980ml_160290..\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Blonde up to 9nine bustine</t>
+  </si>
+  <si>
+    <t>dikso-blonde-up-to-9nine-bustine</t>
+  </si>
+  <si>
+    <t>24006101</t>
+  </si>
+  <si>
+    <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
+  </si>
+  <si>
+    <t>47.41</t>
+  </si>
+  <si>
+    <t>918.39</t>
+  </si>
+  <si>
+    <t>592.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-up-to-9nine-bustine</t>
+  </si>
+  <si>
+    <t>products_all\Dikso Blonde up to 9nine bustine_24006101\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Blonde maschera antigiallo</t>
+  </si>
+  <si>
+    <t>dikso-blonde-maschera-antigiallo</t>
+  </si>
+  <si>
+    <t>24006132</t>
+  </si>
+  <si>
+    <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
+  </si>
+  <si>
+    <t>598.59</t>
+  </si>
+  <si>
+    <t>965.90</t>
+  </si>
+  <si>
+    <t>245.95</t>
+  </si>
+  <si>
+    <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-maschera-antigiallo</t>
+  </si>
+  <si>
+    <t>products_all\Dikso Blonde maschera antigiallo_24006132\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Blonde shampoo antigiallo tonalizzante</t>
+  </si>
+  <si>
+    <t>dikso-blonde-shampoo-antigiallo-tonalizzante</t>
+  </si>
+  <si>
+    <t>24006131</t>
+  </si>
+  <si>
+    <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
+  </si>
+  <si>
+    <t>111.10</t>
+  </si>
+  <si>
+    <t>529.35</t>
+  </si>
+  <si>
+    <t>90.09</t>
+  </si>
+  <si>
+    <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-shampoo-antigiallo-tonalizzante-24006131</t>
+  </si>
+  <si>
+    <t>products_all\Dikso Blonde shampoo antigiallo tonalizzante_24006131\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction final touch spray</t>
+  </si>
+  <si>
+    <t>illaminaction-final-touch-spray</t>
+  </si>
+  <si>
+    <t>24006256</t>
+  </si>
+  <si>
+    <t>Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la lucentezza dei capelli con un effetto leggero, che non appesantisce.USO: Vaporizzare a capelli asciutti per completare il processo di laminazione e attriburire un fattore di Extra Brilantezza Applicare anche più volte al giorno per esaltare l’Effetto Specchio dei capelli.</t>
+  </si>
+  <si>
+    <t>715.55</t>
+  </si>
+  <si>
+    <t>618.69</t>
+  </si>
+  <si>
+    <t>661.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-final-touch-spray</t>
+  </si>
+  <si>
+    <t>products_all\Illaminaction final touch spray_24006256\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction Concentrato laminante</t>
+  </si>
+  <si>
+    <t>illaminaction-concentrato-laminante</t>
+  </si>
+  <si>
+    <t>24006253</t>
+  </si>
+  <si>
+    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificante dell’Olio di Cocco, nutre, ammorbidisce e apporta struttura proteica all’interno del capello. Il suo speciale pH acido sigilla istantaneamente le squame per concentrarne l’effetto sostantivante e rigenerante, creando una lamina esterna protettiva. La speciale Tecnologia Termoattiva , potenziata con Acido Ialuronico e Vitamina E, fissa il trattamento laminante sopra le squame con un effetto «lamellare» uniforme e brillante.USO: Applicare su capelli bagnati e massaggiare a lungo. Risciacquare e ripetere l’applicazione. Asciugare parzialmente i capelli prima di passare alla fase successiva.</t>
+  </si>
+  <si>
+    <t>39.02</t>
+  </si>
+  <si>
+    <t>759.15</t>
+  </si>
+  <si>
+    <t>474.40</t>
+  </si>
+  <si>
+    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificant</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-concentrato-laminante</t>
+  </si>
+  <si>
+    <t>products_all\Illaminaction Concentrato laminante_24006253\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction Primer preparatore alcalinizzante</t>
+  </si>
+  <si>
+    <t>illaminaction-primer-preparatore-alcalinizzante</t>
+  </si>
+  <si>
+    <t>24006252</t>
+  </si>
+  <si>
+    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula agevola l’apertura delle squame senza intaccare la struttura del capello.USO: Dopo lo shampoo, asciugare parzialmente per eliminare residui d’acqua e vaporizzare il Primer uniformemente su lunghezze e punte. Massaggiare e pettinare delicatamente. Eliminare l’eventuale eccesso di prodotto con il phon e procedere con il Trattamento Laminante.</t>
+  </si>
+  <si>
+    <t>311.09</t>
+  </si>
+  <si>
+    <t>223.59</t>
+  </si>
+  <si>
+    <t>214.35</t>
+  </si>
+  <si>
+    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula age</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/it/prodotto/illaminaction-primer-preparatore-alcalinizzante</t>
+  </si>
+  <si>
+    <t>products_all\Illaminaction Primer preparatore alcalinizzante_24006252\image.jpg</t>
+  </si>
+  <si>
+    <t>Cristalli Fluidi</t>
+  </si>
+  <si>
+    <t>cristalli-fluidi</t>
+  </si>
+  <si>
+    <t>12077211</t>
+  </si>
+  <si>
+    <t>Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution and weathering agents.It wraps the hair with an elastic micro sheath and welds split ends.It develops an intense revitalizing action.It donates an intense, crystalline glossiness, brightness and silk effect.Smooth hair, easy to brush and silky to the touch. Disentangling – it does not oil.cod. 12077211C - 100 ml</t>
+  </si>
+  <si>
+    <t>318.79</t>
+  </si>
+  <si>
+    <t>928.29</t>
+  </si>
+  <si>
+    <t>878.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution </t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/cristalli-fluidi</t>
+  </si>
+  <si>
+    <t>products_all\Cristalli Fluidi_12077211\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikso Sten</t>
+  </si>
+  <si>
+    <t>dikso-sten</t>
+  </si>
+  <si>
+    <t>19010301</t>
+  </si>
+  <si>
+    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natural or treated.For professional use.Straightening gel:100ml + neutralizer: 100ml.</t>
+  </si>
+  <si>
+    <t>483.65</t>
+  </si>
+  <si>
+    <t>673.29</t>
+  </si>
+  <si>
+    <t>424.69</t>
+  </si>
+  <si>
+    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natur</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikso-sten</t>
+  </si>
+  <si>
+    <t>products_all\Dikso Sten_19010301\image.jpg</t>
+  </si>
+  <si>
+    <t>Soffice forte</t>
+  </si>
+  <si>
+    <t>soffice-forte</t>
+  </si>
+  <si>
+    <t>15132001</t>
+  </si>
+  <si>
+    <t>No gas. Ensures a high output.Natural hold, does not make hair heavy; removable with a few brush strokes.Maximum output.Strong hold factor.350ml.</t>
+  </si>
+  <si>
+    <t>392.94</t>
+  </si>
+  <si>
+    <t>173.59</t>
+  </si>
+  <si>
+    <t>966.55</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/soffice-forte</t>
+  </si>
+  <si>
+    <t>products_all\Soffice forte_15132001\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Luxury Caviar conditioner</t>
+  </si>
+  <si>
+    <t>dikson-luxury-caviar-conditioner</t>
+  </si>
+  <si>
+    <t>24005903</t>
+  </si>
+  <si>
+    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extract of Caulerpa Lentillifera, common algae in the Far East, rich in minerals, polysaccharides, vitamins A, C and E and trace elements, which soften the hair and restore vitality to the hair structure, while protecting it from oxidative stress and future damage. Created to rapidly help weakened and dull hair to return strong, looking radiant and healthy. For best results, use with the other products in the Dikson Luxury Caviar line.cod 24005903 - 280ml.cod 24005902 - 1000ml.</t>
+  </si>
+  <si>
+    <t>440.69</t>
+  </si>
+  <si>
+    <t>605.29</t>
+  </si>
+  <si>
+    <t>425.79</t>
+  </si>
+  <si>
+    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extr</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-conditioner-24006011</t>
+  </si>
+  <si>
+    <t>products_all\Dikson Luxury Caviar conditioner_24005903\image.jpg</t>
+  </si>
+  <si>
+    <t>Dikson Luxury Caviar maschera rivitalizzante</t>
+  </si>
+  <si>
+    <t>dikson-luxury-caviar-maschera-rivitalizzante</t>
+  </si>
+  <si>
+    <t>24005904</t>
+  </si>
+  <si>
+    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and nourished.500ml.</t>
+  </si>
+  <si>
+    <t>763.05</t>
+  </si>
+  <si>
+    <t>561.55</t>
+  </si>
+  <si>
+    <t>647.79</t>
+  </si>
+  <si>
+    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and n</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-maschera-rivitalizzante-24006032</t>
+  </si>
+  <si>
+    <t>products_all\Dikson Luxury Caviar maschera rivitalizzante_24005904\image.jpg</t>
+  </si>
+  <si>
+    <t>Illaminaction lamellar sealer</t>
+  </si>
+  <si>
+    <t>illaminaction-lamellar-sealer</t>
+  </si>
+  <si>
+    <t>24006255</t>
+  </si>
+  <si>
+    <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact and soft. It protects against heat, setting the lamellar film on the cuticle for a «mirror-effect» illuminating action that leaves the hair looking healthy, full of life and of light-reflecting shine.USE: Spray evenly onto the lengths and ends and blow-dry. Use a straightener for an even glossier effect.</t>
+  </si>
+  <si>
+    <t>626.29</t>
+  </si>
+  <si>
+    <t>957.05</t>
+  </si>
+  <si>
     <t>717.55</t>
   </si>
   <si>
-    <t>978.49</t>
-  </si>
-  <si>
-    <t>734.25</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/herbelan-pack-13046002</t>
-  </si>
-  <si>
-    <t>products\Herbelan pack_13046002\image.jpg</t>
-  </si>
-  <si>
-    <t>Sutil</t>
-  </si>
-  <si>
-    <t>sutil</t>
-  </si>
-  <si>
-    <t>12077271</t>
-  </si>
-  <si>
-    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fisico-chimici e migliorano la pettinabilità.Indicato per ogni tipo di acconciatura.250ml.</t>
-  </si>
-  <si>
-    <t>856.29</t>
-  </si>
-  <si>
-    <t>87.25</t>
-  </si>
-  <si>
-    <t>993.99</t>
-  </si>
-  <si>
-    <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fi</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/sutil</t>
-  </si>
-  <si>
-    <t>products\Sutil_12077271\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikson Treat shampoo riparatore</t>
-  </si>
-  <si>
-    <t>dikson-treat-shampoo-riparatore</t>
-  </si>
-  <si>
-    <t>24007414</t>
-  </si>
-  <si>
-    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti.Uso professionale.10kg.</t>
-  </si>
-  <si>
-    <t>139.76</t>
-  </si>
-  <si>
-    <t>366.99</t>
-  </si>
-  <si>
-    <t>841.65</t>
-  </si>
-  <si>
-    <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-riparatore-24007414</t>
-  </si>
-  <si>
-    <t>products\Dikson Treat shampoo riparatore_24007414\image.jpg</t>
-  </si>
-  <si>
-    <t>Emulsiondor Eurotype 980ml</t>
-  </si>
-  <si>
-    <t>emulsiondor-eurotype-980ml</t>
-  </si>
-  <si>
-    <t>160290..</t>
-  </si>
-  <si>
-    <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
-  </si>
-  <si>
-    <t>649.39</t>
-  </si>
-  <si>
-    <t>589.65</t>
-  </si>
-  <si>
-    <t>525.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-980ml</t>
-  </si>
-  <si>
-    <t>products\Emulsiondor Eurotype 980ml_160290..\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikso Blonde up to 9nine bustine</t>
-  </si>
-  <si>
-    <t>dikso-blonde-up-to-9nine-bustine</t>
-  </si>
-  <si>
-    <t>24006101</t>
-  </si>
-  <si>
-    <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
-  </si>
-  <si>
-    <t>78.29</t>
-  </si>
-  <si>
-    <t>791.45</t>
-  </si>
-  <si>
-    <t>348.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-up-to-9nine-bustine</t>
-  </si>
-  <si>
-    <t>products\Dikso Blonde up to 9nine bustine_24006101\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikso Blonde maschera antigiallo</t>
-  </si>
-  <si>
-    <t>dikso-blonde-maschera-antigiallo</t>
-  </si>
-  <si>
-    <t>24006132</t>
-  </si>
-  <si>
-    <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
-  </si>
-  <si>
-    <t>462.35</t>
-  </si>
-  <si>
-    <t>29.05</t>
-  </si>
-  <si>
-    <t>346.79</t>
-  </si>
-  <si>
-    <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-maschera-antigiallo</t>
-  </si>
-  <si>
-    <t>products\Dikso Blonde maschera antigiallo_24006132\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikso Blonde shampoo antigiallo tonalizzante</t>
-  </si>
-  <si>
-    <t>dikso-blonde-shampoo-antigiallo-tonalizzante</t>
-  </si>
-  <si>
-    <t>24006131</t>
-  </si>
-  <si>
-    <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
-  </si>
-  <si>
-    <t>719.99</t>
-  </si>
-  <si>
-    <t>580.75</t>
-  </si>
-  <si>
-    <t>931.49</t>
-  </si>
-  <si>
-    <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/dikso-blonde-shampoo-antigiallo-tonalizzante-24006131</t>
-  </si>
-  <si>
-    <t>products\Dikso Blonde shampoo antigiallo tonalizzante_24006131\image.jpg</t>
-  </si>
-  <si>
-    <t>Illaminaction final touch spray</t>
-  </si>
-  <si>
-    <t>illaminaction-final-touch-spray</t>
-  </si>
-  <si>
-    <t>24006256</t>
-  </si>
-  <si>
-    <t>Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la lucentezza dei capelli con un effetto leggero, che non appesantisce.USO: Vaporizzare a capelli asciutti per completare il processo di laminazione e attriburire un fattore di Extra Brilantezza Applicare anche più volte al giorno per esaltare l’Effetto Specchio dei capelli.</t>
-  </si>
-  <si>
-    <t>267.35</t>
-  </si>
-  <si>
-    <t>154.69</t>
-  </si>
-  <si>
-    <t>652.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la </t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/illaminaction-final-touch-spray</t>
-  </si>
-  <si>
-    <t>products\Illaminaction final touch spray_24006256\image.jpg</t>
-  </si>
-  <si>
-    <t>Illaminaction Concentrato laminante</t>
-  </si>
-  <si>
-    <t>illaminaction-concentrato-laminante</t>
-  </si>
-  <si>
-    <t>24006253</t>
-  </si>
-  <si>
-    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificante dell’Olio di Cocco, nutre, ammorbidisce e apporta struttura proteica all’interno del capello. Il suo speciale pH acido sigilla istantaneamente le squame per concentrarne l’effetto sostantivante e rigenerante, creando una lamina esterna protettiva. La speciale Tecnologia Termoattiva , potenziata con Acido Ialuronico e Vitamina E, fissa il trattamento laminante sopra le squame con un effetto «lamellare» uniforme e brillante.USO: Applicare su capelli bagnati e massaggiare a lungo. Risciacquare e ripetere l’applicazione. Asciugare parzialmente i capelli prima di passare alla fase successiva.</t>
-  </si>
-  <si>
-    <t>499.40</t>
-  </si>
-  <si>
-    <t>341.29</t>
-  </si>
-  <si>
-    <t>887.12</t>
-  </si>
-  <si>
-    <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificant</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/illaminaction-concentrato-laminante</t>
-  </si>
-  <si>
-    <t>products\Illaminaction Concentrato laminante_24006253\image.jpg</t>
-  </si>
-  <si>
-    <t>Illaminaction Primer preparatore alcalinizzante</t>
-  </si>
-  <si>
-    <t>illaminaction-primer-preparatore-alcalinizzante</t>
-  </si>
-  <si>
-    <t>24006252</t>
-  </si>
-  <si>
-    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula agevola l’apertura delle squame senza intaccare la struttura del capello.USO: Dopo lo shampoo, asciugare parzialmente per eliminare residui d’acqua e vaporizzare il Primer uniformemente su lunghezze e punte. Massaggiare e pettinare delicatamente. Eliminare l’eventuale eccesso di prodotto con il phon e procedere con il Trattamento Laminante.</t>
-  </si>
-  <si>
-    <t>9.49</t>
-  </si>
-  <si>
-    <t>601.29</t>
-  </si>
-  <si>
-    <t>137.25</t>
-  </si>
-  <si>
-    <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula age</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/it/prodotto/illaminaction-primer-preparatore-alcalinizzante</t>
-  </si>
-  <si>
-    <t>products\Illaminaction Primer preparatore alcalinizzante_24006252\image.jpg</t>
-  </si>
-  <si>
-    <t>Cristalli Fluidi</t>
-  </si>
-  <si>
-    <t>cristalli-fluidi</t>
-  </si>
-  <si>
-    <t>12077211</t>
-  </si>
-  <si>
-    <t>Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution and weathering agents.It wraps the hair with an elastic micro sheath and welds split ends.It develops an intense revitalizing action.It donates an intense, crystalline glossiness, brightness and silk effect.Smooth hair, easy to brush and silky to the touch. Disentangling – it does not oil.cod. 12077211C - 100 ml</t>
-  </si>
-  <si>
-    <t>70.77</t>
-  </si>
-  <si>
-    <t>615.39</t>
-  </si>
-  <si>
-    <t>135.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution </t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/en/product/cristalli-fluidi</t>
-  </si>
-  <si>
-    <t>products\Cristalli Fluidi_12077211\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikso Sten</t>
-  </si>
-  <si>
-    <t>dikso-sten</t>
-  </si>
-  <si>
-    <t>19010301</t>
-  </si>
-  <si>
-    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natural or treated.For professional use.Straightening gel:100ml + neutralizer: 100ml.</t>
-  </si>
-  <si>
-    <t>301.29</t>
-  </si>
-  <si>
-    <t>161.49</t>
-  </si>
-  <si>
-    <t>765.19</t>
-  </si>
-  <si>
-    <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natur</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/en/product/dikso-sten</t>
-  </si>
-  <si>
-    <t>products\Dikso Sten_19010301\image.jpg</t>
-  </si>
-  <si>
-    <t>Soffice forte</t>
-  </si>
-  <si>
-    <t>soffice-forte</t>
-  </si>
-  <si>
-    <t>15132001</t>
-  </si>
-  <si>
-    <t>No gas. Ensures a high output.Natural hold, does not make hair heavy; removable with a few brush strokes.Maximum output.Strong hold factor.350ml.</t>
-  </si>
-  <si>
-    <t>825.59</t>
-  </si>
-  <si>
-    <t>90.69</t>
-  </si>
-  <si>
-    <t>594.49</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/en/product/soffice-forte</t>
-  </si>
-  <si>
-    <t>products\Soffice forte_15132001\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikson Luxury Caviar conditioner</t>
-  </si>
-  <si>
-    <t>dikson-luxury-caviar-conditioner</t>
-  </si>
-  <si>
-    <t>24005903</t>
-  </si>
-  <si>
-    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extract of Caulerpa Lentillifera, common algae in the Far East, rich in minerals, polysaccharides, vitamins A, C and E and trace elements, which soften the hair and restore vitality to the hair structure, while protecting it from oxidative stress and future damage. Created to rapidly help weakened and dull hair to return strong, looking radiant and healthy. For best results, use with the other products in the Dikson Luxury Caviar line.cod 24005903 - 280ml.cod 24005902 - 1000ml.</t>
-  </si>
-  <si>
-    <t>73.59</t>
-  </si>
-  <si>
-    <t>615.35</t>
-  </si>
-  <si>
-    <t>736.81</t>
-  </si>
-  <si>
-    <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extr</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-conditioner-24006011</t>
-  </si>
-  <si>
-    <t>products\Dikson Luxury Caviar conditioner_24005903\image.jpg</t>
-  </si>
-  <si>
-    <t>Dikson Luxury Caviar maschera rivitalizzante</t>
-  </si>
-  <si>
-    <t>dikson-luxury-caviar-maschera-rivitalizzante</t>
-  </si>
-  <si>
-    <t>24005904</t>
-  </si>
-  <si>
-    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and nourished.500ml.</t>
-  </si>
-  <si>
-    <t>542.99</t>
-  </si>
-  <si>
-    <t>270.20</t>
-  </si>
-  <si>
-    <t>559.20</t>
-  </si>
-  <si>
-    <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and n</t>
-  </si>
-  <si>
-    <t>https://muster-dikson.com/en/product/dikson-luxury-caviar-maschera-rivitalizzante-24006032</t>
-  </si>
-  <si>
-    <t>products\Dikson Luxury Caviar maschera rivitalizzante_24005904\image.jpg</t>
-  </si>
-  <si>
-    <t>Illaminaction lamellar sealer</t>
-  </si>
-  <si>
-    <t>illaminaction-lamellar-sealer</t>
-  </si>
-  <si>
-    <t>24006255</t>
-  </si>
-  <si>
-    <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact and soft. It protects against heat, setting the lamellar film on the cuticle for a «mirror-effect» illuminating action that leaves the hair looking healthy, full of life and of light-reflecting shine.USE: Spray evenly onto the lengths and ends and blow-dry. Use a straightener for an even glossier effect.</t>
-  </si>
-  <si>
-    <t>752.59</t>
-  </si>
-  <si>
-    <t>171.59</t>
-  </si>
-  <si>
-    <t>17.08</t>
-  </si>
-  <si>
     <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact a</t>
   </si>
   <si>
     <t>https://muster-dikson.com/en/product/illaminaction-lamellar-sealer</t>
   </si>
   <si>
-    <t>products\Illaminaction lamellar sealer_24006255\image.jpg</t>
+    <t>products_all\Illaminaction lamellar sealer_24006255\image.jpg</t>
   </si>
   <si>
     <t>Illaminaction laminating concentrate</t>
@@ -712,13 +712,13 @@
     <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its special acidic pH instantly seals the scales for a more targeted replenishing and regenerating effect, creating a protective outer layer. The special Thermo-Active Technology, boosted with Hyaluronic Acid and Vitamin E, seals the laminating treatment on the scales for a glossy and uniform «lamellar» effect.USE: after the Primer, use a brush to apply a suitable amount of Laminating Concentrate on each strand. Massage gently against the scales to let the product absorb, and then comb through with a wide tooth comb to promote the pH sealing action. Apply a cap and place under a heat source for 10 minutes. Then rinse.</t>
   </si>
   <si>
-    <t>876.69</t>
-  </si>
-  <si>
-    <t>294.09</t>
-  </si>
-  <si>
-    <t>849.30</t>
+    <t>855.45</t>
+  </si>
+  <si>
+    <t>440.19</t>
+  </si>
+  <si>
+    <t>344.09</t>
   </si>
   <si>
     <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its spec</t>
@@ -727,7 +727,7 @@
     <t>https://muster-dikson.com/en/product/illaminaction-laminating-concentrate</t>
   </si>
   <si>
-    <t>products\Illaminaction laminating concentrate_24006253\image.jpg</t>
+    <t>products_all\Illaminaction laminating concentrate_24006253\image.jpg</t>
   </si>
   <si>
     <t>Illaminaction alkalising primer preparer</t>
@@ -739,13 +739,13 @@
     <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps open up the scales without damaging the hair structure.USE: SHAKE WELL BEFORE USE. After shampooing, partially dry the hair to get rid of any excess water and spray the Primer evenly onto lengths and ends. Massage and comb gently. Remove any excess product with a hair dryer and then proceed with the Lamination Treatment.</t>
   </si>
   <si>
-    <t>830.59</t>
-  </si>
-  <si>
-    <t>927.35</t>
-  </si>
-  <si>
-    <t>105.80</t>
+    <t>492.89</t>
+  </si>
+  <si>
+    <t>94.89</t>
+  </si>
+  <si>
+    <t>788.50</t>
   </si>
   <si>
     <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps</t>
@@ -754,7 +754,7 @@
     <t>https://muster-dikson.com/en/product/illaminaction-alkalising-primer-preparer</t>
   </si>
   <si>
-    <t>products\Illaminaction alkalising primer preparer_24006252\image.jpg</t>
+    <t>products_all\Illaminaction alkalising primer preparer_24006252\image.jpg</t>
   </si>
   <si>
     <t>Platidik</t>
@@ -769,19 +769,19 @@
     <t>Super decolorante professionale per capelli rapido universale ideale per decolorazioni forti, contrasti, mèches e colpi di sole.Uso professionale.24x35g.</t>
   </si>
   <si>
-    <t>976.00</t>
-  </si>
-  <si>
-    <t>560.19</t>
-  </si>
-  <si>
-    <t>190.59</t>
+    <t>76.39</t>
+  </si>
+  <si>
+    <t>75.85</t>
+  </si>
+  <si>
+    <t>917.19</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/platidik</t>
   </si>
   <si>
-    <t>products\Platidik_18035024\image.jpg</t>
+    <t>products_all\Platidik_18035024\image.jpg</t>
   </si>
   <si>
     <t>Oil gel</t>
@@ -796,19 +796,19 @@
     <t>Gel fissativo ad azione lucidante per un effetto bagnato duraturo.500ml.</t>
   </si>
   <si>
-    <t>341.19</t>
-  </si>
-  <si>
-    <t>419.99</t>
-  </si>
-  <si>
-    <t>722.35</t>
+    <t>797.45</t>
+  </si>
+  <si>
+    <t>606.19</t>
+  </si>
+  <si>
+    <t>950.45</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/oil-gel</t>
   </si>
   <si>
-    <t>products\Oil gel_12100520\image.jpg</t>
+    <t>products_all\Oil gel_12100520\image.jpg</t>
   </si>
   <si>
     <t>PR 25</t>
@@ -823,13 +823,13 @@
     <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capelli fragili e deboli.10x10ml.</t>
   </si>
   <si>
-    <t>646.49</t>
-  </si>
-  <si>
-    <t>696.99</t>
-  </si>
-  <si>
-    <t>877.30</t>
+    <t>112.50</t>
+  </si>
+  <si>
+    <t>546.09</t>
+  </si>
+  <si>
+    <t>416.05</t>
   </si>
   <si>
     <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capel</t>
@@ -838,7 +838,7 @@
     <t>https://muster-dikson.com/it/prodotto/pr-25</t>
   </si>
   <si>
-    <t>products\PR 25_12111211\image.jpg</t>
+    <t>products_all\PR 25_12111211\image.jpg</t>
   </si>
   <si>
     <t>Platidik Advanced</t>
@@ -853,13 +853,13 @@
     <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso professionale.24x35g.</t>
   </si>
   <si>
-    <t>464.75</t>
-  </si>
-  <si>
-    <t>550.40</t>
-  </si>
-  <si>
-    <t>179.49</t>
+    <t>45.65</t>
+  </si>
+  <si>
+    <t>832.89</t>
+  </si>
+  <si>
+    <t>522.77</t>
   </si>
   <si>
     <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso</t>
@@ -868,7 +868,7 @@
     <t>https://muster-dikson.com/it/prodotto/platidik-advanced</t>
   </si>
   <si>
-    <t>products\Platidik Advanced_18035030\image.jpg</t>
+    <t>products_all\Platidik Advanced_18035030\image.jpg</t>
   </si>
   <si>
     <t>Polipant Complex</t>
@@ -883,13 +883,13 @@
     <t>Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di prevenzione contro la caduta dei capelli.12x10ml.</t>
   </si>
   <si>
-    <t>878.89</t>
-  </si>
-  <si>
-    <t>857.99</t>
-  </si>
-  <si>
-    <t>635.69</t>
+    <t>630.59</t>
+  </si>
+  <si>
+    <t>875.35</t>
+  </si>
+  <si>
+    <t>31.94</t>
   </si>
   <si>
     <t xml:space="preserve">Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di </t>
@@ -898,7 +898,7 @@
     <t>https://muster-dikson.com/it/prodotto/polipant-complex</t>
   </si>
   <si>
-    <t>products\Polipant Complex_12091200\image.jpg</t>
+    <t>products_all\Polipant Complex_12091200\image.jpg</t>
   </si>
   <si>
     <t>Poly oil</t>
@@ -913,13 +913,13 @@
     <t>Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto capillare e riduce la presenza di doppie punte.E’ di efficace aiuto per la realizzazione di raccolti.Si applica su capelli sia asciutti che bagnati.12x10ml.</t>
   </si>
   <si>
-    <t>972.55</t>
-  </si>
-  <si>
-    <t>201.39</t>
-  </si>
-  <si>
-    <t>769.36</t>
+    <t>41.90</t>
+  </si>
+  <si>
+    <t>490.79</t>
+  </si>
+  <si>
+    <t>30.19</t>
   </si>
   <si>
     <t xml:space="preserve">Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto </t>
@@ -928,7 +928,7 @@
     <t>https://muster-dikson.com/it/prodotto/poly-oil</t>
   </si>
   <si>
-    <t>products\Poly oil_12077110\image.jpg</t>
+    <t>products_all\Poly oil_12077110\image.jpg</t>
   </si>
   <si>
     <t>Ristrutturante Dikson</t>
@@ -943,10 +943,13 @@
     <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabilirsi dell’equilibrio fisiologico dei capelli naturali.Svolge un’efficace azione protettiva, districante ed emolliente; ideale sia dopo l’applicazione di trattamenti alcalini (tinture, permanenti, decolorazioni ecc.) come coadiuvante, sia prima per un’intensa azione protettiva.12x12ml.</t>
   </si>
   <si>
-    <t>528.25</t>
-  </si>
-  <si>
-    <t>779.80</t>
+    <t>478.55</t>
+  </si>
+  <si>
+    <t>70.89</t>
+  </si>
+  <si>
+    <t>567.89</t>
   </si>
   <si>
     <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabili</t>
@@ -955,7 +958,7 @@
     <t>https://muster-dikson.com/it/prodotto/ristrutturante-dikson</t>
   </si>
   <si>
-    <t>products\Ristrutturante Dikson_12077002\image.jpg</t>
+    <t>products_all\Ristrutturante Dikson_12077002\image.jpg</t>
   </si>
   <si>
     <t>Diksoplex Defensive n°1</t>
@@ -970,13 +973,13 @@
     <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità.Senza Parabeni e Solfati.100ml.A tutte le clienti che richiedono servizi tecnici in salone e a quelle che hanno capelli sfibrati da ripetuti servizi tecnici.Diksoplex Defensive non modifica in alcun modo gli abituali metodi di realizzazione dei servizi tecnici, né nelle fasi applicative, né nei tempi, ma assicura protezione alla struttura dei capelli durante il loro svolgimento.Che il rapporto di miscelazione della crema colorante sia 1:1 o 1:1,5, la diluizione con Diksoplex Defensive 1.Shield non cambia e rimane 2ml di prodotto ogni 20ml di crema colorante.La diluizione cambia quando il rapporto di miscelazione con l’ossidante riguarda una colorazione superschiarente: in questo caso si devono impiegare 4ml di Diksoplex Defensive 1.Shield ogni 25g di crema colorante superschiarente.Si, se la struttura dei capelli lo consente.No, il potere schiarente non si modifica.È tuttavia fondamentale che vengano rispettate le dosi di miscelazione.Certamente, è possibile utilizzare il sistema Diksoplex Defensive su capelli che sono stati colorati, decolorati, stirati o permanentati, anche se la loro struttura appare integra.Diksoplex Defensive 1.Shield deve essere miscelato in proporzione fissa, come indicato nelle modalità di applicazione nei singoli servizi tecnici.Invece la quantità di Diksoplex Defensive 2.Shield Magnifier dipende dalla lunghezza dei capelli e dalla loro porosità.Quindi la dose può essere commisurata a quella che si userebbe se il prodotto fosse una maschera o un conditioner.Certamente.Le modalità di utilizzo sono identiche sia che i capelli siano naturali o che si tratti di extension.Non ci sono controindicazioni.È tuttavia consigliabile non esporre i capelli durante il trattamento con Diksoplex Defensive a temperature superiori a 40/45°C di caldo umido.È altresì consigliabile un controllo più frequente durante l’operazione poiché il calore accelera i tempi di azione del colore e del decolorante.</t>
   </si>
   <si>
-    <t>940.75</t>
-  </si>
-  <si>
-    <t>818.19</t>
-  </si>
-  <si>
-    <t>646.59</t>
+    <t>390.35</t>
+  </si>
+  <si>
+    <t>171.39</t>
+  </si>
+  <si>
+    <t>194.29</t>
   </si>
   <si>
     <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità</t>
@@ -985,7 +988,7 @@
     <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-n1-24005202</t>
   </si>
   <si>
-    <t>products\Diksoplex Defensive n°1_24005202\image.jpg</t>
+    <t>products_all\Diksoplex Defensive n°1_24005202\image.jpg</t>
   </si>
   <si>
     <t>Diksolissage Lissactive Mini Kit</t>
@@ -1000,19 +1003,19 @@
     <t>Diksolissage Lissactive n°1 X 100mlDiksolissage Lissactive n°2 X 250mlDiksolissage Lissactive n°3 X 100ml</t>
   </si>
   <si>
-    <t>441.25</t>
-  </si>
-  <si>
-    <t>548.30</t>
-  </si>
-  <si>
-    <t>693.65</t>
+    <t>457.09</t>
+  </si>
+  <si>
+    <t>516.99</t>
+  </si>
+  <si>
+    <t>73.19</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-mini-kit</t>
   </si>
   <si>
-    <t>products\Diksolissage Lissactive Mini Kit_24006220\image.jpg</t>
+    <t>products_all\Diksolissage Lissactive Mini Kit_24006220\image.jpg</t>
   </si>
   <si>
     <t>Diksolissage Lissactive n°3</t>
@@ -1027,13 +1030,13 @@
     <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li lascia setosi al tatto, brillanti e visibilmente sani.Utilizzabile anche come maschera di mantenimento post-trattamento in abbinamento a n°1 DIKSO LISSAGE.LISSACTIVE. Shampoo.</t>
   </si>
   <si>
-    <t>297.29</t>
-  </si>
-  <si>
-    <t>634.24</t>
-  </si>
-  <si>
-    <t>182.35</t>
+    <t>475.19</t>
+  </si>
+  <si>
+    <t>540.35</t>
+  </si>
+  <si>
+    <t>642.29</t>
   </si>
   <si>
     <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li la</t>
@@ -1042,7 +1045,7 @@
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n3</t>
   </si>
   <si>
-    <t>products\Diksolissage Lissactive n°3_24006213\image.jpg</t>
+    <t>products_all\Diksolissage Lissactive n°3_24006213\image.jpg</t>
   </si>
   <si>
     <t>Diksolissage Lissactive n°2</t>
@@ -1057,19 +1060,19 @@
     <t>CREMA TRATTAMENTO LISCIANTE ANTICRESPOda 250mlCuore del trattamento DIKSO LISSAGE. LISSACTIVE,liscia i capelli rigenerandoli allo stesso tempo.</t>
   </si>
   <si>
-    <t>662.29</t>
-  </si>
-  <si>
-    <t>384.45</t>
-  </si>
-  <si>
-    <t>947.29</t>
+    <t>605.99</t>
+  </si>
+  <si>
+    <t>373.99</t>
+  </si>
+  <si>
+    <t>925.49</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n2</t>
   </si>
   <si>
-    <t>products\Diksolissage Lissactive n°2_24006212\image.jpg</t>
+    <t>products_all\Diksolissage Lissactive n°2_24006212\image.jpg</t>
   </si>
   <si>
     <t>Diksolissage Lissactive n°1</t>
@@ -1084,13 +1087,13 @@
     <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. LISSACTIVE.Senza Solfati.Da utilizzare solo in abbinamento alla crema-trattamento lisciante e come shampoo di mantenimento post-trattamento.</t>
   </si>
   <si>
-    <t>236.88</t>
-  </si>
-  <si>
-    <t>298.59</t>
-  </si>
-  <si>
-    <t>433.85</t>
+    <t>263.59</t>
+  </si>
+  <si>
+    <t>581.19</t>
+  </si>
+  <si>
+    <t>918.19</t>
   </si>
   <si>
     <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. L</t>
@@ -1099,7 +1102,7 @@
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n1</t>
   </si>
   <si>
-    <t>products\Diksolissage Lissactive n°1_24006211\image.jpg</t>
+    <t>products_all\Diksolissage Lissactive n°1_24006211\image.jpg</t>
   </si>
   <si>
     <t>Dikso Neutral</t>
@@ -1114,13 +1117,13 @@
     <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei capelli e del cuoio capelluto. L’elemento INNOVATIVO su cui si basa è una FORMULAZIONE UNICA BILANCIATA e TRATTANTE ESCLUSIVA, che ne consente l’applicazione su TUTTI I TIPI DI CAPELLI (naturali, trattati, colorati). Altra peculiarità che la rende applicabile su TUTTI I TIPI DI CAPELLI è la sua NON AGGRESSIVITÀ, in quanto è SENZA AMMONIACA e SENZA ACIDO TIOGLICOLICO.Stabilizza al meglio l’ondulazione rendendola uniforme dalle radici alle punte e neutralizza efficacemente i residui alcalini del liquido ondulante, mentre gli agenti condizionanti garantiscono protezione ed idratazione, preservando la struttura capillare.750 ml</t>
   </si>
   <si>
-    <t>858.30</t>
-  </si>
-  <si>
-    <t>626.75</t>
-  </si>
-  <si>
-    <t>161.69</t>
+    <t>265.15</t>
+  </si>
+  <si>
+    <t>182.95</t>
+  </si>
+  <si>
+    <t>694.45</t>
   </si>
   <si>
     <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei cape</t>
@@ -1129,7 +1132,7 @@
     <t>https://muster-dikson.com/it/prodotto/dikso-neutral</t>
   </si>
   <si>
-    <t>products\Dikso Neutral_20096042\image.jpg</t>
+    <t>products_all\Dikso Neutral_20096042\image.jpg</t>
   </si>
   <si>
     <t>Diksoplex Defensive micro kit</t>
@@ -1144,19 +1147,19 @@
     <t/>
   </si>
   <si>
-    <t>715.55</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>494.75</t>
+    <t>63.09</t>
+  </si>
+  <si>
+    <t>525.35</t>
+  </si>
+  <si>
+    <t>338.09</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-micro-kit</t>
   </si>
   <si>
-    <t>products\Diksoplex Defensive micro kit_24005232\image.jpg</t>
+    <t>products_all\Diksoplex Defensive micro kit_24005232\image.jpg</t>
   </si>
   <si>
     <t>Dikson Color</t>
@@ -1171,10 +1174,13 @@
     <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per un’elevata cosmeticità.Colore stabile.Base cremosa condizionante.Riflessi naturali e di straordinaria brillantezza.Ampia gamma di varianti colore.Tonalità fredde.Tubo da 120ml per 2 trattamenti colore.</t>
   </si>
   <si>
-    <t>393.09</t>
-  </si>
-  <si>
-    <t>578.49</t>
+    <t>670.29</t>
+  </si>
+  <si>
+    <t>819.63</t>
+  </si>
+  <si>
+    <t>511.88</t>
   </si>
   <si>
     <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per</t>
@@ -1183,7 +1189,7 @@
     <t>https://muster-dikson.com/it/prodotto/dikson-color-new</t>
   </si>
   <si>
-    <t>products\Dikson Color_200210...\image.jpg</t>
+    <t>products_all\Dikson Color_200210...\image.jpg</t>
   </si>
   <si>
     <t>Emulsiondor Eurotype 125ml</t>
@@ -1198,19 +1204,19 @@
     <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.125ml.</t>
   </si>
   <si>
-    <t>848.39</t>
-  </si>
-  <si>
-    <t>959.09</t>
-  </si>
-  <si>
-    <t>887.49</t>
+    <t>41.49</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>924.55</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-125ml</t>
   </si>
   <si>
-    <t>products\Emulsiondor Eurotype 125ml_561625..\image.jpg</t>
+    <t>products_all\Emulsiondor Eurotype 125ml_561625..\image.jpg</t>
   </si>
   <si>
     <t>DSM</t>
@@ -1225,13 +1231,13 @@
     <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoio capelluto apportando vigore e salute.Benessere e vitalità per capelli energici e forti.10x10ml.</t>
   </si>
   <si>
-    <t>99.59</t>
-  </si>
-  <si>
-    <t>404.87</t>
-  </si>
-  <si>
-    <t>24.25</t>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>250.25</t>
+  </si>
+  <si>
+    <t>834.95</t>
   </si>
   <si>
     <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoi</t>
@@ -1240,7 +1246,7 @@
     <t>https://muster-dikson.com/it/prodotto/dsm</t>
   </si>
   <si>
-    <t>products\DSM_12191211\image.jpg</t>
+    <t>products_all\DSM_12191211\image.jpg</t>
   </si>
 </sst>
 </file>
@@ -1730,19 +1736,19 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>435101087</v>
+        <v>164301046</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1766,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>45502.38182282407</v>
+        <v>45339.19279025463</v>
       </c>
       <c r="R2" t="s">
         <v>31</v>
@@ -1775,31 +1781,31 @@
         <v>34</v>
       </c>
       <c r="T2">
-        <v>1.4752259081139476</v>
+        <v>0.7868852602776872</v>
       </c>
       <c r="U2" t="s">
         <v>39</v>
       </c>
       <c r="V2">
-        <v>23.626663704603693</v>
+        <v>46.15320734862944</v>
       </c>
       <c r="W2" t="s">
         <v>40</v>
       </c>
       <c r="X2">
-        <v>2.001852651128238</v>
+        <v>41.81450380450095</v>
       </c>
       <c r="Y2" t="s">
         <v>40</v>
       </c>
       <c r="Z2">
-        <v>1.0090186289663454</v>
+        <v>33.460897889957195</v>
       </c>
       <c r="AA2" t="s">
         <v>40</v>
       </c>
       <c r="AB2">
-        <v>9.81022961773889</v>
+        <v>7.963131698295173</v>
       </c>
       <c r="AC2" t="s">
         <v>41</v>
@@ -1825,19 +1831,19 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>854612606</v>
+        <v>358739612</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1861,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>45575.20496357639</v>
+        <v>45559.58692755787</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
@@ -1870,31 +1876,31 @@
         <v>47</v>
       </c>
       <c r="T3">
-        <v>4.626789690136456</v>
+        <v>8.109497850763976</v>
       </c>
       <c r="U3" t="s">
         <v>39</v>
       </c>
       <c r="V3">
-        <v>37.635002019770255</v>
+        <v>6.826919037235046</v>
       </c>
       <c r="W3" t="s">
         <v>40</v>
       </c>
       <c r="X3">
-        <v>40.99320841639345</v>
+        <v>3.8382210372701535</v>
       </c>
       <c r="Y3" t="s">
         <v>40</v>
       </c>
       <c r="Z3">
-        <v>23.928669109604137</v>
+        <v>23.903071491965314</v>
       </c>
       <c r="AA3" t="s">
         <v>40</v>
       </c>
       <c r="AB3">
-        <v>7.532357859695052</v>
+        <v>1.2474724240054664</v>
       </c>
       <c r="AC3" t="s">
         <v>41</v>
@@ -1920,19 +1926,19 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>131113799</v>
+        <v>498485276</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -1956,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>45433.63874527778</v>
+        <v>45435.164180949076</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
@@ -1965,31 +1971,31 @@
         <v>60</v>
       </c>
       <c r="T4">
-        <v>0.624218921403536</v>
+        <v>7.272950781451595</v>
       </c>
       <c r="U4" t="s">
         <v>39</v>
       </c>
       <c r="V4">
-        <v>25.92153664823084</v>
+        <v>19.502153654579075</v>
       </c>
       <c r="W4" t="s">
         <v>40</v>
       </c>
       <c r="X4">
-        <v>7.6842249404160645</v>
+        <v>6.264435184416552</v>
       </c>
       <c r="Y4" t="s">
         <v>40</v>
       </c>
       <c r="Z4">
-        <v>24.05556309792531</v>
+        <v>29.675122105329898</v>
       </c>
       <c r="AA4" t="s">
         <v>40</v>
       </c>
       <c r="AB4">
-        <v>6.895317089830195</v>
+        <v>7.032243826037551</v>
       </c>
       <c r="AC4" t="s">
         <v>41</v>
@@ -2015,19 +2021,19 @@
         <v>65</v>
       </c>
       <c r="E5">
-        <v>680908763</v>
+        <v>862102820</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -2051,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>45545.61869072917</v>
+        <v>45376.13741141204</v>
       </c>
       <c r="R5" t="s">
         <v>63</v>
@@ -2060,31 +2066,31 @@
         <v>66</v>
       </c>
       <c r="T5">
-        <v>9.745523994191661</v>
+        <v>6.209865385298868</v>
       </c>
       <c r="U5" t="s">
         <v>39</v>
       </c>
       <c r="V5">
-        <v>21.184650700811748</v>
+        <v>39.7487204238127</v>
       </c>
       <c r="W5" t="s">
         <v>40</v>
       </c>
       <c r="X5">
-        <v>5.656980106476886</v>
+        <v>45.57374952943703</v>
       </c>
       <c r="Y5" t="s">
         <v>40</v>
       </c>
       <c r="Z5">
-        <v>1.3172615981167741</v>
+        <v>25.02982008815383</v>
       </c>
       <c r="AA5" t="s">
         <v>40</v>
       </c>
       <c r="AB5">
-        <v>1.9509044068175623</v>
+        <v>6.228353358353608</v>
       </c>
       <c r="AC5" t="s">
         <v>41</v>
@@ -2110,19 +2116,19 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <v>131769407</v>
+        <v>136634094</v>
       </c>
       <c r="F6" t="s">
         <v>75</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -2146,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>45421.00433872685</v>
+        <v>45280.018295208334</v>
       </c>
       <c r="R6" t="s">
         <v>72</v>
@@ -2155,31 +2161,31 @@
         <v>75</v>
       </c>
       <c r="T6">
-        <v>6.79158504617409</v>
+        <v>1.2492537484338155</v>
       </c>
       <c r="U6" t="s">
         <v>39</v>
       </c>
       <c r="V6">
-        <v>34.7912924048794</v>
+        <v>45.734002689922775</v>
       </c>
       <c r="W6" t="s">
         <v>40</v>
       </c>
       <c r="X6">
-        <v>25.26336190211809</v>
+        <v>28.007694098373957</v>
       </c>
       <c r="Y6" t="s">
         <v>40</v>
       </c>
       <c r="Z6">
-        <v>46.44630602110126</v>
+        <v>45.14953460819896</v>
       </c>
       <c r="AA6" t="s">
         <v>40</v>
       </c>
       <c r="AB6">
-        <v>1.7011138957343508</v>
+        <v>3.664389539271375</v>
       </c>
       <c r="AC6" t="s">
         <v>41</v>
@@ -2205,7 +2211,7 @@
         <v>83</v>
       </c>
       <c r="E7">
-        <v>805122918</v>
+        <v>849798095</v>
       </c>
       <c r="F7" t="s">
         <v>84</v>
@@ -2214,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -2241,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>45317.3932259838</v>
+        <v>45364.87370916667</v>
       </c>
       <c r="R7" t="s">
         <v>81</v>
@@ -2250,31 +2256,31 @@
         <v>88</v>
       </c>
       <c r="T7">
-        <v>0.4648078117894384</v>
+        <v>4.63018312021688</v>
       </c>
       <c r="U7" t="s">
         <v>39</v>
       </c>
       <c r="V7">
-        <v>22.598780748173777</v>
+        <v>29.125895894734438</v>
       </c>
       <c r="W7" t="s">
         <v>40</v>
       </c>
       <c r="X7">
-        <v>18.236660830956655</v>
+        <v>22.372656728152645</v>
       </c>
       <c r="Y7" t="s">
         <v>40</v>
       </c>
       <c r="Z7">
-        <v>25.57993029401512</v>
+        <v>21.52133166841128</v>
       </c>
       <c r="AA7" t="s">
         <v>40</v>
       </c>
       <c r="AB7">
-        <v>3.6295566062766715</v>
+        <v>4.5237851845813495</v>
       </c>
       <c r="AC7" t="s">
         <v>41</v>
@@ -2300,19 +2306,19 @@
         <v>93</v>
       </c>
       <c r="E8">
-        <v>737078382</v>
+        <v>815904411</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -2336,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>45579.61862234954</v>
+        <v>45625.45170771991</v>
       </c>
       <c r="R8" t="s">
         <v>91</v>
@@ -2345,31 +2351,31 @@
         <v>98</v>
       </c>
       <c r="T8">
-        <v>5.459632665979756</v>
+        <v>5.541177622093781</v>
       </c>
       <c r="U8" t="s">
         <v>39</v>
       </c>
       <c r="V8">
-        <v>3.398556348332417</v>
+        <v>6.680230295873614</v>
       </c>
       <c r="W8" t="s">
         <v>40</v>
       </c>
       <c r="X8">
-        <v>23.927634430938696</v>
+        <v>32.061884569852054</v>
       </c>
       <c r="Y8" t="s">
         <v>40</v>
       </c>
       <c r="Z8">
-        <v>39.357965109410124</v>
+        <v>47.84393667091826</v>
       </c>
       <c r="AA8" t="s">
         <v>40</v>
       </c>
       <c r="AB8">
-        <v>5.67451625197986</v>
+        <v>2.85640792567308</v>
       </c>
       <c r="AC8" t="s">
         <v>41</v>
@@ -2395,19 +2401,19 @@
         <v>103</v>
       </c>
       <c r="E9">
-        <v>464250373</v>
+        <v>702919593</v>
       </c>
       <c r="F9" t="s">
         <v>104</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -2431,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>45486.02801159723</v>
+        <v>45470.761097870374</v>
       </c>
       <c r="R9" t="s">
         <v>101</v>
@@ -2440,31 +2446,31 @@
         <v>108</v>
       </c>
       <c r="T9">
-        <v>2.24524171642255</v>
+        <v>3.1987915416702624</v>
       </c>
       <c r="U9" t="s">
         <v>39</v>
       </c>
       <c r="V9">
-        <v>29.123114162517354</v>
+        <v>14.680000826930955</v>
       </c>
       <c r="W9" t="s">
         <v>40</v>
       </c>
       <c r="X9">
-        <v>6.917902081407585</v>
+        <v>34.76901326383778</v>
       </c>
       <c r="Y9" t="s">
         <v>40</v>
       </c>
       <c r="Z9">
-        <v>12.198332126272659</v>
+        <v>27.565582419351397</v>
       </c>
       <c r="AA9" t="s">
         <v>40</v>
       </c>
       <c r="AB9">
-        <v>1.3096819665213288</v>
+        <v>0.33530094866027926</v>
       </c>
       <c r="AC9" t="s">
         <v>41</v>
@@ -2490,19 +2496,19 @@
         <v>113</v>
       </c>
       <c r="E10">
-        <v>824605511</v>
+        <v>651142528</v>
       </c>
       <c r="F10" t="s">
         <v>114</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -2526,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>45422.35579731481</v>
+        <v>45454.72621490741</v>
       </c>
       <c r="R10" t="s">
         <v>111</v>
@@ -2535,31 +2541,31 @@
         <v>118</v>
       </c>
       <c r="T10">
-        <v>1.253823457657119</v>
+        <v>5.906232015719632</v>
       </c>
       <c r="U10" t="s">
         <v>39</v>
       </c>
       <c r="V10">
-        <v>41.79566895668407</v>
+        <v>49.50909512109908</v>
       </c>
       <c r="W10" t="s">
         <v>40</v>
       </c>
       <c r="X10">
-        <v>49.16247290899438</v>
+        <v>15.148174112588928</v>
       </c>
       <c r="Y10" t="s">
         <v>40</v>
       </c>
       <c r="Z10">
-        <v>18.486942088248504</v>
+        <v>22.563191432994106</v>
       </c>
       <c r="AA10" t="s">
         <v>40</v>
       </c>
       <c r="AB10">
-        <v>9.999551208342453</v>
+        <v>7.025720116285367</v>
       </c>
       <c r="AC10" t="s">
         <v>41</v>
@@ -2585,19 +2591,19 @@
         <v>123</v>
       </c>
       <c r="E11">
-        <v>369551781</v>
+        <v>551257309</v>
       </c>
       <c r="F11" t="s">
         <v>124</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -2621,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>45407.611069189814</v>
+        <v>45485.936185266204</v>
       </c>
       <c r="R11" t="s">
         <v>121</v>
@@ -2630,31 +2636,31 @@
         <v>128</v>
       </c>
       <c r="T11">
-        <v>1.3473120289165543</v>
+        <v>8.282936979353456</v>
       </c>
       <c r="U11" t="s">
         <v>39</v>
       </c>
       <c r="V11">
-        <v>17.4474220181762</v>
+        <v>10.756886433021178</v>
       </c>
       <c r="W11" t="s">
         <v>40</v>
       </c>
       <c r="X11">
-        <v>30.111508172254865</v>
+        <v>27.91078692980754</v>
       </c>
       <c r="Y11" t="s">
         <v>40</v>
       </c>
       <c r="Z11">
-        <v>19.281074560544262</v>
+        <v>43.011786890573084</v>
       </c>
       <c r="AA11" t="s">
         <v>40</v>
       </c>
       <c r="AB11">
-        <v>8.08986429697926</v>
+        <v>1.6658097949592343</v>
       </c>
       <c r="AC11" t="s">
         <v>41</v>
@@ -2680,7 +2686,7 @@
         <v>133</v>
       </c>
       <c r="E12">
-        <v>287449308</v>
+        <v>607284623</v>
       </c>
       <c r="F12" t="s">
         <v>134</v>
@@ -2689,10 +2695,10 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -2716,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>45556.93236037037</v>
+        <v>45326.232424155096</v>
       </c>
       <c r="R12" t="s">
         <v>131</v>
@@ -2725,31 +2731,31 @@
         <v>138</v>
       </c>
       <c r="T12">
-        <v>2.7410355556919397</v>
+        <v>4.242247286926781</v>
       </c>
       <c r="U12" t="s">
         <v>39</v>
       </c>
       <c r="V12">
-        <v>44.20762530721429</v>
+        <v>28.72893700469546</v>
       </c>
       <c r="W12" t="s">
         <v>40</v>
       </c>
       <c r="X12">
-        <v>32.1345687070029</v>
+        <v>33.04686829771032</v>
       </c>
       <c r="Y12" t="s">
         <v>40</v>
       </c>
       <c r="Z12">
-        <v>36.42932785910871</v>
+        <v>4.734771068370124</v>
       </c>
       <c r="AA12" t="s">
         <v>40</v>
       </c>
       <c r="AB12">
-        <v>4.003058430132994</v>
+        <v>2.507715146609749</v>
       </c>
       <c r="AC12" t="s">
         <v>41</v>
@@ -2775,19 +2781,19 @@
         <v>143</v>
       </c>
       <c r="E13">
-        <v>614071511</v>
+        <v>969664311</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -2811,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>45563.99907068287</v>
+        <v>45506.26823524306</v>
       </c>
       <c r="R13" t="s">
         <v>141</v>
@@ -2820,31 +2826,31 @@
         <v>148</v>
       </c>
       <c r="T13">
-        <v>3.160624342936639</v>
+        <v>9.23289487090943</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
       </c>
       <c r="V13">
-        <v>2.889370522473843</v>
+        <v>24.0831045891421</v>
       </c>
       <c r="W13" t="s">
         <v>40</v>
       </c>
       <c r="X13">
-        <v>15.366386733097258</v>
+        <v>2.8246315852969452</v>
       </c>
       <c r="Y13" t="s">
         <v>40</v>
       </c>
       <c r="Z13">
-        <v>37.28701399297435</v>
+        <v>16.157317830266194</v>
       </c>
       <c r="AA13" t="s">
         <v>40</v>
       </c>
       <c r="AB13">
-        <v>8.672948210966213</v>
+        <v>3.269996047752671</v>
       </c>
       <c r="AC13" t="s">
         <v>41</v>
@@ -2870,16 +2876,16 @@
         <v>153</v>
       </c>
       <c r="E14">
-        <v>858304367</v>
+        <v>152599788</v>
       </c>
       <c r="F14" t="s">
         <v>154</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2906,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>45536.10749293982</v>
+        <v>45600.28580916667</v>
       </c>
       <c r="R14" t="s">
         <v>151</v>
@@ -2915,31 +2921,31 @@
         <v>158</v>
       </c>
       <c r="T14">
-        <v>2.7838757420292093</v>
+        <v>9.43549315912717</v>
       </c>
       <c r="U14" t="s">
         <v>39</v>
       </c>
       <c r="V14">
-        <v>43.16546546993368</v>
+        <v>9.82395553155488</v>
       </c>
       <c r="W14" t="s">
         <v>40</v>
       </c>
       <c r="X14">
-        <v>4.891344581281814</v>
+        <v>21.659565837867024</v>
       </c>
       <c r="Y14" t="s">
         <v>40</v>
       </c>
       <c r="Z14">
-        <v>1.5172597394509642</v>
+        <v>34.5407406627514</v>
       </c>
       <c r="AA14" t="s">
         <v>40</v>
       </c>
       <c r="AB14">
-        <v>6.481623416745235</v>
+        <v>0.7750825399309441</v>
       </c>
       <c r="AC14" t="s">
         <v>41</v>
@@ -2965,19 +2971,19 @@
         <v>163</v>
       </c>
       <c r="E15">
-        <v>704306599</v>
+        <v>981753499</v>
       </c>
       <c r="F15" t="s">
         <v>164</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -3001,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>45518.19958940972</v>
+        <v>45527.98327997685</v>
       </c>
       <c r="R15" t="s">
         <v>161</v>
@@ -3010,31 +3016,31 @@
         <v>168</v>
       </c>
       <c r="T15">
-        <v>8.320602894603292</v>
+        <v>6.005143813347103</v>
       </c>
       <c r="U15" t="s">
         <v>39</v>
       </c>
       <c r="V15">
-        <v>49.84665284360551</v>
+        <v>8.999902452641184</v>
       </c>
       <c r="W15" t="s">
         <v>40</v>
       </c>
       <c r="X15">
-        <v>47.82475094881166</v>
+        <v>22.24168580096682</v>
       </c>
       <c r="Y15" t="s">
         <v>40</v>
       </c>
       <c r="Z15">
-        <v>30.275112444853587</v>
+        <v>12.033678649096604</v>
       </c>
       <c r="AA15" t="s">
         <v>40</v>
       </c>
       <c r="AB15">
-        <v>4.04505165625569</v>
+        <v>8.287490320243961</v>
       </c>
       <c r="AC15" t="s">
         <v>41</v>
@@ -3060,16 +3066,16 @@
         <v>173</v>
       </c>
       <c r="E16">
-        <v>482434128</v>
+        <v>537333736</v>
       </c>
       <c r="F16" t="s">
         <v>174</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3096,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>45569.606626608795</v>
+        <v>45443.62118583333</v>
       </c>
       <c r="R16" t="s">
         <v>171</v>
@@ -3105,31 +3111,31 @@
         <v>178</v>
       </c>
       <c r="T16">
-        <v>2.135385205490741</v>
+        <v>3.984203739712976</v>
       </c>
       <c r="U16" t="s">
         <v>39</v>
       </c>
       <c r="V16">
-        <v>28.0436915756705</v>
+        <v>35.862540860644145</v>
       </c>
       <c r="W16" t="s">
         <v>40</v>
       </c>
       <c r="X16">
-        <v>1.2434918434568165</v>
+        <v>18.427647708985596</v>
       </c>
       <c r="Y16" t="s">
         <v>40</v>
       </c>
       <c r="Z16">
-        <v>48.51293872209329</v>
+        <v>39.1960312981093</v>
       </c>
       <c r="AA16" t="s">
         <v>40</v>
       </c>
       <c r="AB16">
-        <v>5.316700040521554</v>
+        <v>5.975250016035413</v>
       </c>
       <c r="AC16" t="s">
         <v>41</v>
@@ -3155,19 +3161,19 @@
         <v>183</v>
       </c>
       <c r="E17">
-        <v>705709660</v>
+        <v>114378018</v>
       </c>
       <c r="F17" t="s">
         <v>184</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -3191,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>45493.62301894676</v>
+        <v>45345.93593369213</v>
       </c>
       <c r="R17" t="s">
         <v>181</v>
@@ -3200,31 +3206,31 @@
         <v>188</v>
       </c>
       <c r="T17">
-        <v>8.501762182617735</v>
+        <v>1.5556842445221704</v>
       </c>
       <c r="U17" t="s">
         <v>39</v>
       </c>
       <c r="V17">
-        <v>48.86101916732512</v>
+        <v>41.52176915957043</v>
       </c>
       <c r="W17" t="s">
         <v>40</v>
       </c>
       <c r="X17">
-        <v>12.41449591669374</v>
+        <v>8.309050227325741</v>
       </c>
       <c r="Y17" t="s">
         <v>40</v>
       </c>
       <c r="Z17">
-        <v>22.694637020955405</v>
+        <v>1.3897155647327102</v>
       </c>
       <c r="AA17" t="s">
         <v>40</v>
       </c>
       <c r="AB17">
-        <v>8.665761316333866</v>
+        <v>0.3043826400050735</v>
       </c>
       <c r="AC17" t="s">
         <v>41</v>
@@ -3250,16 +3256,16 @@
         <v>193</v>
       </c>
       <c r="E18">
-        <v>865545862</v>
+        <v>849414057</v>
       </c>
       <c r="F18" t="s">
         <v>194</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -3286,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>45282.19472594907</v>
+        <v>45424.84105623842</v>
       </c>
       <c r="R18" t="s">
         <v>191</v>
@@ -3295,31 +3301,31 @@
         <v>194</v>
       </c>
       <c r="T18">
-        <v>1.8511045469408205</v>
+        <v>3.3449861855174996</v>
       </c>
       <c r="U18" t="s">
         <v>39</v>
       </c>
       <c r="V18">
-        <v>11.968652277159276</v>
+        <v>8.178030151960941</v>
       </c>
       <c r="W18" t="s">
         <v>40</v>
       </c>
       <c r="X18">
-        <v>31.946986317099828</v>
+        <v>23.903590404979898</v>
       </c>
       <c r="Y18" t="s">
         <v>40</v>
       </c>
       <c r="Z18">
-        <v>1.5886037071460235</v>
+        <v>47.185309965622345</v>
       </c>
       <c r="AA18" t="s">
         <v>40</v>
       </c>
       <c r="AB18">
-        <v>3.238534161960586</v>
+        <v>7.687315494973656</v>
       </c>
       <c r="AC18" t="s">
         <v>41</v>
@@ -3345,19 +3351,19 @@
         <v>202</v>
       </c>
       <c r="E19">
-        <v>457487861</v>
+        <v>459656584</v>
       </c>
       <c r="F19" t="s">
         <v>203</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -3381,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>45285.36612989583</v>
+        <v>45337.12988152778</v>
       </c>
       <c r="R19" t="s">
         <v>200</v>
@@ -3390,31 +3396,31 @@
         <v>207</v>
       </c>
       <c r="T19">
-        <v>1.3615412648569978</v>
+        <v>5.716793976372365</v>
       </c>
       <c r="U19" t="s">
         <v>39</v>
       </c>
       <c r="V19">
-        <v>5.988393882092407</v>
+        <v>35.28212320878103</v>
       </c>
       <c r="W19" t="s">
         <v>40</v>
       </c>
       <c r="X19">
-        <v>48.98616385676955</v>
+        <v>3.130088730068931</v>
       </c>
       <c r="Y19" t="s">
         <v>40</v>
       </c>
       <c r="Z19">
-        <v>8.450266916980375</v>
+        <v>19.95291949412817</v>
       </c>
       <c r="AA19" t="s">
         <v>40</v>
       </c>
       <c r="AB19">
-        <v>6.8742645603595935</v>
+        <v>4.353276333875318</v>
       </c>
       <c r="AC19" t="s">
         <v>41</v>
@@ -3440,19 +3446,19 @@
         <v>212</v>
       </c>
       <c r="E20">
-        <v>716272064</v>
+        <v>500097204</v>
       </c>
       <c r="F20" t="s">
         <v>213</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -3476,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>45573.93254405093</v>
+        <v>45505.33550609954</v>
       </c>
       <c r="R20" t="s">
         <v>210</v>
@@ -3485,31 +3491,31 @@
         <v>217</v>
       </c>
       <c r="T20">
-        <v>6.988746547011252</v>
+        <v>4.594234518932519</v>
       </c>
       <c r="U20" t="s">
         <v>39</v>
       </c>
       <c r="V20">
-        <v>32.82611934295382</v>
+        <v>36.65948355539816</v>
       </c>
       <c r="W20" t="s">
         <v>40</v>
       </c>
       <c r="X20">
-        <v>14.676648932274961</v>
+        <v>46.29070255674801</v>
       </c>
       <c r="Y20" t="s">
         <v>40</v>
       </c>
       <c r="Z20">
-        <v>46.03046660439508</v>
+        <v>26.8256245099575</v>
       </c>
       <c r="AA20" t="s">
         <v>40</v>
       </c>
       <c r="AB20">
-        <v>8.798966876237035</v>
+        <v>7.246586781941263</v>
       </c>
       <c r="AC20" t="s">
         <v>41</v>
@@ -3535,16 +3541,16 @@
         <v>222</v>
       </c>
       <c r="E21">
-        <v>593776922</v>
+        <v>525042676</v>
       </c>
       <c r="F21" t="s">
         <v>223</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -3571,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>45325.08887943287</v>
+        <v>45287.63074988426</v>
       </c>
       <c r="R21" t="s">
         <v>220</v>
@@ -3580,31 +3586,31 @@
         <v>227</v>
       </c>
       <c r="T21">
-        <v>4.766833484427538</v>
+        <v>5.711067093093753</v>
       </c>
       <c r="U21" t="s">
         <v>39</v>
       </c>
       <c r="V21">
-        <v>11.215858532657482</v>
+        <v>30.744956110240093</v>
       </c>
       <c r="W21" t="s">
         <v>40</v>
       </c>
       <c r="X21">
-        <v>29.626807672478634</v>
+        <v>26.052251867124312</v>
       </c>
       <c r="Y21" t="s">
         <v>40</v>
       </c>
       <c r="Z21">
-        <v>29.97491389995743</v>
+        <v>23.081535680364418</v>
       </c>
       <c r="AA21" t="s">
         <v>40</v>
       </c>
       <c r="AB21">
-        <v>1.1137820401756675</v>
+        <v>8.794707693867878</v>
       </c>
       <c r="AC21" t="s">
         <v>41</v>
@@ -3630,16 +3636,16 @@
         <v>153</v>
       </c>
       <c r="E22">
-        <v>558348497</v>
+        <v>513965003</v>
       </c>
       <c r="F22" t="s">
         <v>232</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -3666,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>45582.85765359954</v>
+        <v>45412.0536134375</v>
       </c>
       <c r="R22" t="s">
         <v>230</v>
@@ -3675,31 +3681,31 @@
         <v>236</v>
       </c>
       <c r="T22">
-        <v>3.8860927063964206</v>
+        <v>8.602469032284334</v>
       </c>
       <c r="U22" t="s">
         <v>39</v>
       </c>
       <c r="V22">
-        <v>1.0450112635224436</v>
+        <v>44.80556295351489</v>
       </c>
       <c r="W22" t="s">
         <v>40</v>
       </c>
       <c r="X22">
-        <v>39.45119564799118</v>
+        <v>43.41020749545139</v>
       </c>
       <c r="Y22" t="s">
         <v>40</v>
       </c>
       <c r="Z22">
-        <v>45.810329189896876</v>
+        <v>2.7974355986818216</v>
       </c>
       <c r="AA22" t="s">
         <v>40</v>
       </c>
       <c r="AB22">
-        <v>9.85630578397788</v>
+        <v>0.3896441020425787</v>
       </c>
       <c r="AC22" t="s">
         <v>41</v>
@@ -3725,19 +3731,19 @@
         <v>163</v>
       </c>
       <c r="E23">
-        <v>366777705</v>
+        <v>976031594</v>
       </c>
       <c r="F23" t="s">
         <v>241</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -3761,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>45385.109536689815</v>
+        <v>45379.907939259254</v>
       </c>
       <c r="R23" t="s">
         <v>239</v>
@@ -3770,31 +3776,31 @@
         <v>245</v>
       </c>
       <c r="T23">
-        <v>2.5633594946198324</v>
+        <v>4.445667739202894</v>
       </c>
       <c r="U23" t="s">
         <v>39</v>
       </c>
       <c r="V23">
-        <v>30.237468776368125</v>
+        <v>16.8520417597408</v>
       </c>
       <c r="W23" t="s">
         <v>40</v>
       </c>
       <c r="X23">
-        <v>27.59289087271342</v>
+        <v>8.474334654073019</v>
       </c>
       <c r="Y23" t="s">
         <v>40</v>
       </c>
       <c r="Z23">
-        <v>12.972041258632938</v>
+        <v>10.55988037463484</v>
       </c>
       <c r="AA23" t="s">
         <v>40</v>
       </c>
       <c r="AB23">
-        <v>4.948499428537239</v>
+        <v>9.919400217061032</v>
       </c>
       <c r="AC23" t="s">
         <v>41</v>
@@ -3820,7 +3826,7 @@
         <v>250</v>
       </c>
       <c r="E24">
-        <v>503204727</v>
+        <v>105668854</v>
       </c>
       <c r="F24" t="s">
         <v>251</v>
@@ -3829,10 +3835,10 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -3856,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>45402.80811068287</v>
+        <v>45275.75268318287</v>
       </c>
       <c r="R24" t="s">
         <v>248</v>
@@ -3865,31 +3871,31 @@
         <v>251</v>
       </c>
       <c r="T24">
-        <v>2.0193886509521874</v>
+        <v>0.7210399014402882</v>
       </c>
       <c r="U24" t="s">
         <v>39</v>
       </c>
       <c r="V24">
-        <v>47.80330984308998</v>
+        <v>33.25401819345487</v>
       </c>
       <c r="W24" t="s">
         <v>40</v>
       </c>
       <c r="X24">
-        <v>15.510198554782527</v>
+        <v>7.0771010534014405</v>
       </c>
       <c r="Y24" t="s">
         <v>40</v>
       </c>
       <c r="Z24">
-        <v>14.809908023361425</v>
+        <v>16.806343090789003</v>
       </c>
       <c r="AA24" t="s">
         <v>40</v>
       </c>
       <c r="AB24">
-        <v>3.521101542576219</v>
+        <v>3.8023854862627573</v>
       </c>
       <c r="AC24" t="s">
         <v>41</v>
@@ -3915,19 +3921,19 @@
         <v>259</v>
       </c>
       <c r="E25">
-        <v>367643351</v>
+        <v>251094042</v>
       </c>
       <c r="F25" t="s">
         <v>260</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -3951,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>45275.70776958333</v>
+        <v>45426.3560640625</v>
       </c>
       <c r="R25" t="s">
         <v>257</v>
@@ -3960,31 +3966,31 @@
         <v>260</v>
       </c>
       <c r="T25">
-        <v>9.574643159035523</v>
+        <v>0.32730605986067146</v>
       </c>
       <c r="U25" t="s">
         <v>39</v>
       </c>
       <c r="V25">
-        <v>32.9327321577794</v>
+        <v>6.985156538052875</v>
       </c>
       <c r="W25" t="s">
         <v>40</v>
       </c>
       <c r="X25">
-        <v>10.499939181998387</v>
+        <v>11.95938337339489</v>
       </c>
       <c r="Y25" t="s">
         <v>40</v>
       </c>
       <c r="Z25">
-        <v>49.02778659872365</v>
+        <v>11.969849611879843</v>
       </c>
       <c r="AA25" t="s">
         <v>40</v>
       </c>
       <c r="AB25">
-        <v>5.778663475181084</v>
+        <v>3.486560514669625</v>
       </c>
       <c r="AC25" t="s">
         <v>41</v>
@@ -4010,16 +4016,16 @@
         <v>268</v>
       </c>
       <c r="E26">
-        <v>691466023</v>
+        <v>659917902</v>
       </c>
       <c r="F26" t="s">
         <v>269</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -4046,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>45413.75560365741</v>
+        <v>45635.99733190972</v>
       </c>
       <c r="R26" t="s">
         <v>266</v>
@@ -4055,31 +4061,31 @@
         <v>273</v>
       </c>
       <c r="T26">
-        <v>4.5616882299185795</v>
+        <v>6.562225703733841</v>
       </c>
       <c r="U26" t="s">
         <v>39</v>
       </c>
       <c r="V26">
-        <v>32.93446236745227</v>
+        <v>26.402433350838592</v>
       </c>
       <c r="W26" t="s">
         <v>40</v>
       </c>
       <c r="X26">
-        <v>25.213870486636196</v>
+        <v>25.424662903041927</v>
       </c>
       <c r="Y26" t="s">
         <v>40</v>
       </c>
       <c r="Z26">
-        <v>35.420894516858226</v>
+        <v>20.403713606104933</v>
       </c>
       <c r="AA26" t="s">
         <v>40</v>
       </c>
       <c r="AB26">
-        <v>2.482322500120169</v>
+        <v>0.9246861195500024</v>
       </c>
       <c r="AC26" t="s">
         <v>41</v>
@@ -4105,16 +4111,16 @@
         <v>278</v>
       </c>
       <c r="E27">
-        <v>632857484</v>
+        <v>125386089</v>
       </c>
       <c r="F27" t="s">
         <v>279</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -4141,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>45608.47008013889</v>
+        <v>45400.22488731482</v>
       </c>
       <c r="R27" t="s">
         <v>276</v>
@@ -4150,31 +4156,31 @@
         <v>283</v>
       </c>
       <c r="T27">
-        <v>5.516290239819236</v>
+        <v>9.525183366578519</v>
       </c>
       <c r="U27" t="s">
         <v>39</v>
       </c>
       <c r="V27">
-        <v>16.480378055052483</v>
+        <v>27.690882316871487</v>
       </c>
       <c r="W27" t="s">
         <v>40</v>
       </c>
       <c r="X27">
-        <v>23.457652032743372</v>
+        <v>38.71234468099199</v>
       </c>
       <c r="Y27" t="s">
         <v>40</v>
       </c>
       <c r="Z27">
-        <v>49.02458449083592</v>
+        <v>49.32540068254717</v>
       </c>
       <c r="AA27" t="s">
         <v>40</v>
       </c>
       <c r="AB27">
-        <v>4.143734858163868</v>
+        <v>2.7101454976509336</v>
       </c>
       <c r="AC27" t="s">
         <v>41</v>
@@ -4200,16 +4206,16 @@
         <v>288</v>
       </c>
       <c r="E28">
-        <v>103259478</v>
+        <v>482355750</v>
       </c>
       <c r="F28" t="s">
         <v>289</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -4236,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>45632.02331590278</v>
+        <v>45578.18376047454</v>
       </c>
       <c r="R28" t="s">
         <v>286</v>
@@ -4245,31 +4251,31 @@
         <v>293</v>
       </c>
       <c r="T28">
-        <v>1.6915082268317023</v>
+        <v>2.773291204932143</v>
       </c>
       <c r="U28" t="s">
         <v>39</v>
       </c>
       <c r="V28">
-        <v>33.93362300453621</v>
+        <v>7.365297865305762</v>
       </c>
       <c r="W28" t="s">
         <v>40</v>
       </c>
       <c r="X28">
-        <v>12.1724548595573</v>
+        <v>44.55714198971546</v>
       </c>
       <c r="Y28" t="s">
         <v>40</v>
       </c>
       <c r="Z28">
-        <v>21.77561378833677</v>
+        <v>16.831899214207983</v>
       </c>
       <c r="AA28" t="s">
         <v>40</v>
       </c>
       <c r="AB28">
-        <v>3.1000736363912282</v>
+        <v>7.5151256382480875</v>
       </c>
       <c r="AC28" t="s">
         <v>41</v>
@@ -4295,19 +4301,19 @@
         <v>298</v>
       </c>
       <c r="E29">
-        <v>474783203</v>
+        <v>452584760</v>
       </c>
       <c r="F29" t="s">
         <v>299</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -4331,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>45490.67861224537</v>
+        <v>45422.91226607639</v>
       </c>
       <c r="R29" t="s">
         <v>296</v>
@@ -4340,31 +4346,31 @@
         <v>303</v>
       </c>
       <c r="T29">
-        <v>0.43506104076700425</v>
+        <v>3.0109447213120943</v>
       </c>
       <c r="U29" t="s">
         <v>39</v>
       </c>
       <c r="V29">
-        <v>35.672037441623644</v>
+        <v>24.263333895625273</v>
       </c>
       <c r="W29" t="s">
         <v>40</v>
       </c>
       <c r="X29">
-        <v>38.94652007449748</v>
+        <v>22.023459827287073</v>
       </c>
       <c r="Y29" t="s">
         <v>40</v>
       </c>
       <c r="Z29">
-        <v>27.564318208453077</v>
+        <v>30.314031410659858</v>
       </c>
       <c r="AA29" t="s">
         <v>40</v>
       </c>
       <c r="AB29">
-        <v>4.768735395690598</v>
+        <v>1.4527257028051106</v>
       </c>
       <c r="AC29" t="s">
         <v>41</v>
@@ -4390,7 +4396,7 @@
         <v>308</v>
       </c>
       <c r="E30">
-        <v>191944782</v>
+        <v>594223491</v>
       </c>
       <c r="F30" t="s">
         <v>309</v>
@@ -4399,7 +4405,7 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -4411,10 +4417,10 @@
         <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
+        <v>311</v>
       </c>
       <c r="M30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N30" t="s">
         <v>38</v>
@@ -4426,49 +4432,49 @@
         <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>45381.7456934838</v>
+        <v>45405.46865403935</v>
       </c>
       <c r="R30" t="s">
         <v>306</v>
       </c>
       <c r="S30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T30">
-        <v>4.960330351728207</v>
+        <v>9.216660498534713</v>
       </c>
       <c r="U30" t="s">
         <v>39</v>
       </c>
       <c r="V30">
-        <v>37.65086272675276</v>
+        <v>9.025842767182269</v>
       </c>
       <c r="W30" t="s">
         <v>40</v>
       </c>
       <c r="X30">
-        <v>6.026374185188027</v>
+        <v>6.593235796710137</v>
       </c>
       <c r="Y30" t="s">
         <v>40</v>
       </c>
       <c r="Z30">
-        <v>13.030028100421594</v>
+        <v>12.433635481756998</v>
       </c>
       <c r="AA30" t="s">
         <v>40</v>
       </c>
       <c r="AB30">
-        <v>1.2685856883581397</v>
+        <v>8.777856397511053</v>
       </c>
       <c r="AC30" t="s">
         <v>41</v>
       </c>
       <c r="AD30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AE30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -4476,25 +4482,25 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E31">
-        <v>954330251</v>
+        <v>978511823</v>
       </c>
       <c r="F31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -4503,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N31" t="s">
         <v>38</v>
@@ -4521,49 +4527,49 @@
         <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>45427.776519756946</v>
+        <v>45391.511700937495</v>
       </c>
       <c r="R31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T31">
-        <v>7.617910325630156</v>
+        <v>6.470659037683062</v>
       </c>
       <c r="U31" t="s">
         <v>39</v>
       </c>
       <c r="V31">
-        <v>27.841040264286374</v>
+        <v>21.92810025080807</v>
       </c>
       <c r="W31" t="s">
         <v>40</v>
       </c>
       <c r="X31">
-        <v>3.224774560053949</v>
+        <v>41.83229880234837</v>
       </c>
       <c r="Y31" t="s">
         <v>40</v>
       </c>
       <c r="Z31">
-        <v>28.686703342289057</v>
+        <v>32.059408688438225</v>
       </c>
       <c r="AA31" t="s">
         <v>40</v>
       </c>
       <c r="AB31">
-        <v>9.051328535363368</v>
+        <v>0.14579369071419598</v>
       </c>
       <c r="AC31" t="s">
         <v>41</v>
       </c>
       <c r="AD31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AE31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -4571,40 +4577,40 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E32">
-        <v>401578922</v>
+        <v>249847742</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s">
         <v>38</v>
@@ -4616,49 +4622,49 @@
         <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>45517.96703755787</v>
+        <v>45589.83464748843</v>
       </c>
       <c r="R32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T32">
-        <v>2.6059395327535726</v>
+        <v>4.39783919477656</v>
       </c>
       <c r="U32" t="s">
         <v>39</v>
       </c>
       <c r="V32">
-        <v>32.90258049458559</v>
+        <v>36.84638096329795</v>
       </c>
       <c r="W32" t="s">
         <v>40</v>
       </c>
       <c r="X32">
-        <v>10.213147009627498</v>
+        <v>27.046527354251054</v>
       </c>
       <c r="Y32" t="s">
         <v>40</v>
       </c>
       <c r="Z32">
-        <v>4.114056115713461</v>
+        <v>45.77450603400341</v>
       </c>
       <c r="AA32" t="s">
         <v>40</v>
       </c>
       <c r="AB32">
-        <v>8.776549735743927</v>
+        <v>8.357688270288692</v>
       </c>
       <c r="AC32" t="s">
         <v>41</v>
       </c>
       <c r="AD32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AE32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -4666,25 +4672,25 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E33">
-        <v>419609981</v>
+        <v>341711711</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -4693,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N33" t="s">
         <v>38</v>
@@ -4711,49 +4717,49 @@
         <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>45365.73622037037</v>
+        <v>45387.38408998842</v>
       </c>
       <c r="R33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T33">
-        <v>2.6393703688921595</v>
+        <v>0.8229860125441011</v>
       </c>
       <c r="U33" t="s">
         <v>39</v>
       </c>
       <c r="V33">
-        <v>39.55531009541023</v>
+        <v>33.03979389888011</v>
       </c>
       <c r="W33" t="s">
         <v>40</v>
       </c>
       <c r="X33">
-        <v>38.85831004959476</v>
+        <v>49.52811705758662</v>
       </c>
       <c r="Y33" t="s">
         <v>40</v>
       </c>
       <c r="Z33">
-        <v>19.80029850718244</v>
+        <v>40.910998247860306</v>
       </c>
       <c r="AA33" t="s">
         <v>40</v>
       </c>
       <c r="AB33">
-        <v>7.207589660527006</v>
+        <v>7.582226784502694</v>
       </c>
       <c r="AC33" t="s">
         <v>41</v>
       </c>
       <c r="AD33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -4761,40 +4767,40 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E34">
-        <v>375604276</v>
+        <v>710361645</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N34" t="s">
         <v>38</v>
@@ -4806,49 +4812,49 @@
         <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>45612.12787033565</v>
+        <v>45636.530277881946</v>
       </c>
       <c r="R34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T34">
-        <v>1.9174712480651699</v>
+        <v>9.142614714065525</v>
       </c>
       <c r="U34" t="s">
         <v>39</v>
       </c>
       <c r="V34">
-        <v>43.065837132784964</v>
+        <v>21.822782131191147</v>
       </c>
       <c r="W34" t="s">
         <v>40</v>
       </c>
       <c r="X34">
-        <v>39.51440549538277</v>
+        <v>32.43772721828407</v>
       </c>
       <c r="Y34" t="s">
         <v>40</v>
       </c>
       <c r="Z34">
-        <v>35.83793672035411</v>
+        <v>49.938236370360315</v>
       </c>
       <c r="AA34" t="s">
         <v>40</v>
       </c>
       <c r="AB34">
-        <v>5.803480570297303</v>
+        <v>5.058037340921553</v>
       </c>
       <c r="AC34" t="s">
         <v>41</v>
       </c>
       <c r="AD34" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4856,40 +4862,40 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E35">
-        <v>447630703</v>
+        <v>866631314</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N35" t="s">
         <v>38</v>
@@ -4901,49 +4907,49 @@
         <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>45426.02727189814</v>
+        <v>45583.86015434028</v>
       </c>
       <c r="R35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T35">
-        <v>2.845495310374626</v>
+        <v>4.310382671661455</v>
       </c>
       <c r="U35" t="s">
         <v>39</v>
       </c>
       <c r="V35">
-        <v>19.561257728542223</v>
+        <v>28.778866532447484</v>
       </c>
       <c r="W35" t="s">
         <v>40</v>
       </c>
       <c r="X35">
-        <v>48.320539190633305</v>
+        <v>14.978819109021252</v>
       </c>
       <c r="Y35" t="s">
         <v>40</v>
       </c>
       <c r="Z35">
-        <v>24.89983414068317</v>
+        <v>17.298917403438022</v>
       </c>
       <c r="AA35" t="s">
         <v>40</v>
       </c>
       <c r="AB35">
-        <v>8.871378082509413</v>
+        <v>4.6589279683911915</v>
       </c>
       <c r="AC35" t="s">
         <v>41</v>
       </c>
       <c r="AD35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AE35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -4951,25 +4957,25 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E36">
-        <v>200112654</v>
+        <v>957748943</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -4978,13 +4984,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N36" t="s">
         <v>38</v>
@@ -4996,49 +5002,49 @@
         <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>45426.78384891203</v>
+        <v>45401.651957615744</v>
       </c>
       <c r="R36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T36">
-        <v>4.156585392585765</v>
+        <v>6.314988260702138</v>
       </c>
       <c r="U36" t="s">
         <v>39</v>
       </c>
       <c r="V36">
-        <v>25.626204557644996</v>
+        <v>49.074946632770484</v>
       </c>
       <c r="W36" t="s">
         <v>40</v>
       </c>
       <c r="X36">
-        <v>7.4911631177621025</v>
+        <v>40.03633649475438</v>
       </c>
       <c r="Y36" t="s">
         <v>40</v>
       </c>
       <c r="Z36">
-        <v>38.69156457755228</v>
+        <v>47.38973669029039</v>
       </c>
       <c r="AA36" t="s">
         <v>40</v>
       </c>
       <c r="AB36">
-        <v>2.4641822341547375</v>
+        <v>1.233180640021556</v>
       </c>
       <c r="AC36" t="s">
         <v>41</v>
       </c>
       <c r="AD36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5046,26 +5052,26 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E37">
-        <v>974906590</v>
+        <v>178182966</v>
       </c>
       <c r="F37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -5073,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M37" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N37" t="s">
         <v>38</v>
@@ -5091,49 +5097,49 @@
         <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>45462.89292489583</v>
+        <v>45344.98267506945</v>
       </c>
       <c r="R37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="S37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T37">
-        <v>2.892824644996028</v>
+        <v>8.622000098853311</v>
       </c>
       <c r="U37" t="s">
         <v>39</v>
       </c>
       <c r="V37">
-        <v>5.144135935597661</v>
+        <v>27.7991067932253</v>
       </c>
       <c r="W37" t="s">
         <v>40</v>
       </c>
       <c r="X37">
-        <v>40.10983359208366</v>
+        <v>46.03696650618031</v>
       </c>
       <c r="Y37" t="s">
         <v>40</v>
       </c>
       <c r="Z37">
-        <v>48.17273421243926</v>
+        <v>39.431381167865005</v>
       </c>
       <c r="AA37" t="s">
         <v>40</v>
       </c>
       <c r="AB37">
-        <v>5.336978222975517</v>
+        <v>6.545481409730481</v>
       </c>
       <c r="AC37" t="s">
         <v>41</v>
       </c>
       <c r="AD37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AE37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -5141,40 +5147,40 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E38">
-        <v>531490858</v>
+        <v>150788338</v>
       </c>
       <c r="F38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s">
-        <v>85</v>
+        <v>389</v>
       </c>
       <c r="N38" t="s">
         <v>38</v>
@@ -5186,49 +5192,49 @@
         <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>45622.80706232639</v>
+        <v>45296.43674369213</v>
       </c>
       <c r="R38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S38" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="T38">
-        <v>9.856431295969234</v>
+        <v>9.543530255992765</v>
       </c>
       <c r="U38" t="s">
         <v>39</v>
       </c>
       <c r="V38">
-        <v>20.89222499258176</v>
+        <v>16.552778473769166</v>
       </c>
       <c r="W38" t="s">
         <v>40</v>
       </c>
       <c r="X38">
-        <v>6.913164350296558</v>
+        <v>35.420558108833475</v>
       </c>
       <c r="Y38" t="s">
         <v>40</v>
       </c>
       <c r="Z38">
-        <v>25.683606863348142</v>
+        <v>9.842480750604619</v>
       </c>
       <c r="AA38" t="s">
         <v>40</v>
       </c>
       <c r="AB38">
-        <v>2.8494202105450066</v>
+        <v>8.622070808857146</v>
       </c>
       <c r="AC38" t="s">
         <v>41</v>
       </c>
       <c r="AD38" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AE38" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -5236,40 +5242,40 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E39">
-        <v>205621958</v>
+        <v>183414755</v>
       </c>
       <c r="F39" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G39">
         <v>6</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M39" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N39" t="s">
         <v>38</v>
@@ -5281,49 +5287,49 @@
         <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>45608.45500565972</v>
+        <v>45464.725283101856</v>
       </c>
       <c r="R39" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S39" t="s">
         <v>108</v>
       </c>
       <c r="T39">
-        <v>3.0193834100816783</v>
+        <v>2.741195360511923</v>
       </c>
       <c r="U39" t="s">
         <v>39</v>
       </c>
       <c r="V39">
-        <v>35.6879150771008</v>
+        <v>42.537600820499186</v>
       </c>
       <c r="W39" t="s">
         <v>40</v>
       </c>
       <c r="X39">
-        <v>14.560898145915504</v>
+        <v>12.116495367985575</v>
       </c>
       <c r="Y39" t="s">
         <v>40</v>
       </c>
       <c r="Z39">
-        <v>3.3196244613222747</v>
+        <v>46.97108120244429</v>
       </c>
       <c r="AA39" t="s">
         <v>40</v>
       </c>
       <c r="AB39">
-        <v>6.27656195359986</v>
+        <v>4.820789209536267</v>
       </c>
       <c r="AC39" t="s">
         <v>41</v>
       </c>
       <c r="AD39" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AE39" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -5331,25 +5337,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E40">
-        <v>451948752</v>
+        <v>507900037</v>
       </c>
       <c r="F40" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -5358,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L40" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M40" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N40" t="s">
         <v>38</v>
@@ -5376,49 +5382,49 @@
         <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>45576.275298252316</v>
+        <v>45280.28965706019</v>
       </c>
       <c r="R40" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S40" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T40">
-        <v>1.91272207481139</v>
+        <v>5.666416147833624</v>
       </c>
       <c r="U40" t="s">
         <v>39</v>
       </c>
       <c r="V40">
-        <v>29.63499448504395</v>
+        <v>18.855278503764083</v>
       </c>
       <c r="W40" t="s">
         <v>40</v>
       </c>
       <c r="X40">
-        <v>43.727940842521896</v>
+        <v>3.5733382527290463</v>
       </c>
       <c r="Y40" t="s">
         <v>40</v>
       </c>
       <c r="Z40">
-        <v>9.431075144006911</v>
+        <v>31.76869896118668</v>
       </c>
       <c r="AA40" t="s">
         <v>40</v>
       </c>
       <c r="AB40">
-        <v>2.116656479581448</v>
+        <v>1.3108079815502587</v>
       </c>
       <c r="AC40" t="s">
         <v>41</v>
       </c>
       <c r="AD40" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AE40" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/public/exports/product_list_2024_12.xlsx
+++ b/public/exports/product_list_2024_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="387">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -124,13 +124,13 @@
     <t>Con gomma Guar.Ideale per tutti i tipi di capelli, li rende lucidi e vitali.Adatto anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>789.29</t>
-  </si>
-  <si>
-    <t>351.45</t>
-  </si>
-  <si>
-    <t>928.09</t>
+    <t>74.5</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>15.28</t>
   </si>
   <si>
     <t>deliverable</t>
@@ -163,13 +163,13 @@
     <t>Coadiuvante negli interventi di prevenzione della caduta dei capelli.Aiuta i capelli ad apparire più brillanti.10x10ml.</t>
   </si>
   <si>
-    <t>195.69</t>
-  </si>
-  <si>
-    <t>484.50</t>
-  </si>
-  <si>
-    <t>65.49</t>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>5.27</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/urtinol</t>
@@ -190,13 +190,13 @@
     <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agendo come ottimo districante ed emolliente.Aiuta la stabilizzazione delle condizioni fisiologiche ideali della cute agendo, quindi, anche da antiforfora e antigrasso.10x12ml.</t>
   </si>
   <si>
-    <t>196.55</t>
-  </si>
-  <si>
-    <t>478.39</t>
-  </si>
-  <si>
-    <t>273.19</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6.25</t>
   </si>
   <si>
     <t>Agisce direttamente sulle parti danneggiate del capello.Contiene additivi mineralizzanti.Favorisce in modo notevole l’asciugatura a phon e la pettinatura, agend</t>
@@ -220,15 +220,6 @@
     <t>Con Olio di Argan.Deterge delicatamente senza alterare il naturale equilibrio.L’olio di argan fortifica i capelli.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>262.59</t>
-  </si>
-  <si>
-    <t>566.09</t>
-  </si>
-  <si>
-    <t>621.65</t>
-  </si>
-  <si>
     <t>https://muster-dikson.com/it/prodotto/dikson-treat-shampoo-neutro-24007424</t>
   </si>
   <si>
@@ -247,13 +238,13 @@
     <t>1000ml.</t>
   </si>
   <si>
-    <t>595.45</t>
-  </si>
-  <si>
-    <t>934.95</t>
-  </si>
-  <si>
-    <t>349.25</t>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>6.14</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/herbelan-pack-13046002</t>
@@ -274,13 +265,13 @@
     <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fisico-chimici e migliorano la pettinabilità.Indicato per ogni tipo di acconciatura.250ml.</t>
   </si>
   <si>
-    <t>178.75</t>
-  </si>
-  <si>
-    <t>86.19</t>
-  </si>
-  <si>
-    <t>43.85</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5.4</t>
   </si>
   <si>
     <t>Indicato per capelli fragili, deboli o trattati.Le Proteine della Seta danno lucentezza e morbidezza ai capelli.I Siliconi proteggono il capello dagli stress fi</t>
@@ -304,15 +295,6 @@
     <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti.Uso professionale.10kg.</t>
   </si>
   <si>
-    <t>461.69</t>
-  </si>
-  <si>
-    <t>71.53</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
     <t>Con proteine della seta.Rafforza e ripara i capelli colorati, trattati e sensibilizzati, rendendoli morbidi, setosi e lucenti.Ideale anche per lavaggi frequenti</t>
   </si>
   <si>
@@ -334,13 +316,10 @@
     <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.980ml.</t>
   </si>
   <si>
-    <t>525.65</t>
-  </si>
-  <si>
-    <t>575.56</t>
-  </si>
-  <si>
-    <t>603.23</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t xml:space="preserve">Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per </t>
@@ -364,13 +343,13 @@
     <t>24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni in tutte le tecniche di schiaritura (mèches, colpi di sole, balayages, decapaggi e decolorazioni).Impiego rapido, pratico e sicuro.Non gonfia, non scalda e non scivola durante l’applicazione.Azione anti giallo.</t>
   </si>
   <si>
-    <t>564.99</t>
-  </si>
-  <si>
-    <t>692.59</t>
-  </si>
-  <si>
-    <t>985.99</t>
+    <t>74</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>15.18</t>
   </si>
   <si>
     <t xml:space="preserve">24 bustine x 35g.Con Olio di Germe di Grano Biologico.Polvere pesante profumata non volatile.Potere decolorante incrementato, fino A 9 toni.Massime prestazioni </t>
@@ -394,13 +373,13 @@
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e all’OLIO di GERME di GRANO BIOLOGICO in essa contenuti, assicura ai capelli idratazione, luminosità ed elasticità.Uso: dopo lo shampoo, distribuire sui capelli ancora bagnati massaggiando.Per un risultato ottimale si raccomanda un tempo di posa non superiore a 5 minuti, quindi sciacquare con cura.500ml</t>
   </si>
   <si>
-    <t>36.49</t>
-  </si>
-  <si>
-    <t>360.99</t>
-  </si>
-  <si>
-    <t>655.05</t>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>5.06</t>
   </si>
   <si>
     <t>neutralizza le riflessature giallastre dei capelli biondi, bianchi, grigi, decolorati, con mèches o colorati con tinture superschiarenti.Grazie alla CHERATINA e</t>
@@ -424,13 +403,13 @@
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni freddi e grigi dei capelli, oltre a neutralizzare i toni giallastri indesiderati.Ideale come tonalizzante dopo il trattamento di decolorazione.Toni da argento a viola di intensità variabile in base al tipo di decolorazione e alla porosità del capello.Arricchito con cheratina e olio di germe di grano biologico.Senza sls e sles, siliconi, petrolati e parabeni.1000ml.</t>
   </si>
   <si>
-    <t>746.79</t>
-  </si>
-  <si>
-    <t>163.25</t>
-  </si>
-  <si>
-    <t>921.35</t>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>22.15</t>
+  </si>
+  <si>
+    <t>6.71</t>
   </si>
   <si>
     <t>Per capelli grigi, superschiariti, decolorati o con mèches.Formulato con una doppia concentrazione di pigmenti colorati, fa risaltare efficacemente i toni fredd</t>
@@ -454,13 +433,13 @@
     <t>Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la lucentezza dei capelli con un effetto leggero, che non appesantisce.USO: Vaporizzare a capelli asciutti per completare il processo di laminazione e attriburire un fattore di Extra Brilantezza Applicare anche più volte al giorno per esaltare l’Effetto Specchio dei capelli.</t>
   </si>
   <si>
-    <t>25.29</t>
-  </si>
-  <si>
-    <t>208.15</t>
-  </si>
-  <si>
-    <t>432.89</t>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>6.99</t>
   </si>
   <si>
     <t xml:space="preserve">Sublimatore di luce laminante che esalta e ravviva la brillantezza dei capelli, con un effetto radiante. Le speciali micro particelle illuminanti accentuano la </t>
@@ -484,13 +463,13 @@
     <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificante dell’Olio di Cocco, nutre, ammorbidisce e apporta struttura proteica all’interno del capello. Il suo speciale pH acido sigilla istantaneamente le squame per concentrarne l’effetto sostantivante e rigenerante, creando una lamina esterna protettiva. La speciale Tecnologia Termoattiva , potenziata con Acido Ialuronico e Vitamina E, fissa il trattamento laminante sopra le squame con un effetto «lamellare» uniforme e brillante.USO: Applicare su capelli bagnati e massaggiare a lungo. Risciacquare e ripetere l’applicazione. Asciugare parzialmente i capelli prima di passare alla fase successiva.</t>
   </si>
   <si>
-    <t>107.99</t>
-  </si>
-  <si>
-    <t>238.05</t>
-  </si>
-  <si>
-    <t>73.65</t>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>14.64</t>
   </si>
   <si>
     <t>Crema concentrata termoattiva a doppia azione sostantivante e laminante Arricchita con Biopeptidi ad elevato peso molecolare, veicolati dall’azione fluidificant</t>
@@ -514,13 +493,13 @@
     <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula agevola l’apertura delle squame senza intaccare la struttura del capello.USO: Dopo lo shampoo, asciugare parzialmente per eliminare residui d’acqua e vaporizzare il Primer uniformemente su lunghezze e punte. Massaggiare e pettinare delicatamente. Eliminare l’eventuale eccesso di prodotto con il phon e procedere con il Trattamento Laminante.</t>
   </si>
   <si>
-    <t>730.85</t>
-  </si>
-  <si>
-    <t>32.55</t>
-  </si>
-  <si>
-    <t>528.75</t>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>6.42</t>
   </si>
   <si>
     <t>Il PRIMER prepara i capelli al processo di alcalinizzazione proteica, cioè di deposito delle sostanze sostantivanti al loro interno. Il pH 6,5 della formula age</t>
@@ -544,13 +523,13 @@
     <t>Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution and weathering agents.It wraps the hair with an elastic micro sheath and welds split ends.It develops an intense revitalizing action.It donates an intense, crystalline glossiness, brightness and silk effect.Smooth hair, easy to brush and silky to the touch. Disentangling – it does not oil.cod. 12077211C - 100 ml</t>
   </si>
   <si>
-    <t>636.30</t>
-  </si>
-  <si>
-    <t>884.30</t>
-  </si>
-  <si>
-    <t>750.99</t>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>4.66</t>
   </si>
   <si>
     <t xml:space="preserve">Cosmetic for hair beauty with silk proteins.It enhances the natural glossiness of the hair.It protects against drying up due to intensive treatments, pollution </t>
@@ -574,13 +553,13 @@
     <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natural or treated.For professional use.Straightening gel:100ml + neutralizer: 100ml.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>437.09</t>
-  </si>
-  <si>
-    <t>895.20</t>
+    <t>28.75</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>5.56</t>
   </si>
   <si>
     <t>Two-phase hair straightening treatment (sten emulsion gel straightener + neutro sten neutralizer), recommended for long-lasting results on all hair types, natur</t>
@@ -604,13 +583,13 @@
     <t>No gas. Ensures a high output.Natural hold, does not make hair heavy; removable with a few brush strokes.Maximum output.Strong hold factor.350ml.</t>
   </si>
   <si>
-    <t>627.99</t>
-  </si>
-  <si>
-    <t>630.07</t>
-  </si>
-  <si>
-    <t>23.15</t>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>5.89</t>
   </si>
   <si>
     <t>https://muster-dikson.com/en/product/soffice-forte</t>
@@ -631,15 +610,6 @@
     <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extract of Caulerpa Lentillifera, common algae in the Far East, rich in minerals, polysaccharides, vitamins A, C and E and trace elements, which soften the hair and restore vitality to the hair structure, while protecting it from oxidative stress and future damage. Created to rapidly help weakened and dull hair to return strong, looking radiant and healthy. For best results, use with the other products in the Dikson Luxury Caviar line.cod 24005903 - 280ml.cod 24005902 - 1000ml.</t>
   </si>
   <si>
-    <t>610.50</t>
-  </si>
-  <si>
-    <t>39.60</t>
-  </si>
-  <si>
-    <t>817.85</t>
-  </si>
-  <si>
     <t>Revitalizing and Replenishing Conditioner with Green CaviarTo be used after each shampoo, Dikson Luxury Caviar Conditioner is a conditioning cream based on extr</t>
   </si>
   <si>
@@ -661,15 +631,6 @@
     <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and nourished.500ml.</t>
   </si>
   <si>
-    <t>712.59</t>
-  </si>
-  <si>
-    <t>654.15</t>
-  </si>
-  <si>
-    <t>879.37</t>
-  </si>
-  <si>
     <t>REVITALIZING MASK FOR HAIR with Green CaviarThanks to the synergetic action of the functional substances of the Revitalising Mask, the hair is revitalized and n</t>
   </si>
   <si>
@@ -691,13 +652,13 @@
     <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact and soft. It protects against heat, setting the lamellar film on the cuticle for a «mirror-effect» illuminating action that leaves the hair looking healthy, full of life and of light-reflecting shine.USE: Spray evenly onto the lengths and ends and blow-dry. Use a straightener for an even glossier effect.</t>
   </si>
   <si>
-    <t>482.85</t>
-  </si>
-  <si>
-    <t>597.99</t>
-  </si>
-  <si>
-    <t>8.99</t>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>7.42</t>
   </si>
   <si>
     <t>A liquid thermo-active cream that complements the laminating action when brushing the hair during blow-drying and straightening, leaving hair elastic, compact a</t>
@@ -718,15 +679,6 @@
     <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its special acidic pH instantly seals the scales for a more targeted replenishing and regenerating effect, creating a protective outer layer. The special Thermo-Active Technology, boosted with Hyaluronic Acid and Vitamin E, seals the laminating treatment on the scales for a glossy and uniform «lamellar» effect.USE: after the Primer, use a brush to apply a suitable amount of Laminating Concentrate on each strand. Massage gently against the scales to let the product absorb, and then comb through with a wide tooth comb to promote the pH sealing action. Apply a cap and place under a heat source for 10 minutes. Then rinse.</t>
   </si>
   <si>
-    <t>378.60</t>
-  </si>
-  <si>
-    <t>890.20</t>
-  </si>
-  <si>
-    <t>610.29</t>
-  </si>
-  <si>
     <t>Thermo-active concentrated cream with a double replenishing and laminating action. It nourishes and softens the hair while providing protein structure. Its spec</t>
   </si>
   <si>
@@ -745,15 +697,6 @@
     <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps open up the scales without damaging the hair structure.USE: SHAKE WELL BEFORE USE. After shampooing, partially dry the hair to get rid of any excess water and spray the Primer evenly onto lengths and ends. Massage and comb gently. Remove any excess product with a hair dryer and then proceed with the Lamination Treatment.</t>
   </si>
   <si>
-    <t>688.56</t>
-  </si>
-  <si>
-    <t>694.19</t>
-  </si>
-  <si>
-    <t>792.85</t>
-  </si>
-  <si>
     <t>The PRIMER prepares the hair for the protein alkalinisation process, during which the hair is infused with replenishing nutrients. The pH 7 of the formula helps</t>
   </si>
   <si>
@@ -775,13 +718,13 @@
     <t>Super decolorante professionale per capelli rapido universale ideale per decolorazioni forti, contrasti, mèches e colpi di sole.Uso professionale.24x35g.</t>
   </si>
   <si>
-    <t>140.49</t>
-  </si>
-  <si>
-    <t>212.10</t>
-  </si>
-  <si>
-    <t>877.05</t>
+    <t>68.5</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>14.01</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/platidik</t>
@@ -802,13 +745,13 @@
     <t>Gel fissativo ad azione lucidante per un effetto bagnato duraturo.500ml.</t>
   </si>
   <si>
-    <t>348.15</t>
-  </si>
-  <si>
-    <t>672.99</t>
-  </si>
-  <si>
-    <t>924.39</t>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>5.08</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/oil-gel</t>
@@ -829,15 +772,6 @@
     <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capelli fragili e deboli.10x10ml.</t>
   </si>
   <si>
-    <t>103.09</t>
-  </si>
-  <si>
-    <t>185.90</t>
-  </si>
-  <si>
-    <t>183.89</t>
-  </si>
-  <si>
     <t>Ad azione vitalizzante del capello e tonificante della cute con pappa reale naturale.Particolarmente indicata in presenza di manifestazioni forforali e di capel</t>
   </si>
   <si>
@@ -859,13 +793,13 @@
     <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso professionale.24x35g.</t>
   </si>
   <si>
-    <t>44.90</t>
-  </si>
-  <si>
-    <t>241.09</t>
-  </si>
-  <si>
-    <t>242.19</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>13.48</t>
   </si>
   <si>
     <t>Decolorante professionale per capelli in polvere azzurra pesante profumata non volatile ideale per decolorazioni forti, contrasti e mèches.Azione antigiallo.Uso</t>
@@ -889,13 +823,13 @@
     <t>Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di prevenzione contro la caduta dei capelli.12x10ml.</t>
   </si>
   <si>
-    <t>24.35</t>
-  </si>
-  <si>
-    <t>579.69</t>
-  </si>
-  <si>
-    <t>942.39</t>
+    <t>42.6</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>8.5</t>
   </si>
   <si>
     <t xml:space="preserve">Con estratto placentare animale, estratti vegetali, proteine del grano.Svolge un’energica funzione cosmetico-trattante come elemento coadiuvante nell’azione di </t>
@@ -919,13 +853,13 @@
     <t>Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto capillare e riduce la presenza di doppie punte.E’ di efficace aiuto per la realizzazione di raccolti.Si applica su capelli sia asciutti che bagnati.12x10ml.</t>
   </si>
   <si>
-    <t>934.69</t>
-  </si>
-  <si>
-    <t>681.69</t>
-  </si>
-  <si>
-    <t>670.99</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.13</t>
   </si>
   <si>
     <t xml:space="preserve">Protegge dall’azione igroscopica della salsedine, dal vento, dal sole e dallo smog.Non unge.È anche un districante antistatico, migliora la corposità del fusto </t>
@@ -949,13 +883,13 @@
     <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabilirsi dell’equilibrio fisiologico dei capelli naturali.Svolge un’efficace azione protettiva, districante ed emolliente; ideale sia dopo l’applicazione di trattamenti alcalini (tinture, permanenti, decolorazioni ecc.) come coadiuvante, sia prima per un’intensa azione protettiva.12x12ml.</t>
   </si>
   <si>
-    <t>780.29</t>
-  </si>
-  <si>
-    <t>577.39</t>
-  </si>
-  <si>
-    <t>815.45</t>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>7.97</t>
   </si>
   <si>
     <t>Grazie alle particolari sostanze contenute, affini verso la struttura proteica del capello, agisce direttamente sulle parti danneggiate facilitando il ristabili</t>
@@ -979,13 +913,13 @@
     <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità.Senza Parabeni e Solfati.100ml.A tutte le clienti che richiedono servizi tecnici in salone e a quelle che hanno capelli sfibrati da ripetuti servizi tecnici.Diksoplex Defensive non modifica in alcun modo gli abituali metodi di realizzazione dei servizi tecnici, né nelle fasi applicative, né nei tempi, ma assicura protezione alla struttura dei capelli durante il loro svolgimento.Che il rapporto di miscelazione della crema colorante sia 1:1 o 1:1,5, la diluizione con Diksoplex Defensive 1.Shield non cambia e rimane 2ml di prodotto ogni 20ml di crema colorante.La diluizione cambia quando il rapporto di miscelazione con l’ossidante riguarda una colorazione superschiarente: in questo caso si devono impiegare 4ml di Diksoplex Defensive 1.Shield ogni 25g di crema colorante superschiarente.Si, se la struttura dei capelli lo consente.No, il potere schiarente non si modifica.È tuttavia fondamentale che vengano rispettate le dosi di miscelazione.Certamente, è possibile utilizzare il sistema Diksoplex Defensive su capelli che sono stati colorati, decolorati, stirati o permanentati, anche se la loro struttura appare integra.Diksoplex Defensive 1.Shield deve essere miscelato in proporzione fissa, come indicato nelle modalità di applicazione nei singoli servizi tecnici.Invece la quantità di Diksoplex Defensive 2.Shield Magnifier dipende dalla lunghezza dei capelli e dalla loro porosità.Quindi la dose può essere commisurata a quella che si userebbe se il prodotto fosse una maschera o un conditioner.Certamente.Le modalità di utilizzo sono identiche sia che i capelli siano naturali o che si tratti di extension.Non ci sono controindicazioni.È tuttavia consigliabile non esporre i capelli durante il trattamento con Diksoplex Defensive a temperature superiori a 40/45°C di caldo umido.È altresì consigliabile un controllo più frequente durante l’operazione poiché il calore accelera i tempi di azione del colore e del decolorante.</t>
   </si>
   <si>
-    <t>583.65</t>
-  </si>
-  <si>
-    <t>355.19</t>
-  </si>
-  <si>
-    <t>275.25</t>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>11.03</t>
   </si>
   <si>
     <t>Con Sodium PCA, Arginina, Mix di amino acidi, agisce proteggendo l’integrità della struttura intercellulare del capello e lo fortifica aumentandone l’elasticità</t>
@@ -1009,13 +943,13 @@
     <t>Diksolissage Lissactive n°1 X 100mlDiksolissage Lissactive n°2 X 250mlDiksolissage Lissactive n°3 X 100ml</t>
   </si>
   <si>
-    <t>360.95</t>
-  </si>
-  <si>
-    <t>888.65</t>
-  </si>
-  <si>
-    <t>273.75</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>21.13</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-mini-kit</t>
@@ -1036,13 +970,13 @@
     <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li lascia setosi al tatto, brillanti e visibilmente sani.Utilizzabile anche come maschera di mantenimento post-trattamento in abbinamento a n°1 DIKSO LISSAGE.LISSACTIVE. Shampoo.</t>
   </si>
   <si>
-    <t>309.09</t>
-  </si>
-  <si>
-    <t>530.49</t>
-  </si>
-  <si>
-    <t>653.29</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4.98</t>
   </si>
   <si>
     <t>MASCHERA RIGENERANTE POST TRATTAMENTO LISCIANTEda 100mlUltima fase del trattamento DIKSO LISSAGE. LISSACTIVE, completa l’effetto rigenerante sui capelli e li la</t>
@@ -1066,13 +1000,13 @@
     <t>CREMA TRATTAMENTO LISCIANTE ANTICRESPOda 250mlCuore del trattamento DIKSO LISSAGE. LISSACTIVE,liscia i capelli rigenerandoli allo stesso tempo.</t>
   </si>
   <si>
-    <t>295.49</t>
-  </si>
-  <si>
-    <t>638.99</t>
-  </si>
-  <si>
-    <t>196.69</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>16.88</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/diksolissage-lissactive-n2</t>
@@ -1093,13 +1027,10 @@
     <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. LISSACTIVE.Senza Solfati.Da utilizzare solo in abbinamento alla crema-trattamento lisciante e come shampoo di mantenimento post-trattamento.</t>
   </si>
   <si>
-    <t>904.59</t>
-  </si>
-  <si>
-    <t>627.25</t>
-  </si>
-  <si>
-    <t>92.09</t>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>4.44</t>
   </si>
   <si>
     <t>SHAMPOO PRE-TRATTAMENTO LISCIANTEda 100mlDeterge delicatamente i capelli e li prepara alle fasi successive del trattamento lisciante anticrespo DIKSO LISSAGE. L</t>
@@ -1123,13 +1054,10 @@
     <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei capelli e del cuoio capelluto. L’elemento INNOVATIVO su cui si basa è una FORMULAZIONE UNICA BILANCIATA e TRATTANTE ESCLUSIVA, che ne consente l’applicazione su TUTTI I TIPI DI CAPELLI (naturali, trattati, colorati). Altra peculiarità che la rende applicabile su TUTTI I TIPI DI CAPELLI è la sua NON AGGRESSIVITÀ, in quanto è SENZA AMMONIACA e SENZA ACIDO TIOGLICOLICO.Stabilizza al meglio l’ondulazione rendendola uniforme dalle radici alle punte e neutralizza efficacemente i residui alcalini del liquido ondulante, mentre gli agenti condizionanti garantiscono protezione ed idratazione, preservando la struttura capillare.750 ml</t>
   </si>
   <si>
-    <t>771.75</t>
-  </si>
-  <si>
-    <t>611.19</t>
-  </si>
-  <si>
-    <t>500.35</t>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>4.87</t>
   </si>
   <si>
     <t>Una speciale ONDULAZIONE TRATTANTE sviluppata dai Laboratori di Ricerca Dikson con l’obiettivo primario di coniugare qualità del risultato con rispetto dei cape</t>
@@ -1153,13 +1081,13 @@
     <t/>
   </si>
   <si>
-    <t>308.69</t>
-  </si>
-  <si>
-    <t>603.25</t>
-  </si>
-  <si>
-    <t>233.09</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>15.81</t>
   </si>
   <si>
     <t>https://muster-dikson.com/it/prodotto/diksoplex-defensive-micro-kit</t>
@@ -1180,15 +1108,6 @@
     <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per un’elevata cosmeticità.Colore stabile.Base cremosa condizionante.Riflessi naturali e di straordinaria brillantezza.Ampia gamma di varianti colore.Tonalità fredde.Tubo da 120ml per 2 trattamenti colore.</t>
   </si>
   <si>
-    <t>759.15</t>
-  </si>
-  <si>
-    <t>344.30</t>
-  </si>
-  <si>
-    <t>918.95</t>
-  </si>
-  <si>
     <t>Una nuova esperienza professionale per il colore dei tuoi capelli.Copertura dei capelli bianchi al 100%.Senza sles e parabeni.Formula con attivi selezionati per</t>
   </si>
   <si>
@@ -1210,15 +1129,6 @@
     <t>Emulsione ossidante per colorazioni e decolorazioni; destinato esclusivamente all’uso in miscela con tinture ad ossidazione o con polveri/creme decoloranti per capelli.Uso professionale.125ml.</t>
   </si>
   <si>
-    <t>772.39</t>
-  </si>
-  <si>
-    <t>140.55</t>
-  </si>
-  <si>
-    <t>202.89</t>
-  </si>
-  <si>
     <t>https://muster-dikson.com/it/prodotto/emulsiondor-eurotype-125ml</t>
   </si>
   <si>
@@ -1237,15 +1147,6 @@
     <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoio capelluto apportando vigore e salute.Benessere e vitalità per capelli energici e forti.10x10ml.</t>
   </si>
   <si>
-    <t>775.90</t>
-  </si>
-  <si>
-    <t>728.09</t>
-  </si>
-  <si>
-    <t>921.39</t>
-  </si>
-  <si>
     <t>Contiene Proteine della Seta, che regalano lucentezza e formano uno strato protettivo, ed Estratti Placentari, che favoriscono l’equilibrio fisiologico del cuoi</t>
   </si>
   <si>
@@ -1253,6 +1154,24 @@
   </si>
   <si>
     <t>products_all\DSM_12191211\image.jpg</t>
+  </si>
+  <si>
+    <t>Setamil</t>
+  </si>
+  <si>
+    <t>setamil</t>
+  </si>
+  <si>
+    <t>12201301</t>
+  </si>
+  <si>
+    <t>It protects and soothes sensible skin.You can use it to both regenerate very treated hair and to rebalance it after aggressive chemical treatments.12x12ml.</t>
+  </si>
+  <si>
+    <t>https://muster-dikson.com/en/product/setamil</t>
+  </si>
+  <si>
+    <t>products_all\Setamil_12201301\image.jpg</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1754,16 +1673,16 @@
         <v>35</v>
       </c>
       <c r="G2">
-        <v>922225909</v>
+        <v>187968369</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1790,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>45534.56875855324</v>
+        <v>45607.18613079861</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -1799,31 +1718,31 @@
         <v>36</v>
       </c>
       <c r="V2">
-        <v>7.764413963423086</v>
+        <v>0.8901598159116878</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
       <c r="X2">
-        <v>41.59563748288961</v>
+        <v>42.27457404271857</v>
       </c>
       <c r="Y2" t="s">
         <v>42</v>
       </c>
       <c r="Z2">
-        <v>11.106291880444871</v>
+        <v>33.45180309114309</v>
       </c>
       <c r="AA2" t="s">
         <v>42</v>
       </c>
       <c r="AB2">
-        <v>23.768782256660735</v>
+        <v>7.361681294896794</v>
       </c>
       <c r="AC2" t="s">
         <v>42</v>
       </c>
       <c r="AD2">
-        <v>3.4057737045765593</v>
+        <v>6.890519251916317</v>
       </c>
       <c r="AE2" t="s">
         <v>43</v>
@@ -1855,19 +1774,19 @@
         <v>48</v>
       </c>
       <c r="G3">
-        <v>393382692</v>
+        <v>507196851</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1891,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>45618.29149646991</v>
+        <v>45620.652662430555</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1900,31 +1819,31 @@
         <v>49</v>
       </c>
       <c r="V3">
-        <v>7.058636918928554</v>
+        <v>4.412559561116412</v>
       </c>
       <c r="W3" t="s">
         <v>41</v>
       </c>
       <c r="X3">
-        <v>2.949217751799286</v>
+        <v>45.32564505512484</v>
       </c>
       <c r="Y3" t="s">
         <v>42</v>
       </c>
       <c r="Z3">
-        <v>7.823057582644049</v>
+        <v>8.958662957011091</v>
       </c>
       <c r="AA3" t="s">
         <v>42</v>
       </c>
       <c r="AB3">
-        <v>18.12637909684033</v>
+        <v>41.32904218081228</v>
       </c>
       <c r="AC3" t="s">
         <v>42</v>
       </c>
       <c r="AD3">
-        <v>4.397070929438716</v>
+        <v>4.158684936306875</v>
       </c>
       <c r="AE3" t="s">
         <v>43</v>
@@ -1956,16 +1875,16 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>842459711</v>
+        <v>962790413</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
       </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
         <v>10</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1992,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>45493.11326006944</v>
+        <v>45434.51756046296</v>
       </c>
       <c r="T4" t="s">
         <v>55</v>
@@ -2001,31 +1920,31 @@
         <v>62</v>
       </c>
       <c r="V4">
-        <v>0.6089466896412108</v>
+        <v>1.6372013020461456</v>
       </c>
       <c r="W4" t="s">
         <v>41</v>
       </c>
       <c r="X4">
-        <v>23.593502290674763</v>
+        <v>11.614979728633427</v>
       </c>
       <c r="Y4" t="s">
         <v>42</v>
       </c>
       <c r="Z4">
-        <v>2.324612894041705</v>
+        <v>39.30615550620688</v>
       </c>
       <c r="AA4" t="s">
         <v>42</v>
       </c>
       <c r="AB4">
-        <v>37.58643835517253</v>
+        <v>27.89638194500322</v>
       </c>
       <c r="AC4" t="s">
         <v>42</v>
       </c>
       <c r="AD4">
-        <v>1.1860863635539431</v>
+        <v>1.539911903989886</v>
       </c>
       <c r="AE4" t="s">
         <v>43</v>
@@ -2057,16 +1976,16 @@
         <v>67</v>
       </c>
       <c r="G5">
-        <v>479012127</v>
+        <v>692751134</v>
       </c>
       <c r="H5" t="s">
         <v>68</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -2075,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
         <v>40</v>
@@ -2093,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>45582.23500925926</v>
+        <v>45469.75139706019</v>
       </c>
       <c r="T5" t="s">
         <v>65</v>
@@ -2102,40 +2021,40 @@
         <v>68</v>
       </c>
       <c r="V5">
-        <v>6.941754574885527</v>
+        <v>6.067318363273257</v>
       </c>
       <c r="W5" t="s">
         <v>41</v>
       </c>
       <c r="X5">
-        <v>35.808577833085764</v>
+        <v>27.17867165820959</v>
       </c>
       <c r="Y5" t="s">
         <v>42</v>
       </c>
       <c r="Z5">
-        <v>24.01517125386543</v>
+        <v>36.85553345463748</v>
       </c>
       <c r="AA5" t="s">
         <v>42</v>
       </c>
       <c r="AB5">
-        <v>42.600559423519776</v>
+        <v>48.081387000890714</v>
       </c>
       <c r="AC5" t="s">
         <v>42</v>
       </c>
       <c r="AD5">
-        <v>5.677972861082133</v>
+        <v>0.8241534864131727</v>
       </c>
       <c r="AE5" t="s">
         <v>43</v>
       </c>
       <c r="AF5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -2143,46 +2062,46 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>858607180</v>
+      </c>
+      <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6">
-        <v>305033759</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>77</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
       </c>
       <c r="P6" t="s">
         <v>40</v>
@@ -2194,49 +2113,49 @@
         <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>45583.43608672454</v>
+        <v>45425.73675354167</v>
       </c>
       <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
         <v>74</v>
       </c>
-      <c r="U6" t="s">
-        <v>77</v>
-      </c>
       <c r="V6">
-        <v>0.9636328036192733</v>
+        <v>4.383320719537566</v>
       </c>
       <c r="W6" t="s">
         <v>41</v>
       </c>
       <c r="X6">
-        <v>7.300460406959701</v>
+        <v>1.6310170513007458</v>
       </c>
       <c r="Y6" t="s">
         <v>42</v>
       </c>
       <c r="Z6">
-        <v>16.105630454410864</v>
+        <v>5.244570482303887</v>
       </c>
       <c r="AA6" t="s">
         <v>42</v>
       </c>
       <c r="AB6">
-        <v>16.559079224807462</v>
+        <v>8.495296410078629</v>
       </c>
       <c r="AC6" t="s">
         <v>42</v>
       </c>
       <c r="AD6">
-        <v>2.7717032686630443</v>
+        <v>9.85631472588118</v>
       </c>
       <c r="AE6" t="s">
         <v>43</v>
       </c>
       <c r="AF6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -2244,46 +2163,46 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>363668656</v>
+      </c>
+      <c r="H7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7">
-        <v>753289715</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="O7" t="s">
         <v>86</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
@@ -2295,49 +2214,49 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>45541.987846018514</v>
+        <v>45331.67472895833</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V7">
-        <v>4.184906141293214</v>
+        <v>1.8829662953741375</v>
       </c>
       <c r="W7" t="s">
         <v>41</v>
       </c>
       <c r="X7">
-        <v>8.599924213874573</v>
+        <v>24.036192284172444</v>
       </c>
       <c r="Y7" t="s">
         <v>42</v>
       </c>
       <c r="Z7">
-        <v>48.18653917908174</v>
+        <v>12.55261777144266</v>
       </c>
       <c r="AA7" t="s">
         <v>42</v>
       </c>
       <c r="AB7">
-        <v>15.573486976304668</v>
+        <v>22.161936465938307</v>
       </c>
       <c r="AC7" t="s">
         <v>42</v>
       </c>
       <c r="AD7">
-        <v>1.3451180528268474</v>
+        <v>1.3509778460016522</v>
       </c>
       <c r="AE7" t="s">
         <v>43</v>
       </c>
       <c r="AF7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -2345,31 +2264,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8">
+        <v>768545433</v>
+      </c>
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8">
-        <v>375573722</v>
-      </c>
-      <c r="H8" t="s">
-        <v>96</v>
-      </c>
       <c r="I8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2378,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
         <v>40</v>
@@ -2396,49 +2315,49 @@
         <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>45379.02688450232</v>
+        <v>45595.968274976854</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V8">
-        <v>9.829279998246319</v>
+        <v>5.221627302301642</v>
       </c>
       <c r="W8" t="s">
         <v>41</v>
       </c>
       <c r="X8">
-        <v>22.699566258723056</v>
+        <v>33.27304060851226</v>
       </c>
       <c r="Y8" t="s">
         <v>42</v>
       </c>
       <c r="Z8">
-        <v>25.874757677756765</v>
+        <v>15.006101969667741</v>
       </c>
       <c r="AA8" t="s">
         <v>42</v>
       </c>
       <c r="AB8">
-        <v>47.19017809413574</v>
+        <v>24.06219500624754</v>
       </c>
       <c r="AC8" t="s">
         <v>42</v>
       </c>
       <c r="AD8">
-        <v>9.055652996962362</v>
+        <v>1.9321427482599844</v>
       </c>
       <c r="AE8" t="s">
         <v>43</v>
       </c>
       <c r="AF8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -2446,31 +2365,31 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G9">
-        <v>692722483</v>
+        <v>590452804</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -2479,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
         <v>40</v>
@@ -2497,49 +2416,49 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>45505.87133858797</v>
+        <v>45472.10746730324</v>
       </c>
       <c r="T9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" t="s">
         <v>103</v>
       </c>
-      <c r="U9" t="s">
-        <v>110</v>
-      </c>
       <c r="V9">
-        <v>8.551294897188095</v>
+        <v>7.57042865866815</v>
       </c>
       <c r="W9" t="s">
         <v>41</v>
       </c>
       <c r="X9">
-        <v>48.06802982843372</v>
+        <v>17.790531151744158</v>
       </c>
       <c r="Y9" t="s">
         <v>42</v>
       </c>
       <c r="Z9">
-        <v>34.25849696741736</v>
+        <v>32.81615958086421</v>
       </c>
       <c r="AA9" t="s">
         <v>42</v>
       </c>
       <c r="AB9">
-        <v>40.98646504563019</v>
+        <v>35.67651101507724</v>
       </c>
       <c r="AC9" t="s">
         <v>42</v>
       </c>
       <c r="AD9">
-        <v>5.488639214019041</v>
+        <v>7.537437508101482</v>
       </c>
       <c r="AE9" t="s">
         <v>43</v>
       </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -2547,46 +2466,46 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G10">
-        <v>598154246</v>
+        <v>538428511</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s">
         <v>40</v>
@@ -2598,49 +2517,49 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>45390.31691353009</v>
+        <v>45400.835336539356</v>
       </c>
       <c r="T10" t="s">
+        <v>106</v>
+      </c>
+      <c r="U10" t="s">
         <v>113</v>
       </c>
-      <c r="U10" t="s">
-        <v>120</v>
-      </c>
       <c r="V10">
-        <v>5.764820857410446</v>
+        <v>9.389747270055969</v>
       </c>
       <c r="W10" t="s">
         <v>41</v>
       </c>
       <c r="X10">
-        <v>8.240930380051612</v>
+        <v>35.914413749545545</v>
       </c>
       <c r="Y10" t="s">
         <v>42</v>
       </c>
       <c r="Z10">
-        <v>13.598962832577913</v>
+        <v>26.837726439972897</v>
       </c>
       <c r="AA10" t="s">
         <v>42</v>
       </c>
       <c r="AB10">
-        <v>8.131131641277488</v>
+        <v>27.77419380003471</v>
       </c>
       <c r="AC10" t="s">
         <v>42</v>
       </c>
       <c r="AD10">
-        <v>7.08787769871483</v>
+        <v>1.9803611200445788</v>
       </c>
       <c r="AE10" t="s">
         <v>43</v>
       </c>
       <c r="AF10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AG10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -2648,31 +2567,31 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G11">
-        <v>357917200</v>
+        <v>199724977</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -2681,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
@@ -2699,49 +2618,49 @@
         <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>45329.68436591435</v>
+        <v>45296.195879942126</v>
       </c>
       <c r="T11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11" t="s">
         <v>123</v>
       </c>
-      <c r="U11" t="s">
-        <v>130</v>
-      </c>
       <c r="V11">
-        <v>6.846733800475059</v>
+        <v>7.665991002914168</v>
       </c>
       <c r="W11" t="s">
         <v>41</v>
       </c>
       <c r="X11">
-        <v>38.028525592216226</v>
+        <v>10.021555683780926</v>
       </c>
       <c r="Y11" t="s">
         <v>42</v>
       </c>
       <c r="Z11">
-        <v>27.979265668700066</v>
+        <v>30.649606595501666</v>
       </c>
       <c r="AA11" t="s">
         <v>42</v>
       </c>
       <c r="AB11">
-        <v>6.59912911477206</v>
+        <v>4.594537154747787</v>
       </c>
       <c r="AC11" t="s">
         <v>42</v>
       </c>
       <c r="AD11">
-        <v>6.903560564739925</v>
+        <v>3.278091485681487</v>
       </c>
       <c r="AE11" t="s">
         <v>43</v>
       </c>
       <c r="AF11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -2749,31 +2668,31 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G12">
-        <v>388705894</v>
+        <v>883172633</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2782,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P12" t="s">
         <v>40</v>
@@ -2800,49 +2719,49 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>45586.74309105324</v>
+        <v>45578.12577809028</v>
       </c>
       <c r="T12" t="s">
+        <v>126</v>
+      </c>
+      <c r="U12" t="s">
         <v>133</v>
       </c>
-      <c r="U12" t="s">
-        <v>140</v>
-      </c>
       <c r="V12">
-        <v>1.7420029264171626</v>
+        <v>3.806543189090254</v>
       </c>
       <c r="W12" t="s">
         <v>41</v>
       </c>
       <c r="X12">
-        <v>32.27311970123186</v>
+        <v>21.925612873514115</v>
       </c>
       <c r="Y12" t="s">
         <v>42</v>
       </c>
       <c r="Z12">
-        <v>43.34232651886901</v>
+        <v>23.999532100735387</v>
       </c>
       <c r="AA12" t="s">
         <v>42</v>
       </c>
       <c r="AB12">
-        <v>31.314222063693926</v>
+        <v>12.986481089425634</v>
       </c>
       <c r="AC12" t="s">
         <v>42</v>
       </c>
       <c r="AD12">
-        <v>3.754761650433757</v>
+        <v>8.331233997975124</v>
       </c>
       <c r="AE12" t="s">
         <v>43</v>
       </c>
       <c r="AF12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2850,31 +2769,31 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G13">
-        <v>495063188</v>
+        <v>391563887</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -2883,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s">
         <v>40</v>
@@ -2901,49 +2820,49 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>45440.63181604167</v>
+        <v>45580.28816659722</v>
       </c>
       <c r="T13" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" t="s">
         <v>143</v>
       </c>
-      <c r="U13" t="s">
-        <v>150</v>
-      </c>
       <c r="V13">
-        <v>9.545991985180505</v>
+        <v>4.760941839711173</v>
       </c>
       <c r="W13" t="s">
         <v>41</v>
       </c>
       <c r="X13">
-        <v>17.23222620905816</v>
+        <v>7.870417066722212</v>
       </c>
       <c r="Y13" t="s">
         <v>42</v>
       </c>
       <c r="Z13">
-        <v>32.81328350071239</v>
+        <v>47.569475347441596</v>
       </c>
       <c r="AA13" t="s">
         <v>42</v>
       </c>
       <c r="AB13">
-        <v>16.25883182737499</v>
+        <v>10.192159115622117</v>
       </c>
       <c r="AC13" t="s">
         <v>42</v>
       </c>
       <c r="AD13">
-        <v>2.846311852123398</v>
+        <v>7.549815294140404</v>
       </c>
       <c r="AE13" t="s">
         <v>43</v>
       </c>
       <c r="AF13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AG13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -2951,31 +2870,31 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G14">
-        <v>336634225</v>
+        <v>847291432</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2984,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P14" t="s">
         <v>40</v>
@@ -3002,49 +2921,49 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>45636.155903425926</v>
+        <v>45476.71649262731</v>
       </c>
       <c r="T14" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" t="s">
         <v>153</v>
       </c>
-      <c r="U14" t="s">
-        <v>160</v>
-      </c>
       <c r="V14">
-        <v>1.3108860279666266</v>
+        <v>6.004857203197544</v>
       </c>
       <c r="W14" t="s">
         <v>41</v>
       </c>
       <c r="X14">
-        <v>35.044284484180764</v>
+        <v>12.70657478784961</v>
       </c>
       <c r="Y14" t="s">
         <v>42</v>
       </c>
       <c r="Z14">
-        <v>6.858969895440227</v>
+        <v>21.903424643653988</v>
       </c>
       <c r="AA14" t="s">
         <v>42</v>
       </c>
       <c r="AB14">
-        <v>32.62691363344834</v>
+        <v>30.725966202954993</v>
       </c>
       <c r="AC14" t="s">
         <v>42</v>
       </c>
       <c r="AD14">
-        <v>5.620426834228609</v>
+        <v>2.8989321219957978</v>
       </c>
       <c r="AE14" t="s">
         <v>43</v>
       </c>
       <c r="AF14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -3052,46 +2971,46 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G15">
-        <v>363608390</v>
+        <v>867180092</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
         <v>40</v>
@@ -3103,49 +3022,49 @@
         <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>45307.3800915625</v>
+        <v>45388.408099594904</v>
       </c>
       <c r="T15" t="s">
+        <v>156</v>
+      </c>
+      <c r="U15" t="s">
         <v>163</v>
       </c>
-      <c r="U15" t="s">
-        <v>170</v>
-      </c>
       <c r="V15">
-        <v>5.905811868651103</v>
+        <v>3.9830923899513135</v>
       </c>
       <c r="W15" t="s">
         <v>41</v>
       </c>
       <c r="X15">
-        <v>11.046935790073825</v>
+        <v>39.02129051895753</v>
       </c>
       <c r="Y15" t="s">
         <v>42</v>
       </c>
       <c r="Z15">
-        <v>41.4738645833808</v>
+        <v>16.019695004455848</v>
       </c>
       <c r="AA15" t="s">
         <v>42</v>
       </c>
       <c r="AB15">
-        <v>48.13310384727485</v>
+        <v>3.4309362337630596</v>
       </c>
       <c r="AC15" t="s">
         <v>42</v>
       </c>
       <c r="AD15">
-        <v>0.34780188293420966</v>
+        <v>0.12862318638444745</v>
       </c>
       <c r="AE15" t="s">
         <v>43</v>
       </c>
       <c r="AF15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -3153,46 +3072,46 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G16">
-        <v>313271625</v>
+        <v>536002558</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
         <v>40</v>
@@ -3204,49 +3123,49 @@
         <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>45610.249686435185</v>
+        <v>45411.36795972222</v>
       </c>
       <c r="T16" t="s">
+        <v>166</v>
+      </c>
+      <c r="U16" t="s">
         <v>173</v>
       </c>
-      <c r="U16" t="s">
-        <v>180</v>
-      </c>
       <c r="V16">
-        <v>7.690520801056907</v>
+        <v>4.823420519852147</v>
       </c>
       <c r="W16" t="s">
         <v>41</v>
       </c>
       <c r="X16">
-        <v>47.275540434028294</v>
+        <v>7.112686568607621</v>
       </c>
       <c r="Y16" t="s">
         <v>42</v>
       </c>
       <c r="Z16">
-        <v>7.724811643292106</v>
+        <v>10.331629333558881</v>
       </c>
       <c r="AA16" t="s">
         <v>42</v>
       </c>
       <c r="AB16">
-        <v>49.05288142202295</v>
+        <v>2.4183573521663857</v>
       </c>
       <c r="AC16" t="s">
         <v>42</v>
       </c>
       <c r="AD16">
-        <v>7.1590888470908665</v>
+        <v>7.411817136204425</v>
       </c>
       <c r="AE16" t="s">
         <v>43</v>
       </c>
       <c r="AF16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -3254,31 +3173,31 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G17">
-        <v>903826739</v>
+        <v>153793896</v>
       </c>
       <c r="H17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I17">
         <v>6</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -3287,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P17" t="s">
         <v>40</v>
@@ -3305,49 +3224,49 @@
         <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>45573.94645002315</v>
+        <v>45371.50507125</v>
       </c>
       <c r="T17" t="s">
+        <v>176</v>
+      </c>
+      <c r="U17" t="s">
         <v>183</v>
       </c>
-      <c r="U17" t="s">
-        <v>190</v>
-      </c>
       <c r="V17">
-        <v>5.931553273628045</v>
+        <v>3.8454178804038137</v>
       </c>
       <c r="W17" t="s">
         <v>41</v>
       </c>
       <c r="X17">
-        <v>44.8294696358273</v>
+        <v>43.058478400731246</v>
       </c>
       <c r="Y17" t="s">
         <v>42</v>
       </c>
       <c r="Z17">
-        <v>22.951208782896487</v>
+        <v>4.5946740761771</v>
       </c>
       <c r="AA17" t="s">
         <v>42</v>
       </c>
       <c r="AB17">
-        <v>29.0219915441526</v>
+        <v>7.113870334404523</v>
       </c>
       <c r="AC17" t="s">
         <v>42</v>
       </c>
       <c r="AD17">
-        <v>1.2671293508234345</v>
+        <v>1.263848891804861</v>
       </c>
       <c r="AE17" t="s">
         <v>43</v>
       </c>
       <c r="AF17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -3355,46 +3274,46 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G18">
-        <v>885323474</v>
+        <v>587787547</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s">
         <v>40</v>
@@ -3406,49 +3325,49 @@
         <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>45634.53597789352</v>
+        <v>45630.28499010416</v>
       </c>
       <c r="T18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="U18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="V18">
-        <v>6.923128123346809</v>
+        <v>4.188700851313495</v>
       </c>
       <c r="W18" t="s">
         <v>41</v>
       </c>
       <c r="X18">
-        <v>39.12944630606571</v>
+        <v>32.34816035561504</v>
       </c>
       <c r="Y18" t="s">
         <v>42</v>
       </c>
       <c r="Z18">
-        <v>36.01932085325075</v>
+        <v>45.742242400553465</v>
       </c>
       <c r="AA18" t="s">
         <v>42</v>
       </c>
       <c r="AB18">
-        <v>41.88356916069729</v>
+        <v>32.37534961576431</v>
       </c>
       <c r="AC18" t="s">
         <v>42</v>
       </c>
       <c r="AD18">
-        <v>5.603519921454768</v>
+        <v>5.8788673728602445</v>
       </c>
       <c r="AE18" t="s">
         <v>43</v>
       </c>
       <c r="AF18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -3456,46 +3375,46 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G19">
-        <v>296619730</v>
+        <v>189737047</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="N19" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="O19" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="P19" t="s">
         <v>40</v>
@@ -3507,49 +3426,49 @@
         <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>45365.73168921296</v>
+        <v>45482.8050037037</v>
       </c>
       <c r="T19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="U19" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="V19">
-        <v>6.925432129131778</v>
+        <v>6.595461692062441</v>
       </c>
       <c r="W19" t="s">
         <v>41</v>
       </c>
       <c r="X19">
-        <v>44.90262592880095</v>
+        <v>40.50543616875655</v>
       </c>
       <c r="Y19" t="s">
         <v>42</v>
       </c>
       <c r="Z19">
-        <v>49.75879032087691</v>
+        <v>33.370456527279686</v>
       </c>
       <c r="AA19" t="s">
         <v>42</v>
       </c>
       <c r="AB19">
-        <v>23.521877643667395</v>
+        <v>37.87300935954277</v>
       </c>
       <c r="AC19" t="s">
         <v>42</v>
       </c>
       <c r="AD19">
-        <v>5.197578149301303</v>
+        <v>8.690264112379904</v>
       </c>
       <c r="AE19" t="s">
         <v>43</v>
       </c>
       <c r="AF19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -3557,46 +3476,46 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G20">
-        <v>894986524</v>
+        <v>181191564</v>
       </c>
       <c r="H20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="O20" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s">
         <v>40</v>
@@ -3608,49 +3527,49 @@
         <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>45587.11410689815</v>
+        <v>45391.90254743055</v>
       </c>
       <c r="T20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="U20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="V20">
-        <v>7.947360075553385</v>
+        <v>9.190829137874367</v>
       </c>
       <c r="W20" t="s">
         <v>41</v>
       </c>
       <c r="X20">
-        <v>21.04172065362779</v>
+        <v>42.971783292168055</v>
       </c>
       <c r="Y20" t="s">
         <v>42</v>
       </c>
       <c r="Z20">
-        <v>37.60983181525738</v>
+        <v>31.988642985178412</v>
       </c>
       <c r="AA20" t="s">
         <v>42</v>
       </c>
       <c r="AB20">
-        <v>28.711982135871168</v>
+        <v>16.40224467641329</v>
       </c>
       <c r="AC20" t="s">
         <v>42</v>
       </c>
       <c r="AD20">
-        <v>9.452149440699406</v>
+        <v>4.313394884608119</v>
       </c>
       <c r="AE20" t="s">
         <v>43</v>
       </c>
       <c r="AF20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -3658,31 +3577,31 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G21">
-        <v>938181485</v>
+        <v>183459707</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -3691,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s">
         <v>40</v>
@@ -3709,49 +3628,49 @@
         <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>45482.95133128473</v>
+        <v>45446.001684560186</v>
       </c>
       <c r="T21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="U21" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="V21">
-        <v>6.742004474929911</v>
+        <v>3.499404787403753</v>
       </c>
       <c r="W21" t="s">
         <v>41</v>
       </c>
       <c r="X21">
-        <v>21.1578119557029</v>
+        <v>11.699864414359398</v>
       </c>
       <c r="Y21" t="s">
         <v>42</v>
       </c>
       <c r="Z21">
-        <v>1.581185695744416</v>
+        <v>9.351559089953264</v>
       </c>
       <c r="AA21" t="s">
         <v>42</v>
       </c>
       <c r="AB21">
-        <v>41.75970179661258</v>
+        <v>9.807674363984855</v>
       </c>
       <c r="AC21" t="s">
         <v>42</v>
       </c>
       <c r="AD21">
-        <v>9.839696558194069</v>
+        <v>4.702116713324392</v>
       </c>
       <c r="AE21" t="s">
         <v>43</v>
       </c>
       <c r="AF21" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -3759,46 +3678,46 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G22">
-        <v>871929774</v>
+        <v>611766309</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="N22" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="O22" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="P22" t="s">
         <v>40</v>
@@ -3810,49 +3729,49 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>45358.226284178236</v>
+        <v>45519.44310668981</v>
       </c>
       <c r="T22" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="U22" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="V22">
-        <v>1.8457285348585828</v>
+        <v>3.7456302855466728</v>
       </c>
       <c r="W22" t="s">
         <v>41</v>
       </c>
       <c r="X22">
-        <v>17.584498029692327</v>
+        <v>39.734799221177354</v>
       </c>
       <c r="Y22" t="s">
         <v>42</v>
       </c>
       <c r="Z22">
-        <v>28.4454333344346</v>
+        <v>12.82834638467092</v>
       </c>
       <c r="AA22" t="s">
         <v>42</v>
       </c>
       <c r="AB22">
-        <v>36.396551266941565</v>
+        <v>26.209929116743076</v>
       </c>
       <c r="AC22" t="s">
         <v>42</v>
       </c>
       <c r="AD22">
-        <v>0.9843484367538408</v>
+        <v>1.79200899404704</v>
       </c>
       <c r="AE22" t="s">
         <v>43</v>
       </c>
       <c r="AF22" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -3860,31 +3779,31 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G23">
-        <v>944965382</v>
+        <v>222879689</v>
       </c>
       <c r="H23" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -3893,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="N23" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="O23" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
         <v>40</v>
@@ -3911,49 +3830,49 @@
         <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>45500.95916853009</v>
+        <v>45561.50559940972</v>
       </c>
       <c r="T23" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="U23" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="V23">
-        <v>2.4424621146821983</v>
+        <v>2.5664004151786695</v>
       </c>
       <c r="W23" t="s">
         <v>41</v>
       </c>
       <c r="X23">
-        <v>4.522638356104191</v>
+        <v>27.345157383200696</v>
       </c>
       <c r="Y23" t="s">
         <v>42</v>
       </c>
       <c r="Z23">
-        <v>19.87918897077544</v>
+        <v>29.521131157951615</v>
       </c>
       <c r="AA23" t="s">
         <v>42</v>
       </c>
       <c r="AB23">
-        <v>14.643340524189016</v>
+        <v>43.243526506460945</v>
       </c>
       <c r="AC23" t="s">
         <v>42</v>
       </c>
       <c r="AD23">
-        <v>4.293456788837468</v>
+        <v>7.085870920352271</v>
       </c>
       <c r="AE23" t="s">
         <v>43</v>
       </c>
       <c r="AF23" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -3961,31 +3880,31 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G24">
-        <v>479416746</v>
+        <v>307102207</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -3994,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s">
         <v>40</v>
@@ -4012,49 +3931,49 @@
         <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>45499.39253978009</v>
+        <v>45517.81356072916</v>
       </c>
       <c r="T24" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="U24" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="V24">
-        <v>9.620691361996041</v>
+        <v>9.191585867311227</v>
       </c>
       <c r="W24" t="s">
         <v>41</v>
       </c>
       <c r="X24">
-        <v>16.94802387592631</v>
+        <v>4.488597580964164</v>
       </c>
       <c r="Y24" t="s">
         <v>42</v>
       </c>
       <c r="Z24">
-        <v>14.823676423766567</v>
+        <v>32.90099990722538</v>
       </c>
       <c r="AA24" t="s">
         <v>42</v>
       </c>
       <c r="AB24">
-        <v>2.025855729519081</v>
+        <v>5.703629331945257</v>
       </c>
       <c r="AC24" t="s">
         <v>42</v>
       </c>
       <c r="AD24">
-        <v>9.21584862134466</v>
+        <v>0.9773614118353747</v>
       </c>
       <c r="AE24" t="s">
         <v>43</v>
       </c>
       <c r="AF24" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -4062,31 +3981,31 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="G25">
-        <v>825507287</v>
+        <v>840426020</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -4095,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s">
         <v>40</v>
@@ -4113,49 +4032,49 @@
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>45540.084644560186</v>
+        <v>45506.79924518519</v>
       </c>
       <c r="T25" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="U25" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="V25">
-        <v>4.250757869331558</v>
+        <v>0.8964322405238542</v>
       </c>
       <c r="W25" t="s">
         <v>41</v>
       </c>
       <c r="X25">
-        <v>31.883858181983474</v>
+        <v>24.62049992362978</v>
       </c>
       <c r="Y25" t="s">
         <v>42</v>
       </c>
       <c r="Z25">
-        <v>33.671847374927594</v>
+        <v>23.66619552118932</v>
       </c>
       <c r="AA25" t="s">
         <v>42</v>
       </c>
       <c r="AB25">
-        <v>30.984793690829033</v>
+        <v>6.5407131213910965</v>
       </c>
       <c r="AC25" t="s">
         <v>42</v>
       </c>
       <c r="AD25">
-        <v>4.574649287190915</v>
+        <v>9.848192634785464</v>
       </c>
       <c r="AE25" t="s">
         <v>43</v>
       </c>
       <c r="AF25" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -4163,32 +4082,32 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G26">
-        <v>685812604</v>
+        <v>532910468</v>
       </c>
       <c r="H26" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
@@ -4196,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="N26" t="s">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s">
         <v>40</v>
@@ -4214,49 +4133,49 @@
         <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>45494.25032756945</v>
+        <v>45544.98133614584</v>
       </c>
       <c r="T26" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="U26" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="V26">
-        <v>0.2471089777114444</v>
+        <v>2.1260293120307514</v>
       </c>
       <c r="W26" t="s">
         <v>41</v>
       </c>
       <c r="X26">
-        <v>31.60438086535068</v>
+        <v>30.229386149434056</v>
       </c>
       <c r="Y26" t="s">
         <v>42</v>
       </c>
       <c r="Z26">
-        <v>22.199622890435514</v>
+        <v>41.20402756478146</v>
       </c>
       <c r="AA26" t="s">
         <v>42</v>
       </c>
       <c r="AB26">
-        <v>42.2839248846808</v>
+        <v>13.072834306478315</v>
       </c>
       <c r="AC26" t="s">
         <v>42</v>
       </c>
       <c r="AD26">
-        <v>9.265034352197747</v>
+        <v>1.633967458285299</v>
       </c>
       <c r="AE26" t="s">
         <v>43</v>
       </c>
       <c r="AF26" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -4264,31 +4183,31 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G27">
-        <v>381414911</v>
+        <v>472205465</v>
       </c>
       <c r="H27" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -4297,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s">
         <v>40</v>
@@ -4315,49 +4234,49 @@
         <v>1</v>
       </c>
       <c r="S27" s="1">
-        <v>45598.60815638889</v>
+        <v>45343.32079975694</v>
       </c>
       <c r="T27" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="U27" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="V27">
-        <v>3.587977010045163</v>
+        <v>8.43722812073214</v>
       </c>
       <c r="W27" t="s">
         <v>41</v>
       </c>
       <c r="X27">
-        <v>7.1518602211235685</v>
+        <v>1.24922270595542</v>
       </c>
       <c r="Y27" t="s">
         <v>42</v>
       </c>
       <c r="Z27">
-        <v>23.65165155268927</v>
+        <v>3.2446956607013804</v>
       </c>
       <c r="AA27" t="s">
         <v>42</v>
       </c>
       <c r="AB27">
-        <v>49.82263011893072</v>
+        <v>40.967913122286575</v>
       </c>
       <c r="AC27" t="s">
         <v>42</v>
       </c>
       <c r="AD27">
-        <v>6.1778195020100295</v>
+        <v>1.2439218417653</v>
       </c>
       <c r="AE27" t="s">
         <v>43</v>
       </c>
       <c r="AF27" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -4365,46 +4284,46 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D28" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="G28">
-        <v>642959619</v>
+        <v>596116594</v>
       </c>
       <c r="H28" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>8</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s">
         <v>40</v>
@@ -4416,49 +4335,49 @@
         <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>45434.956970671294</v>
+        <v>45537.650843807874</v>
       </c>
       <c r="T28" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="U28" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="V28">
-        <v>2.93247752088972</v>
+        <v>7.202266077803975</v>
       </c>
       <c r="W28" t="s">
         <v>41</v>
       </c>
       <c r="X28">
-        <v>48.0552057406147</v>
+        <v>5.636709488034973</v>
       </c>
       <c r="Y28" t="s">
         <v>42</v>
       </c>
       <c r="Z28">
-        <v>46.37816668562034</v>
+        <v>6.493596922883604</v>
       </c>
       <c r="AA28" t="s">
         <v>42</v>
       </c>
       <c r="AB28">
-        <v>2.5761073410448265</v>
+        <v>26.261070012212873</v>
       </c>
       <c r="AC28" t="s">
         <v>42</v>
       </c>
       <c r="AD28">
-        <v>6.620377808773824</v>
+        <v>0.9589186549744971</v>
       </c>
       <c r="AE28" t="s">
         <v>43</v>
       </c>
       <c r="AF28" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -4466,46 +4385,46 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D29" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="G29">
-        <v>595572450</v>
+        <v>720961943</v>
       </c>
       <c r="H29" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="P29" t="s">
         <v>40</v>
@@ -4517,49 +4436,49 @@
         <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>45632.767270474535</v>
+        <v>45362.32192835648</v>
       </c>
       <c r="T29" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="U29" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="V29">
-        <v>1.1027308308647528</v>
+        <v>1.336139121044039</v>
       </c>
       <c r="W29" t="s">
         <v>41</v>
       </c>
       <c r="X29">
-        <v>10.593452337656101</v>
+        <v>29.571051240033356</v>
       </c>
       <c r="Y29" t="s">
         <v>42</v>
       </c>
       <c r="Z29">
-        <v>28.35189518060592</v>
+        <v>30.430182084364308</v>
       </c>
       <c r="AA29" t="s">
         <v>42</v>
       </c>
       <c r="AB29">
-        <v>18.282522422524945</v>
+        <v>34.232426955427506</v>
       </c>
       <c r="AC29" t="s">
         <v>42</v>
       </c>
       <c r="AD29">
-        <v>7.766542968122109</v>
+        <v>5.998429791551282</v>
       </c>
       <c r="AE29" t="s">
         <v>43</v>
       </c>
       <c r="AF29" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -4567,31 +4486,31 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G30">
-        <v>391123628</v>
+        <v>439476913</v>
       </c>
       <c r="H30" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -4600,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s">
         <v>40</v>
@@ -4618,49 +4537,49 @@
         <v>1</v>
       </c>
       <c r="S30" s="1">
-        <v>45282.50292640046</v>
+        <v>45426.68740377315</v>
       </c>
       <c r="T30" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="U30" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="V30">
-        <v>4.0082351878762745</v>
+        <v>6.354091664271186</v>
       </c>
       <c r="W30" t="s">
         <v>41</v>
       </c>
       <c r="X30">
-        <v>18.353584218609626</v>
+        <v>22.012061667109702</v>
       </c>
       <c r="Y30" t="s">
         <v>42</v>
       </c>
       <c r="Z30">
-        <v>25.32715700510722</v>
+        <v>2.5156884124159316</v>
       </c>
       <c r="AA30" t="s">
         <v>42</v>
       </c>
       <c r="AB30">
-        <v>22.67145853667183</v>
+        <v>16.23048440121876</v>
       </c>
       <c r="AC30" t="s">
         <v>42</v>
       </c>
       <c r="AD30">
-        <v>9.791516089865983</v>
+        <v>5.1980012406176295</v>
       </c>
       <c r="AE30" t="s">
         <v>43</v>
       </c>
       <c r="AF30" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -4668,32 +4587,32 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="G31">
-        <v>486192854</v>
+        <v>427542235</v>
       </c>
       <c r="H31" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
@@ -4701,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="N31" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s">
         <v>40</v>
@@ -4719,49 +4638,49 @@
         <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>45325.09263534722</v>
+        <v>45481.618947870375</v>
       </c>
       <c r="T31" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="U31" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="V31">
-        <v>9.240707544488023</v>
+        <v>3.9505038262243946</v>
       </c>
       <c r="W31" t="s">
         <v>41</v>
       </c>
       <c r="X31">
-        <v>30.557808264502814</v>
+        <v>43.36061325819241</v>
       </c>
       <c r="Y31" t="s">
         <v>42</v>
       </c>
       <c r="Z31">
-        <v>49.20247030776075</v>
+        <v>32.479135939104516</v>
       </c>
       <c r="AA31" t="s">
         <v>42</v>
       </c>
       <c r="AB31">
-        <v>49.154342359903794</v>
+        <v>6.800232563088713</v>
       </c>
       <c r="AC31" t="s">
         <v>42</v>
       </c>
       <c r="AD31">
-        <v>9.859626866767474</v>
+        <v>6.274717422935988</v>
       </c>
       <c r="AE31" t="s">
         <v>43</v>
       </c>
       <c r="AF31" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -4769,31 +4688,31 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="G32">
-        <v>292739899</v>
+        <v>997956816</v>
       </c>
       <c r="H32" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -4802,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s">
         <v>40</v>
@@ -4820,49 +4739,49 @@
         <v>1</v>
       </c>
       <c r="S32" s="1">
-        <v>45607.102770937505</v>
+        <v>45363.16042347222</v>
       </c>
       <c r="T32" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="U32" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="V32">
-        <v>7.803817894450991</v>
+        <v>2.0376323913978074</v>
       </c>
       <c r="W32" t="s">
         <v>41</v>
       </c>
       <c r="X32">
-        <v>16.887956375356346</v>
+        <v>42.79856164821779</v>
       </c>
       <c r="Y32" t="s">
         <v>42</v>
       </c>
       <c r="Z32">
-        <v>10.64467713200555</v>
+        <v>19.60978255574182</v>
       </c>
       <c r="AA32" t="s">
         <v>42</v>
       </c>
       <c r="AB32">
-        <v>49.1608022338752</v>
+        <v>11.846177355563427</v>
       </c>
       <c r="AC32" t="s">
         <v>42</v>
       </c>
       <c r="AD32">
-        <v>5.768300312562613</v>
+        <v>6.564405569013464</v>
       </c>
       <c r="AE32" t="s">
         <v>43</v>
       </c>
       <c r="AF32" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
@@ -4870,31 +4789,31 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="G33">
-        <v>359033675</v>
+        <v>207913432</v>
       </c>
       <c r="H33" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -4903,13 +4822,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="N33" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="O33" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="P33" t="s">
         <v>40</v>
@@ -4921,49 +4840,49 @@
         <v>1</v>
       </c>
       <c r="S33" s="1">
-        <v>45533.61508459491</v>
+        <v>45438.956860949074</v>
       </c>
       <c r="T33" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="U33" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="V33">
-        <v>8.533874416358863</v>
+        <v>7.699852948130676</v>
       </c>
       <c r="W33" t="s">
         <v>41</v>
       </c>
       <c r="X33">
-        <v>23.243081051246737</v>
+        <v>34.85769785175555</v>
       </c>
       <c r="Y33" t="s">
         <v>42</v>
       </c>
       <c r="Z33">
-        <v>49.340306826310375</v>
+        <v>27.23701381334484</v>
       </c>
       <c r="AA33" t="s">
         <v>42</v>
       </c>
       <c r="AB33">
-        <v>8.801537038910759</v>
+        <v>11.362446045804731</v>
       </c>
       <c r="AC33" t="s">
         <v>42</v>
       </c>
       <c r="AD33">
-        <v>9.488726074501322</v>
+        <v>1.0265105636582814</v>
       </c>
       <c r="AE33" t="s">
         <v>43</v>
       </c>
       <c r="AF33" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
@@ -4971,31 +4890,31 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C34" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="G34">
-        <v>677020336</v>
+        <v>905433578</v>
       </c>
       <c r="H34" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -5004,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="N34" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="O34" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="P34" t="s">
         <v>40</v>
@@ -5022,49 +4941,49 @@
         <v>1</v>
       </c>
       <c r="S34" s="1">
-        <v>45434.028268009264</v>
+        <v>45360.5726233912</v>
       </c>
       <c r="T34" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="U34" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="V34">
-        <v>1.8463372851315825</v>
+        <v>9.26389700358165</v>
       </c>
       <c r="W34" t="s">
         <v>41</v>
       </c>
       <c r="X34">
-        <v>8.74664664992361</v>
+        <v>17.326762947155633</v>
       </c>
       <c r="Y34" t="s">
         <v>42</v>
       </c>
       <c r="Z34">
-        <v>8.606511421008925</v>
+        <v>42.812245164677584</v>
       </c>
       <c r="AA34" t="s">
         <v>42</v>
       </c>
       <c r="AB34">
-        <v>10.499236509845879</v>
+        <v>22.19766728111829</v>
       </c>
       <c r="AC34" t="s">
         <v>42</v>
       </c>
       <c r="AD34">
-        <v>2.99445630362617</v>
+        <v>1.192427051932474</v>
       </c>
       <c r="AE34" t="s">
         <v>43</v>
       </c>
       <c r="AF34" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
@@ -5072,46 +4991,46 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E35" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="F35" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="G35">
-        <v>790571939</v>
+        <v>326262643</v>
       </c>
       <c r="H35" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>360</v>
+        <v>141</v>
       </c>
       <c r="N35" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="O35" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="P35" t="s">
         <v>40</v>
@@ -5123,49 +5042,49 @@
         <v>1</v>
       </c>
       <c r="S35" s="1">
-        <v>45568.1353253125</v>
+        <v>45410.666542384264</v>
       </c>
       <c r="T35" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="U35" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="V35">
-        <v>1.4009179411556165</v>
+        <v>7.147370373715698</v>
       </c>
       <c r="W35" t="s">
         <v>41</v>
       </c>
       <c r="X35">
-        <v>15.949055067065412</v>
+        <v>20.529964579655296</v>
       </c>
       <c r="Y35" t="s">
         <v>42</v>
       </c>
       <c r="Z35">
-        <v>40.692083760019216</v>
+        <v>41.24746225691326</v>
       </c>
       <c r="AA35" t="s">
         <v>42</v>
       </c>
       <c r="AB35">
-        <v>2.676538979237038</v>
+        <v>48.382667505898695</v>
       </c>
       <c r="AC35" t="s">
         <v>42</v>
       </c>
       <c r="AD35">
-        <v>7.146174821033229</v>
+        <v>8.669072788648037</v>
       </c>
       <c r="AE35" t="s">
         <v>43</v>
       </c>
       <c r="AF35" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -5173,31 +5092,31 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G36">
-        <v>235249955</v>
+        <v>182080038</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -5206,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="N36" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="O36" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="P36" t="s">
         <v>40</v>
@@ -5224,49 +5143,49 @@
         <v>1</v>
       </c>
       <c r="S36" s="1">
-        <v>45607.218403969906</v>
+        <v>45406.84049070602</v>
       </c>
       <c r="T36" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="U36" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="V36">
-        <v>2.97023454140966</v>
+        <v>6.822622534055927</v>
       </c>
       <c r="W36" t="s">
         <v>41</v>
       </c>
       <c r="X36">
-        <v>13.140593149696258</v>
+        <v>10.908868140405106</v>
       </c>
       <c r="Y36" t="s">
         <v>42</v>
       </c>
       <c r="Z36">
-        <v>3.0166200061744926</v>
+        <v>32.941160798041814</v>
       </c>
       <c r="AA36" t="s">
         <v>42</v>
       </c>
       <c r="AB36">
-        <v>48.618752057706246</v>
+        <v>22.481391622766857</v>
       </c>
       <c r="AC36" t="s">
         <v>42</v>
       </c>
       <c r="AD36">
-        <v>1.863800612908429</v>
+        <v>8.085509514598844</v>
       </c>
       <c r="AE36" t="s">
         <v>43</v>
       </c>
       <c r="AF36" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
@@ -5274,46 +5193,46 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D37" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E37" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="F37" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G37">
-        <v>399682333</v>
+        <v>242159071</v>
       </c>
       <c r="H37" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="I37">
         <v>8</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="N37" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="P37" t="s">
         <v>40</v>
@@ -5325,49 +5244,49 @@
         <v>1</v>
       </c>
       <c r="S37" s="1">
-        <v>45599.03031443287</v>
+        <v>45417.31549918982</v>
       </c>
       <c r="T37" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="U37" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="V37">
-        <v>0.9776355486190355</v>
+        <v>4.40907396856834</v>
       </c>
       <c r="W37" t="s">
         <v>41</v>
       </c>
       <c r="X37">
-        <v>33.33601871508582</v>
+        <v>3.058091131912369</v>
       </c>
       <c r="Y37" t="s">
         <v>42</v>
       </c>
       <c r="Z37">
-        <v>24.59741614824704</v>
+        <v>9.284771952882046</v>
       </c>
       <c r="AA37" t="s">
         <v>42</v>
       </c>
       <c r="AB37">
-        <v>37.9798155846716</v>
+        <v>24.976010643285335</v>
       </c>
       <c r="AC37" t="s">
         <v>42</v>
       </c>
       <c r="AD37">
-        <v>0.5895271109656066</v>
+        <v>3.355823910170944</v>
       </c>
       <c r="AE37" t="s">
         <v>43</v>
       </c>
       <c r="AF37" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
@@ -5375,31 +5294,31 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D38" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E38" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="F38" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="G38">
-        <v>400698661</v>
+        <v>929658289</v>
       </c>
       <c r="H38" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="I38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -5408,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="N38" t="s">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="O38" t="s">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="P38" t="s">
         <v>40</v>
@@ -5426,49 +5345,49 @@
         <v>1</v>
       </c>
       <c r="S38" s="1">
-        <v>45464.85311681713</v>
+        <v>45368.44604033565</v>
       </c>
       <c r="T38" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="U38" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="V38">
-        <v>8.735672514719608</v>
+        <v>6.861819017910818</v>
       </c>
       <c r="W38" t="s">
         <v>41</v>
       </c>
       <c r="X38">
-        <v>11.049101085474769</v>
+        <v>32.77028566342414</v>
       </c>
       <c r="Y38" t="s">
         <v>42</v>
       </c>
       <c r="Z38">
-        <v>14.773224712028018</v>
+        <v>32.53837686519947</v>
       </c>
       <c r="AA38" t="s">
         <v>42</v>
       </c>
       <c r="AB38">
-        <v>32.007765535221935</v>
+        <v>49.222952886526464</v>
       </c>
       <c r="AC38" t="s">
         <v>42</v>
       </c>
       <c r="AD38">
-        <v>6.707354591636933</v>
+        <v>5.223545747038595</v>
       </c>
       <c r="AE38" t="s">
         <v>43</v>
       </c>
       <c r="AF38" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
@@ -5476,31 +5395,31 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="D39" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="F39" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="G39">
-        <v>579686328</v>
+        <v>657729322</v>
       </c>
       <c r="H39" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -5509,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="N39" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="O39" t="s">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="P39" t="s">
         <v>40</v>
@@ -5527,49 +5446,49 @@
         <v>1</v>
       </c>
       <c r="S39" s="1">
-        <v>45286.41051136574</v>
+        <v>45607.14259050926</v>
       </c>
       <c r="T39" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="U39" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V39">
-        <v>3.1682640233558153</v>
+        <v>5.439848473269326</v>
       </c>
       <c r="W39" t="s">
         <v>41</v>
       </c>
       <c r="X39">
-        <v>19.32659088430065</v>
+        <v>47.88116444293041</v>
       </c>
       <c r="Y39" t="s">
         <v>42</v>
       </c>
       <c r="Z39">
-        <v>19.696202666721504</v>
+        <v>44.636157191341276</v>
       </c>
       <c r="AA39" t="s">
         <v>42</v>
       </c>
       <c r="AB39">
-        <v>10.846787620607827</v>
+        <v>14.269761322713043</v>
       </c>
       <c r="AC39" t="s">
         <v>42</v>
       </c>
       <c r="AD39">
-        <v>7.531515082115187</v>
+        <v>5.478036232727496</v>
       </c>
       <c r="AE39" t="s">
         <v>43</v>
       </c>
       <c r="AF39" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="AG39" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
@@ -5577,46 +5496,46 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C40" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="E40" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="F40" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="G40">
-        <v>166653881</v>
+        <v>738561260</v>
       </c>
       <c r="H40" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>408</v>
+        <v>50</v>
       </c>
       <c r="N40" t="s">
-        <v>409</v>
+        <v>51</v>
       </c>
       <c r="O40" t="s">
-        <v>410</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s">
         <v>40</v>
@@ -5628,49 +5547,150 @@
         <v>1</v>
       </c>
       <c r="S40" s="1">
-        <v>45472.35648814814</v>
+        <v>45542.36343715277</v>
       </c>
       <c r="T40" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="U40" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="V40">
-        <v>7.354981689166466</v>
+        <v>0.3797086402006796</v>
       </c>
       <c r="W40" t="s">
         <v>41</v>
       </c>
       <c r="X40">
-        <v>13.260831224484267</v>
+        <v>9.232437852493746</v>
       </c>
       <c r="Y40" t="s">
         <v>42</v>
       </c>
       <c r="Z40">
-        <v>11.43346391018949</v>
+        <v>19.37952583737061</v>
       </c>
       <c r="AA40" t="s">
         <v>42</v>
       </c>
       <c r="AB40">
-        <v>39.794713222835256</v>
+        <v>32.50519445985234</v>
       </c>
       <c r="AC40" t="s">
         <v>42</v>
       </c>
       <c r="AD40">
-        <v>3.5694608564669337</v>
+        <v>1.493612212773358</v>
       </c>
       <c r="AE40" t="s">
         <v>43</v>
       </c>
       <c r="AF40" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="AG40" t="s">
-        <v>413</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41">
+        <v>798526801</v>
+      </c>
+      <c r="H41" t="s">
+        <v>384</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>355</v>
+      </c>
+      <c r="P41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>45376.6714362037</v>
+      </c>
+      <c r="T41" t="s">
+        <v>381</v>
+      </c>
+      <c r="U41" t="s">
+        <v>384</v>
+      </c>
+      <c r="V41">
+        <v>2.764963979792013</v>
+      </c>
+      <c r="W41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41">
+        <v>48.039507733552725</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z41">
+        <v>46.31342595626613</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB41">
+        <v>32.0089336967235</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD41">
+        <v>1.281755973037207</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
